--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33047-d84688-Reviews-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>196</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Fairfield-Inn-Santa-Clarita-Valencia.h52825.Hotel-Information?chkin=6%2F17%2F2018&amp;chkout=6%2F18%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528496035291&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=c93a5d9f-48e2-49fd-b0c0-a63566b9aabc&amp;mctc=9&amp;exp_dp=149&amp;exp_ts=1528496035922&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2527 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r563452951-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>33047</t>
+  </si>
+  <si>
+    <t>84688</t>
+  </si>
+  <si>
+    <t>563452951</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Good Stay at this Santa Clarita Property</t>
+  </si>
+  <si>
+    <t>I was in the area for business and this property is a good value property for a short stay.For a longer stay, I have previously stayed at the property across the shared parking lot - Residence Inn.  Room was clean and bed was fine.  There a strong room freshener smell.  A breakfast was included in the rate but I just had coffee and some fresh fruit.  If I was looking for a short stay at a value price point then I was stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor    at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>I was in the area for business and this property is a good value property for a short stay.For a longer stay, I have previously stayed at the property across the shared parking lot - Residence Inn.  Room was clean and bed was fine.  There a strong room freshener smell.  A breakfast was included in the rate but I just had coffee and some fresh fruit.  If I was looking for a short stay at a value price point then I was stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r555548312-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>555548312</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Confort and afforadable</t>
+  </si>
+  <si>
+    <t>Excelent hotel located close to Six Flags MAgic Mountain park.God Breakfast and very contable beds .Clean and quiet , and plenty of good reataurant and shopping options around.I recommend this Marriot chain hotel in case you are looking to stay around Santa Clarita area. MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, other at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Excelent hotel located close to Six Flags MAgic Mountain park.God Breakfast and very contable beds .Clean and quiet , and plenty of good reataurant and shopping options around.I recommend this Marriot chain hotel in case you are looking to stay around Santa Clarita area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r554471815-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>554471815</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Quick trip to CA</t>
+  </si>
+  <si>
+    <t>When booking hotels, I do a bunch of research and out of all the hotels I researched, I liked what people had to say about the Fairfield Inn Santa Clarita.  I reserved our room about a month ago &amp; then a week prior to our arrival I upgraded our room.  I was a little hesitate, but the hotel reviewed my request &amp; gave us what I asked for including the bottom floor as requested.  Upon checking in, they front desk gentleman was extremely nice &amp; checked us in quickly with no problems.  Entering the room, I did my usual inspections &amp; could not find anything wrong with this room.  It was nicely decorated, extremely clean, plenty of towels (which were clean), clean linens on the bed, beds were comfy, plenty of parking &amp; I was completely comfortable &amp; felt safe knowing it was just my 13 year old son &amp; myself there.  There was a limited but hot breakfast in the morning.  Not fabulous but not bad either.  Plenty of options to eat around the hotels (most within walking distance).  Overall a great experience &amp; would definitely recommend to everyone &amp; stay here again myself next time in Cali.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>When booking hotels, I do a bunch of research and out of all the hotels I researched, I liked what people had to say about the Fairfield Inn Santa Clarita.  I reserved our room about a month ago &amp; then a week prior to our arrival I upgraded our room.  I was a little hesitate, but the hotel reviewed my request &amp; gave us what I asked for including the bottom floor as requested.  Upon checking in, they front desk gentleman was extremely nice &amp; checked us in quickly with no problems.  Entering the room, I did my usual inspections &amp; could not find anything wrong with this room.  It was nicely decorated, extremely clean, plenty of towels (which were clean), clean linens on the bed, beds were comfy, plenty of parking &amp; I was completely comfortable &amp; felt safe knowing it was just my 13 year old son &amp; myself there.  There was a limited but hot breakfast in the morning.  Not fabulous but not bad either.  Plenty of options to eat around the hotels (most within walking distance).  Overall a great experience &amp; would definitely recommend to everyone &amp; stay here again myself next time in Cali.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r552821917-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>552821917</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Outstanding Hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is very clean!  The rooms were quite big and had enough space to stay for 4 adults and a small child.  The bathrooms were quite big! The room felt bright and warm! The rooms were also very clean!The staff is their prized possession!  All of the staff were friendly and accomodating to our requests such as late check out and a little extension for breakfast time.  The breakfast is basic and complete!   The housekeeping were always so warm and always greeting us no mater how tired they were!The location is also great! very near and convenient to a variety of restaurants and shopping!  everything is either a 5 minute walk away such as Mc Donalds, Ihop, Outback or a 5 minute drive away to more restaurants and shopping!  Loved the area!  Quiet and safe!  Would definitely stay here again and again!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is very clean!  The rooms were quite big and had enough space to stay for 4 adults and a small child.  The bathrooms were quite big! The room felt bright and warm! The rooms were also very clean!The staff is their prized possession!  All of the staff were friendly and accomodating to our requests such as late check out and a little extension for breakfast time.  The breakfast is basic and complete!   The housekeeping were always so warm and always greeting us no mater how tired they were!The location is also great! very near and convenient to a variety of restaurants and shopping!  everything is either a 5 minute walk away such as Mc Donalds, Ihop, Outback or a 5 minute drive away to more restaurants and shopping!  Loved the area!  Quiet and safe!  Would definitely stay here again and again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r546090845-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>546090845</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Great Place To Take An Overnight Break While Driving to Southern California</t>
+  </si>
+  <si>
+    <t>I needed a hotel where I could spend the night to break up my trip from the Merced to Hermosa Beach. The Fairfield Inn was perfectly located for that. Also, the rooms were nice and quiet, and there were numerous places to eat nearby. Also, the Marriott Senior Discount saved me quite a bit of money. I highly recommend staying here if you are a senior like me and need to take a break from driving.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>I needed a hotel where I could spend the night to break up my trip from the Merced to Hermosa Beach. The Fairfield Inn was perfectly located for that. Also, the rooms were nice and quiet, and there were numerous places to eat nearby. Also, the Marriott Senior Discount saved me quite a bit of money. I highly recommend staying here if you are a senior like me and need to take a break from driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r545342750-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>545342750</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Good stay for the value</t>
+  </si>
+  <si>
+    <t>This was a stop on our road trip. We booked last minute. We've had hit and misses when it came to road trip accommodations due to location, safety of the area, food options, etc. Fairfield Inn was packed with cars when we arrived. It felt safe. The rooms were clean and there were food options close by. We stayed long enough to get some rest and head back on the road but it was worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>This was a stop on our road trip. We booked last minute. We've had hit and misses when it came to road trip accommodations due to location, safety of the area, food options, etc. Fairfield Inn was packed with cars when we arrived. It felt safe. The rooms were clean and there were food options close by. We stayed long enough to get some rest and head back on the road but it was worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r531160044-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>531160044</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>A Clean More Reasonable Place To Stay</t>
+  </si>
+  <si>
+    <t>When in Santa Clarita, hotels/motels can be very pricey, and it does take time to find a reasonable place to stay; here is where Fairfield Inn, by Marriott, provides a very clean, and comfortable place to stay, at a more reasonable price.  We saved about $72/night over a similar place only a short distance away.This place also provides a free breakfast, of reasonable quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>When in Santa Clarita, hotels/motels can be very pricey, and it does take time to find a reasonable place to stay; here is where Fairfield Inn, by Marriott, provides a very clean, and comfortable place to stay, at a more reasonable price.  We saved about $72/night over a similar place only a short distance away.This place also provides a free breakfast, of reasonable quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r525293417-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>525293417</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasantly surprised </t>
+  </si>
+  <si>
+    <t>Unexpectedly stayed here and was pleasantly surprised. The rooms were clean and updated and the breakfast was great with lots of hot and cold options.  The staff were extremely friendly and accommodating. Convenient location just of expressway with restaurants and stores close by. MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Unexpectedly stayed here and was pleasantly surprised. The rooms were clean and updated and the breakfast was great with lots of hot and cold options.  The staff were extremely friendly and accommodating. Convenient location just of expressway with restaurants and stores close by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r521248491-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>521248491</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stop Over</t>
+  </si>
+  <si>
+    <t>We had a great stop over at this Marriott property.  The rooms were very clean, quiet, comfortable and a nice welcome after a long day on the road.  We missed enjoying the pool and hot tub though.  A complete breakfast was available in the morning.  I would stay here again and recommend.  Note:  This is a great overnight spot if you are heading north and want to miss the LA traffic in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>We had a great stop over at this Marriott property.  The rooms were very clean, quiet, comfortable and a nice welcome after a long day on the road.  We missed enjoying the pool and hot tub though.  A complete breakfast was available in the morning.  I would stay here again and recommend.  Note:  This is a great overnight spot if you are heading north and want to miss the LA traffic in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r503028583-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>503028583</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect stop on road trip through LA</t>
+  </si>
+  <si>
+    <t>Last night of a long road trip, facing the traffic through Los Angeles. We stopped here and had such a good experience, it will be our spot to stop on future trips. Coming from Phoenix, we go through Los Angeles often. The front desk staff were so friendly and welcoming. The room was comfortable and quiet. You are off the highway in a pleasant area (great sushi restaurant an easy walk from hotel, along with other restaurants). The hotel breakfast has excellent variety, lots of fruit, along with hot and cold entrees.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Manager on Duty  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Last night of a long road trip, facing the traffic through Los Angeles. We stopped here and had such a good experience, it will be our spot to stop on future trips. Coming from Phoenix, we go through Los Angeles often. The front desk staff were so friendly and welcoming. The room was comfortable and quiet. You are off the highway in a pleasant area (great sushi restaurant an easy walk from hotel, along with other restaurants). The hotel breakfast has excellent variety, lots of fruit, along with hot and cold entrees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r493368299-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>493368299</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was great from check in to check out. Friendly staff, clean rooms, nice size rooms, comfortable beds, excellent breakfast, nice pool/hot tub area and it's easy to and from Six Flags Magic Mountain. Next time we're in town, this is where we'll be staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was great from check in to check out. Friendly staff, clean rooms, nice size rooms, comfortable beds, excellent breakfast, nice pool/hot tub area and it's easy to and from Six Flags Magic Mountain. Next time we're in town, this is where we'll be staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r490663719-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>490663719</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Everything was great</t>
+  </si>
+  <si>
+    <t>Easy on and off the freeway location. Sparkling clean hotel, lobby, hallways, and rooms. The room air conditioner was quiet, allowing a good night's sleep. Comfortable bed.The included breakfast was very good with both scrambled eggs and a cheese omelette, with sausage patties. The manager of the breakfast came to each table to say good morning and see if we were happy with breakfast. Nice touch! We will stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Easy on and off the freeway location. Sparkling clean hotel, lobby, hallways, and rooms. The room air conditioner was quiet, allowing a good night's sleep. Comfortable bed.The included breakfast was very good with both scrambled eggs and a cheese omelette, with sausage patties. The manager of the breakfast came to each table to say good morning and see if we were happy with breakfast. Nice touch! We will stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r475697022-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>475697022</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay!!</t>
+  </si>
+  <si>
+    <t>We went here with friends for our 10 year wedding anniversary trip to Six Flags. We really enjoyed it! The staff was very polite and accommodating. I didn't really hear any noise from other guests. They have plenty of parking, and free breakfast! Some of the breakfast items weren't great like the sausage patties or eggs, but they had enough of a selection that it didn't bother me at all. We also loved that it was SO close to almost anything you'd need (restaurants, stores, etc.) and Six Flags!! We'd definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>We went here with friends for our 10 year wedding anniversary trip to Six Flags. We really enjoyed it! The staff was very polite and accommodating. I didn't really hear any noise from other guests. They have plenty of parking, and free breakfast! Some of the breakfast items weren't great like the sausage patties or eggs, but they had enough of a selection that it didn't bother me at all. We also loved that it was SO close to almost anything you'd need (restaurants, stores, etc.) and Six Flags!! We'd definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r470730801-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>470730801</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>We would stay here again!</t>
+  </si>
+  <si>
+    <t>All excellent, staff, breakfast, room and bed. The staff went out of their way to explain everything and to make sure we were comfortable. I believe the highest rating you can give is "We will stay here again!"MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>All excellent, staff, breakfast, room and bed. The staff went out of their way to explain everything and to make sure we were comfortable. I believe the highest rating you can give is "We will stay here again!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r468560327-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>468560327</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed our stay at the Fairfield Inn </t>
+  </si>
+  <si>
+    <t>We stayed for a few days while visiting family in the area. The front desk clerk who checked us in was very friendly. The room was large and clean and the hotel is close to a lot of restaurants and shopping. Everything we wanted to see and do was about 40 - 50 minutes from here in different directions so this made for a good home base for us each day. MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for a few days while visiting family in the area. The front desk clerk who checked us in was very friendly. The room was large and clean and the hotel is close to a lot of restaurants and shopping. Everything we wanted to see and do was about 40 - 50 minutes from here in different directions so this made for a good home base for us each day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r453014024-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>453014024</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Decent stay, good rates, nice area, friendly staff</t>
+  </si>
+  <si>
+    <t>The subject line says it all.  Good rates based on a quick search of hotels in the area with AAA discounts.  Breakfast is pretty good, I saw comments about the small area for breakfast but it was fine.  It does get a little crowded around 8:00 am when everyone decides to go down but other than that it was ok.The hotel is next to the interstate, with lots of stores nearby - Marshall's, Wal-mart, Old Navy, etc.  Also next to fast food places - In.out, taco bell, poolo loco, Carl's,,,If I had my preference I would ask for a ground floor room just because it's a shorter walk for breakfast and out the door.Room was clean and "average" sized, no complaints.  All in all good bang for the buck,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>The subject line says it all.  Good rates based on a quick search of hotels in the area with AAA discounts.  Breakfast is pretty good, I saw comments about the small area for breakfast but it was fine.  It does get a little crowded around 8:00 am when everyone decides to go down but other than that it was ok.The hotel is next to the interstate, with lots of stores nearby - Marshall's, Wal-mart, Old Navy, etc.  Also next to fast food places - In.out, taco bell, poolo loco, Carl's,,,If I had my preference I would ask for a ground floor room just because it's a shorter walk for breakfast and out the door.Room was clean and "average" sized, no complaints.  All in all good bang for the buck,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r452534769-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>452534769</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Good option</t>
+  </si>
+  <si>
+    <t>Very pleasant place. Very good breakfast.Hot jacuzzi, if you have balls, in the winter!!!The only complain is that the in-room carpet was very very dirty, leaving my socks and my family's very dark.Employees are very friendly.Price is not good nor bad. Ok, I'd say.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Very pleasant place. Very good breakfast.Hot jacuzzi, if you have balls, in the winter!!!The only complain is that the in-room carpet was very very dirty, leaving my socks and my family's very dark.Employees are very friendly.Price is not good nor bad. Ok, I'd say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r452388570-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>452388570</t>
+  </si>
+  <si>
+    <t>What a great place to stay!</t>
+  </si>
+  <si>
+    <t>Room was clean.  Beds were comfortable.  House keeping was awsome.  Rate was standard.  Continental breakfeast was fair and there was plenty to choose from.  Did not hear anyone above us or below.  Great access to interstate 5.  Plenty of restaurants and shopping close by.  If needed in the future would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean.  Beds were comfortable.  House keeping was awsome.  Rate was standard.  Continental breakfeast was fair and there was plenty to choose from.  Did not hear anyone above us or below.  Great access to interstate 5.  Plenty of restaurants and shopping close by.  If needed in the future would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r442014603-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>442014603</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>Pretty good stay.   Very comfortable for all.  Clean and spacious.   Serve free breakfast, everything pretty good.  A variety of stuff for breakfast.  Good way to save on meals.   Also has a fitness center and heated pool for this cold December nights.  MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Pretty good stay.   Very comfortable for all.  Clean and spacious.   Serve free breakfast, everything pretty good.  A variety of stuff for breakfast.  Good way to save on meals.   Also has a fitness center and heated pool for this cold December nights.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r441649030-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>441649030</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Reasonably Priced and Clean!</t>
+  </si>
+  <si>
+    <t>We've stayed here several times and appreciate the proximity to I-5. Rooms are clean. Management is helpful and responsive. This hotel can fill up fast, so be sure to reserve early for peak times. Hotel is near some nice restaurants and shopping areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We've stayed here several times and appreciate the proximity to I-5. Rooms are clean. Management is helpful and responsive. This hotel can fill up fast, so be sure to reserve early for peak times. Hotel is near some nice restaurants and shopping areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r440638219-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>440638219</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Bargain</t>
+  </si>
+  <si>
+    <t>This hotel ( no suites unfortunately) is located minutes off of the freeway. It is a typical Marriott lower end hotel ideal for several nights stay. It has special rates for families of local universities and colleges, a good free breakfast and free wi-fi. The bed was comfortable and clean. There was plenty of parking.There is a heated swimming pool and exercise room across the parking lot in the Residence Inn ( not so convenient if it is chilly).We had several glitches which were not major. The tv was broken when we arrived ( they fixed it immediately) and the coffee pot broke the day after we got there. When we reported it, the person behind the front desk seemed very matter of fact and disinterested. The breakfast room could have been better designed as some of the items were crammed in the corner and crowded to get to. Otherwise for the price it is a real bargain and we would stay here again since it is very close to our daughter's school.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>This hotel ( no suites unfortunately) is located minutes off of the freeway. It is a typical Marriott lower end hotel ideal for several nights stay. It has special rates for families of local universities and colleges, a good free breakfast and free wi-fi. The bed was comfortable and clean. There was plenty of parking.There is a heated swimming pool and exercise room across the parking lot in the Residence Inn ( not so convenient if it is chilly).We had several glitches which were not major. The tv was broken when we arrived ( they fixed it immediately) and the coffee pot broke the day after we got there. When we reported it, the person behind the front desk seemed very matter of fact and disinterested. The breakfast room could have been better designed as some of the items were crammed in the corner and crowded to get to. Otherwise for the price it is a real bargain and we would stay here again since it is very close to our daughter's school.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r394909468-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>394909468</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Always a pleasant stay</t>
+  </si>
+  <si>
+    <t>This is the third time we have stayed at this hotel in the last year. It's an affordable hotel for Los Angeles and right off the I-5. Aesthetically it's like most other Fairfield's. The rooms are spacious enough and the breakfast is good. My only complaint is the size of the breakfast area. It's pretty small and if you hit it during peak hours in the morning then it's really hard to maneuver around the many people and the lack of tables.  My advice is to get to the breakfast area really early when it is least busy. But the staff are great and there are plenty of restaurants near by, most importantly In n Out Burger!We will definitely stay here again when in LA. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2016</t>
+  </si>
+  <si>
+    <t>This is the third time we have stayed at this hotel in the last year. It's an affordable hotel for Los Angeles and right off the I-5. Aesthetically it's like most other Fairfield's. The rooms are spacious enough and the breakfast is good. My only complaint is the size of the breakfast area. It's pretty small and if you hit it during peak hours in the morning then it's really hard to maneuver around the many people and the lack of tables.  My advice is to get to the breakfast area really early when it is least busy. But the staff are great and there are plenty of restaurants near by, most importantly In n Out Burger!We will definitely stay here again when in LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r390858221-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>390858221</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Super clean rooms, soft beds, but hard to find even with GPS</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and somewhat spacious. It had a separate sink area outside the shower/toilet area which makes it easier for everyone getting ready in the morning. Large refrigerator. The breakfast was good: coffee, oatmeal, waffles, eggs, sausage, ham, and pastries. We stayed here on our way to Magic Mountain. I will say we entered the new GPS as recommended in the email sent to us and we still had trouble finding it. You may want to call the hotel directly since the address given by the reservation system is incorrect. We would stay here again...now that we know where it's located. The man at the front desk was very chatty and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and somewhat spacious. It had a separate sink area outside the shower/toilet area which makes it easier for everyone getting ready in the morning. Large refrigerator. The breakfast was good: coffee, oatmeal, waffles, eggs, sausage, ham, and pastries. We stayed here on our way to Magic Mountain. I will say we entered the new GPS as recommended in the email sent to us and we still had trouble finding it. You may want to call the hotel directly since the address given by the reservation system is incorrect. We would stay here again...now that we know where it's located. The man at the front desk was very chatty and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r390030920-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>390030920</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Feels like home!</t>
+  </si>
+  <si>
+    <t>We were on a road trip, driving from SFO through Monterey - it feels good to finally 'land' at Fairfield Inn Santa Clarita Valencia.The environment, the front desk, the hotel setting, the chambermaids and the parking.....they all made us feel so at home.I like the little drinks corner that the hotel sets up for their guests.  We can have drinking water, hot beverages 24hrs.  This is 1 hotel that other hotels should be talking about!The staff were great!  Even the pesticide terminator is so cheerful!  Though it was hottest of all the cities we visited, the people at the hotel made a great difference and it is the coolest place to be!I highly recommend this property especially for family.  It is family friendly.Stayed from Jun 20 - 23, 2016 (Singapore)MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2016</t>
+  </si>
+  <si>
+    <t>We were on a road trip, driving from SFO through Monterey - it feels good to finally 'land' at Fairfield Inn Santa Clarita Valencia.The environment, the front desk, the hotel setting, the chambermaids and the parking.....they all made us feel so at home.I like the little drinks corner that the hotel sets up for their guests.  We can have drinking water, hot beverages 24hrs.  This is 1 hotel that other hotels should be talking about!The staff were great!  Even the pesticide terminator is so cheerful!  Though it was hottest of all the cities we visited, the people at the hotel made a great difference and it is the coolest place to be!I highly recommend this property especially for family.  It is family friendly.Stayed from Jun 20 - 23, 2016 (Singapore)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r381128139-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>381128139</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>I'd stay here again!</t>
+  </si>
+  <si>
+    <t>The hotel is located right off Interstate 5, and is close to stores, restaurants, and Magic Mountain.  The hotel was clean, and there was a good breakfast selection. The customer service was good, and I would stay there again if I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located right off Interstate 5, and is close to stores, restaurants, and Magic Mountain.  The hotel was clean, and there was a good breakfast selection. The customer service was good, and I would stay there again if I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r380061574-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>380061574</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Plenty of dining options nearby, great staff</t>
+  </si>
+  <si>
+    <t>I stay here often for business. The staff is great - very accomodating and can anticipate my needs.Rooms: I would recommend getting any of the corner rooms as the main source of noise is your neighbors, and the corner rooms (end of the corridor) have only a single neighbor and are less noisy. Easy access to the stairs as well.Food: Right next door is Hamburger Hill - the largest collection of hamburger joints I have ever seen. If fast food is your things - it is a short walk away.The real gem is the Kinza Sushi restaurant - great sushi for reasonable prices. A short walk towards the Outback steakhouse.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here often for business. The staff is great - very accomodating and can anticipate my needs.Rooms: I would recommend getting any of the corner rooms as the main source of noise is your neighbors, and the corner rooms (end of the corridor) have only a single neighbor and are less noisy. Easy access to the stairs as well.Food: Right next door is Hamburger Hill - the largest collection of hamburger joints I have ever seen. If fast food is your things - it is a short walk away.The real gem is the Kinza Sushi restaurant - great sushi for reasonable prices. A short walk towards the Outback steakhouse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r379379010-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>379379010</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Our experience was very good.  Great customer service during check in and check out, our room was very clean and quiet.  The breakfast was your normal hotel breakfast but everything was clean and food was hot. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Our experience was very good.  Great customer service during check in and check out, our room was very clean and quiet.  The breakfast was your normal hotel breakfast but everything was clean and food was hot. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r367623981-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>367623981</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Good Value and Great Service</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As...This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As we left the hotel I did note that we could hear conversations in rooms as we passed by them so it may be worthwhile requesting a room in a quiet location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As...This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As we left the hotel I did note that we could hear conversations in rooms as we passed by them so it may be worthwhile requesting a room in a quiet location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r364607841-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>364607841</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Good but quite expensive</t>
+  </si>
+  <si>
+    <t>Clean and fresh. Very nice outdoor pool area. Plenty of parking lots. Coin laundry exists. Good free breakfast and nice breakfast room.A little bit expensive, but you get what you pay for.A few fast food restaurants within walking distance.Wifi was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Clean and fresh. Very nice outdoor pool area. Plenty of parking lots. Coin laundry exists. Good free breakfast and nice breakfast room.A little bit expensive, but you get what you pay for.A few fast food restaurants within walking distance.Wifi was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r358604762-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>358604762</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while we hit Six Flags. Room was clean and comfortable. Windows were a little thin and could hear talking outside and noise from pool but want too big of a deal. Cool air from outside seemed to be seeping in as well. I would avoid the pool side if possible if the weather is hot. Breakfast was very good for a free breakfast with lots of hot choices. Hotel is in a great location with lots of restaurants nearby. Staff were very friendly and acknowledged me as a rewards member with water and snacks. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while we hit Six Flags. Room was clean and comfortable. Windows were a little thin and could hear talking outside and noise from pool but want too big of a deal. Cool air from outside seemed to be seeping in as well. I would avoid the pool side if possible if the weather is hot. Breakfast was very good for a free breakfast with lots of hot choices. Hotel is in a great location with lots of restaurants nearby. Staff were very friendly and acknowledged me as a rewards member with water and snacks. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r340057177-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>340057177</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location for visiting Magic Mountain </t>
+  </si>
+  <si>
+    <t>Stayed here for a night so we could visit 6 flags magic mountain. The hotel was really nice and the staff were friendly. Rooms were well furnished and very clean. Marriot has continued to give great hotels stays at affordable prices (~$30 per pax for a room of 4). Location is also very near 6 flags so it made things even better for us. Would definitely recommend staying MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a night so we could visit 6 flags magic mountain. The hotel was really nice and the staff were friendly. Rooms were well furnished and very clean. Marriot has continued to give great hotels stays at affordable prices (~$30 per pax for a room of 4). Location is also very near 6 flags so it made things even better for us. Would definitely recommend staying More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r335991131-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>335991131</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here often when in Santa Clarita visiting family. It's close to the freeway and many restaurants and shopping if needed. The breakfast is great for a quick bite before getting on the road. Staff is always very friendly and accommodating. My only critical comments: the bed is to firm. Usually Marriott beds are better. Second, I don't like that dogs are allowed. I'm not talking about a seeing eye dog. There were dogs being walked through the lobby (one tied up while the owner went and got breakfast. The young man at the front desk did tell her she had to move on). I'd like to know of dogs are always in the same rooms? Or are they allowed in any room? Our gold status got us free wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here often when in Santa Clarita visiting family. It's close to the freeway and many restaurants and shopping if needed. The breakfast is great for a quick bite before getting on the road. Staff is always very friendly and accommodating. My only critical comments: the bed is to firm. Usually Marriott beds are better. Second, I don't like that dogs are allowed. I'm not talking about a seeing eye dog. There were dogs being walked through the lobby (one tied up while the owner went and got breakfast. The young man at the front desk did tell her she had to move on). I'd like to know of dogs are always in the same rooms? Or are they allowed in any room? Our gold status got us free wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r335321316-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>335321316</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>fabulous stay at the Fairfield Inn</t>
+  </si>
+  <si>
+    <t>we stayed here when travelling through California - we asked for a low floor and rooms close to each other - and got exactly that - the rooms were spotlessly clean and well equipped. Staff we lovely and friendly. Lots of restaurants close by for dinner. Breakfast area was busy but there was plenty of choice both hot and cold items. Over all a great stay and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>we stayed here when travelling through California - we asked for a low floor and rooms close to each other - and got exactly that - the rooms were spotlessly clean and well equipped. Staff we lovely and friendly. Lots of restaurants close by for dinner. Breakfast area was busy but there was plenty of choice both hot and cold items. Over all a great stay and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r330739558-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>330739558</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>A really nice place to stay.</t>
+  </si>
+  <si>
+    <t>Have stopped here many times over the years, but was pleasantly surprised to see the whole place has been upgraded since my last visit. From the automatic front door, to new rugs and furniture throughout. Not to forget the flat screen TVs and friendly greeting at the front desk that included chocolate chip cookies. The free hot breakfast is also a cut above what many other places offer. We didn't make use of the spa or pool, but enjoyed our quiet overnight stay. I recommend it to anyone traveling through the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Have stopped here many times over the years, but was pleasantly surprised to see the whole place has been upgraded since my last visit. From the automatic front door, to new rugs and furniture throughout. Not to forget the flat screen TVs and friendly greeting at the front desk that included chocolate chip cookies. The free hot breakfast is also a cut above what many other places offer. We didn't make use of the spa or pool, but enjoyed our quiet overnight stay. I recommend it to anyone traveling through the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r329691796-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>329691796</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Stay</t>
+  </si>
+  <si>
+    <t>Third time selecting a new hotel for annual family Thanksgiving visit to Santa  Clarita and we were extraordinarily pleased.  Checking in was a breeze (thanks Tom!), room was VERY clean, and breakfast was ample for almost any kind of eater.  Did I say the toom was VERY clean?  There were even freshly baked cookies in the afternoon!  Everything in the room was in fabulous condition and we were just very happy overall.  (Couple of suggestions ... with rooms on first floor it would be nice to have a heavier sheer so drapes could be pulled for daylight but there would more privacy.  Stronger steam vent in bathroom.?  Loved our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Third time selecting a new hotel for annual family Thanksgiving visit to Santa  Clarita and we were extraordinarily pleased.  Checking in was a breeze (thanks Tom!), room was VERY clean, and breakfast was ample for almost any kind of eater.  Did I say the toom was VERY clean?  There were even freshly baked cookies in the afternoon!  Everything in the room was in fabulous condition and we were just very happy overall.  (Couple of suggestions ... with rooms on first floor it would be nice to have a heavier sheer so drapes could be pulled for daylight but there would more privacy.  Stronger steam vent in bathroom.?  Loved our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r322802165-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>322802165</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>A great place to spend the night</t>
+  </si>
+  <si>
+    <t>As usual, I was not disappointed by anything during my stay at this Marriott property. I had not stayed at this particular hotel before but did so because Fairfield Inns are consistently very good. From my arrival to my departure, everything was perfect. The staff were polite, cheerful and quick at check-in and check-out. The hotel was very clean, pleasantly decorated and bright.  My room was immaculate, comfortable, well appointed  and quiet.  The breakfast buffet was good as expected and allowed me to start off my day with sufficient protein.  I definitely recommend that you stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2015</t>
+  </si>
+  <si>
+    <t>As usual, I was not disappointed by anything during my stay at this Marriott property. I had not stayed at this particular hotel before but did so because Fairfield Inns are consistently very good. From my arrival to my departure, everything was perfect. The staff were polite, cheerful and quick at check-in and check-out. The hotel was very clean, pleasantly decorated and bright.  My room was immaculate, comfortable, well appointed  and quiet.  The breakfast buffet was good as expected and allowed me to start off my day with sufficient protein.  I definitely recommend that you stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r315684707-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>315684707</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Great one night stay.</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it was perfect. Big room and very clean and comfortable.  Good selection of tv stations. A nice breakfast is included with the room including scrambled eggs, sausage patties or turkey Canadian bacon, bagels, bread, muffins, make-your-own waffles, hot oatmeal, little boxes of dried cereal, fruit, yogurt, coffee and cocoa.The hotel is located a short drive away from malls and restaurants, although there are some restaurants nearby.  There is also a nice swimming pool on the property and plenty of free parking, which is a great plus. Magic Mountain is nearby.We wouldn’t hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it was perfect. Big room and very clean and comfortable.  Good selection of tv stations. A nice breakfast is included with the room including scrambled eggs, sausage patties or turkey Canadian bacon, bagels, bread, muffins, make-your-own waffles, hot oatmeal, little boxes of dried cereal, fruit, yogurt, coffee and cocoa.The hotel is located a short drive away from malls and restaurants, although there are some restaurants nearby.  There is also a nice swimming pool on the property and plenty of free parking, which is a great plus. Magic Mountain is nearby.We wouldn’t hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r306260896-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>306260896</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Room,staff,place to park,pet friendly, breakfast, close to freeway and other stores. In rooms you hear nothing Front desk was great, check in 40 seconds Internet was fast.Just what you would want and cosy was very good. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room,staff,place to park,pet friendly, breakfast, close to freeway and other stores. In rooms you hear nothing Front desk was great, check in 40 seconds Internet was fast.Just what you would want and cosy was very good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r302973689-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>302973689</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>We needed to be in the Santa Clarita area for a funeral</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on short notice. The hotel was clean and comfortable. It would have been perfect for a longer stay, but we only had 1 night. Looking for a good dinner after a 5 hr drive, Steve, the front desk person, printed out the directions to the cemetery and  made a recommendation that was wonderful, not expensive, and it had a ton of atmosphere. He was so helpful in a time of stress. Breakfast was good. Above the standard fair for a hotel I would recommend this hotel as a great place to stay and it's very near Six Flags for vacationers. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on short notice. The hotel was clean and comfortable. It would have been perfect for a longer stay, but we only had 1 night. Looking for a good dinner after a 5 hr drive, Steve, the front desk person, printed out the directions to the cemetery and  made a recommendation that was wonderful, not expensive, and it had a ton of atmosphere. He was so helpful in a time of stress. Breakfast was good. Above the standard fair for a hotel I would recommend this hotel as a great place to stay and it's very near Six Flags for vacationers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r285684645-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>285684645</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>What a nice surprise</t>
+  </si>
+  <si>
+    <t>After a long days drive from San Francisco it was so nice to find a such a comfortable, well appointed and clean hotel room in which to break our journey and all at a reasonable price. The coin operated laundry was most handy also and breakfast supplied plentiful and a good start to the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>After a long days drive from San Francisco it was so nice to find a such a comfortable, well appointed and clean hotel room in which to break our journey and all at a reasonable price. The coin operated laundry was most handy also and breakfast supplied plentiful and a good start to the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r282489893-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>282489893</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Direct TV made the night worse</t>
+  </si>
+  <si>
+    <t>After a long traveling day, checked out the room cleanliness, features, etc.  The room was clean, thermostat was not working but the air conditioner could be manually adjusted. Settled in to watch several of the TV programs we were TVOing at home to discovered that most of the channels would pixel out, and drop dialog.  Called front desk, maintenance man came, said he would contact Direct and bring us a new TV if they said there was no problem.  Maintenance man did not return, nothing changed.  Bill not adjusted.  I would not recommend this place as a result. Hotel should stand by their product or lack thereof. Don't get a room on the backside, as traffic noise can be bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>After a long traveling day, checked out the room cleanliness, features, etc.  The room was clean, thermostat was not working but the air conditioner could be manually adjusted. Settled in to watch several of the TV programs we were TVOing at home to discovered that most of the channels would pixel out, and drop dialog.  Called front desk, maintenance man came, said he would contact Direct and bring us a new TV if they said there was no problem.  Maintenance man did not return, nothing changed.  Bill not adjusted.  I would not recommend this place as a result. Hotel should stand by their product or lack thereof. Don't get a room on the backside, as traffic noise can be bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r278630115-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>278630115</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>We were provided a good greeting when we arrived at the hotel. We were provided with complementary bottled waters and pretzels because of being a Marriott rewards member. The front desk staff even told us who would be replacing her after her shift and who would be the overnight staff as well.   The room was set up very nicely, was clean, and they had extra towels in the room as requested when we booked the room. Our only issues were the tub was very slippery and since we were above the continental breakfast area, we smelled the food being prepared in our room at wake up time. When we informed the front desk staff about the slippery showers, they notified the needed maintenance crew right away. They rectified the issue with the tubs with us as well. Over all, it was a very good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>We were provided a good greeting when we arrived at the hotel. We were provided with complementary bottled waters and pretzels because of being a Marriott rewards member. The front desk staff even told us who would be replacing her after her shift and who would be the overnight staff as well.   The room was set up very nicely, was clean, and they had extra towels in the room as requested when we booked the room. Our only issues were the tub was very slippery and since we were above the continental breakfast area, we smelled the food being prepared in our room at wake up time. When we informed the front desk staff about the slippery showers, they notified the needed maintenance crew right away. They rectified the issue with the tubs with us as well. Over all, it was a very good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r266620614-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>266620614</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff, thin walls</t>
+  </si>
+  <si>
+    <t>Friendly staff and a clean room were a major plus.  Pool is an outdoor pool.  Standard wifi is adequate but not blazing fast.  Breakfast included typical Fairfield Inn fare such as reconstituted eggs, sausage, cereal, oatmeal, yogurt, waffles, fruit, and muffins.  Our room included a microwave and a small fridge. Desk and counter space were very good, with the desk tucking under a counter but having wheels so you could pull it out for more space and to angle it however you wish.  Room overall was a tad smaller than average, but adequate (no sofa, but there is a small arm chair tucked away between a wall and one of the beds).  There was no real "hang out space" for a larger group (for example, if you were traveling with a family of four, half of you will be sitting on a bed rather than a chair or sofa).  One issue is the thin walls.  We could always hear our upstairs neighbors walking around (loud walking, not just hints of someone walking). And we could hear the loud mumbling of conversations to our side.  Some hotels do better than others on the insulation, and this one seems to have built on the cheaper side of soundproofing.  Still, this hotel is a good choice if you can get a deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and a clean room were a major plus.  Pool is an outdoor pool.  Standard wifi is adequate but not blazing fast.  Breakfast included typical Fairfield Inn fare such as reconstituted eggs, sausage, cereal, oatmeal, yogurt, waffles, fruit, and muffins.  Our room included a microwave and a small fridge. Desk and counter space were very good, with the desk tucking under a counter but having wheels so you could pull it out for more space and to angle it however you wish.  Room overall was a tad smaller than average, but adequate (no sofa, but there is a small arm chair tucked away between a wall and one of the beds).  There was no real "hang out space" for a larger group (for example, if you were traveling with a family of four, half of you will be sitting on a bed rather than a chair or sofa).  One issue is the thin walls.  We could always hear our upstairs neighbors walking around (loud walking, not just hints of someone walking). And we could hear the loud mumbling of conversations to our side.  Some hotels do better than others on the insulation, and this one seems to have built on the cheaper side of soundproofing.  Still, this hotel is a good choice if you can get a deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r264981085-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>264981085</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Great breakfast, happy to stay again</t>
+  </si>
+  <si>
+    <t>We were really happy with our stay at Fairfield Inn.  The hotel was very clean and quiet.  Our room looked mostly modern and in great condition.  The breakfast was much better than most free hotel breakfasts, a great spread.  The beds were comfortable.  The pool and spa were perfectly heated.  We really only spoke with the staff member, Topher, who checked us in.  He was friendly and welcoming.  He gave us an excellent recommendation for dinner within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We were really happy with our stay at Fairfield Inn.  The hotel was very clean and quiet.  Our room looked mostly modern and in great condition.  The breakfast was much better than most free hotel breakfasts, a great spread.  The beds were comfortable.  The pool and spa were perfectly heated.  We really only spoke with the staff member, Topher, who checked us in.  He was friendly and welcoming.  He gave us an excellent recommendation for dinner within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r259852938-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>259852938</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Clean but small</t>
+  </si>
+  <si>
+    <t>The room was clean (most important).  The room had a microwave, mini-fridge and a coffee maker.  However, we were on the second level and the only ice machine (according to the informational papers provided) was on the first floor.   We came in late at night after a day at Magic Mountain and didn't feel like roaming in search of ice.  We were looking forward to plunging our aching feet into the Jacuzzi - but it was closed by 10:00 pm.  The rooms were small compared to comfort Inn Suites (next door) for same price which was equipped with 2 queen beds and a pull-out sofa bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean (most important).  The room had a microwave, mini-fridge and a coffee maker.  However, we were on the second level and the only ice machine (according to the informational papers provided) was on the first floor.   We came in late at night after a day at Magic Mountain and didn't feel like roaming in search of ice.  We were looking forward to plunging our aching feet into the Jacuzzi - but it was closed by 10:00 pm.  The rooms were small compared to comfort Inn Suites (next door) for same price which was equipped with 2 queen beds and a pull-out sofa bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r250046753-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>250046753</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>My elder son and I were doing a weekend fishing trip up to Castaic Lake and decided to use this place to stop overnight. It's been several years since I was last at a Fairfield and I was really pleased with this location. 
+I used the Marriott site to setup the reservation and was pleasantly surprised to receive an email from the day manager confirming my stay and asking if I had any questions. Since I was planning on calling to make sure we were expected for a late arrival, I emailed her back and received an immediate reply that my record had been updated with that note for the evening shift.
+We arrived at the hotel around 8:00 PM, earlier than I had estimated given Friday night traffic and were politely greeted by the front desk staff. He gave us the run down of the hotel and directions to the hotel amenities. The lobby decor looked recently updated as well.
+We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave,...My elder son and I were doing a weekend fishing trip up to Castaic Lake and decided to use this place to stop overnight. It's been several years since I was last at a Fairfield and I was really pleased with this location. I used the Marriott site to setup the reservation and was pleasantly surprised to receive an email from the day manager confirming my stay and asking if I had any questions. Since I was planning on calling to make sure we were expected for a late arrival, I emailed her back and received an immediate reply that my record had been updated with that note for the evening shift.We arrived at the hotel around 8:00 PM, earlier than I had estimated given Friday night traffic and were politely greeted by the front desk staff. He gave us the run down of the hotel and directions to the hotel amenities. The lobby decor looked recently updated as well.We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave, coffee maker, mini-refrigerator on the other and a laptop workstation area in the middle. The laptop area had a built in power bar with six plugs. Very thoughtful. Lighting was good and the bathroom was clean with appropriate amenities.Perhaps the only "con" is that the sound insulation was a little lacking. We could hear the other visitors in the one room we shared a common wall with with and, even though we were on the third floor, we could hear the guests in the pool area below. The folks at the pool were having a good time and politely left the pool around 9:30-9:45 PM. Likewise, walking down the hallway we could hear the other guests in the rooms as we passed. No one was being obnoxious or anything and there were no kids running up and down the hallways at odd-hours (there were children staying there), a good reflection on the parents. I could also hear the truck traffic from Highway Five, nearby. Nothing terrible, just obvious.The breakfast area is small - perhaps 15 tables - but the bar is well stocked with scrambled eggs, sausage patties, breads, cereals, fruit, juice, waffle maker, coffee, milk and yogurt. It was a perfect breakfast. As we got down there a bit late (8:30 AM), there were only a few other guests so no lines and we had a table to ourselves. We enjoyed the breakfast!The morning staff was pleasant and thanked us for the stay. Parking and access are easy. WiFi is free and faster than some of the "higher end" hotels I've stayed at. Additionally, I noticed that the connection strength was excellent and I didn't have any drops or low signal problems.I would definitely use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>My elder son and I were doing a weekend fishing trip up to Castaic Lake and decided to use this place to stop overnight. It's been several years since I was last at a Fairfield and I was really pleased with this location. 
+I used the Marriott site to setup the reservation and was pleasantly surprised to receive an email from the day manager confirming my stay and asking if I had any questions. Since I was planning on calling to make sure we were expected for a late arrival, I emailed her back and received an immediate reply that my record had been updated with that note for the evening shift.
+We arrived at the hotel around 8:00 PM, earlier than I had estimated given Friday night traffic and were politely greeted by the front desk staff. He gave us the run down of the hotel and directions to the hotel amenities. The lobby decor looked recently updated as well.
+We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave,...My elder son and I were doing a weekend fishing trip up to Castaic Lake and decided to use this place to stop overnight. It's been several years since I was last at a Fairfield and I was really pleased with this location. I used the Marriott site to setup the reservation and was pleasantly surprised to receive an email from the day manager confirming my stay and asking if I had any questions. Since I was planning on calling to make sure we were expected for a late arrival, I emailed her back and received an immediate reply that my record had been updated with that note for the evening shift.We arrived at the hotel around 8:00 PM, earlier than I had estimated given Friday night traffic and were politely greeted by the front desk staff. He gave us the run down of the hotel and directions to the hotel amenities. The lobby decor looked recently updated as well.We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave, coffee maker, mini-refrigerator on the other and a laptop workstation area in the middle. The laptop area had a built in power bar with six plugs. Very thoughtful. Lighting was good and the bathroom was clean with appropriate amenities.Perhaps the only "con" is that the sound insulation was a little lacking. We could hear the other visitors in the one room we shared a common wall with with and, even though we were on the third floor, we could hear the guests in the pool area below. The folks at the pool were having a good time and politely left the pool around 9:30-9:45 PM. Likewise, walking down the hallway we could hear the other guests in the rooms as we passed. No one was being obnoxious or anything and there were no kids running up and down the hallways at odd-hours (there were children staying there), a good reflection on the parents. I could also hear the truck traffic from Highway Five, nearby. Nothing terrible, just obvious.The breakfast area is small - perhaps 15 tables - but the bar is well stocked with scrambled eggs, sausage patties, breads, cereals, fruit, juice, waffle maker, coffee, milk and yogurt. It was a perfect breakfast. As we got down there a bit late (8:30 AM), there were only a few other guests so no lines and we had a table to ourselves. We enjoyed the breakfast!The morning staff was pleasant and thanked us for the stay. Parking and access are easy. WiFi is free and faster than some of the "higher end" hotels I've stayed at. Additionally, I noticed that the connection strength was excellent and I didn't have any drops or low signal problems.I would definitely use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r246894118-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>246894118</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>close to Magic Mountain</t>
+  </si>
+  <si>
+    <t>Picked this hotel for its proximity to Magic Mountain. Since it was a last minute reservation for NY Eve we paid full price but we could have done a lot worse. Room was clean ,spacious and modern looking. Beds were ok and I didn't have complaints about service level or noise that other travelers have complained about. I would rate the continental breakfast as above average. Overall a very pleasant stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Picked this hotel for its proximity to Magic Mountain. Since it was a last minute reservation for NY Eve we paid full price but we could have done a lot worse. Room was clean ,spacious and modern looking. Beds were ok and I didn't have complaints about service level or noise that other travelers have complained about. I would rate the continental breakfast as above average. Overall a very pleasant stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r244783766-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>244783766</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Staff help to make this place different</t>
+  </si>
+  <si>
+    <t>Our experience of chain hotels in the US is that no matter how many times you stay there there's always a different person on the front desk and most of them don't acknowledge you in any way once you've checked in.  This place was different; the guy on the front desk was so friendly and seemed genuinely interested in having a conversation.  We asked for a quiet room on the top floor and that's what we got. After we came back from dinner he made a point of speaking to us and asking how it was.  These little things help make a difference.The hotel is clean and quiet, located near the freeway but not to close to be bothered by noise.  Breakfast is fairly standard for a Residence Inn.  We got a good deal on the price and were happy with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Our experience of chain hotels in the US is that no matter how many times you stay there there's always a different person on the front desk and most of them don't acknowledge you in any way once you've checked in.  This place was different; the guy on the front desk was so friendly and seemed genuinely interested in having a conversation.  We asked for a quiet room on the top floor and that's what we got. After we came back from dinner he made a point of speaking to us and asking how it was.  These little things help make a difference.The hotel is clean and quiet, located near the freeway but not to close to be bothered by noise.  Breakfast is fairly standard for a Residence Inn.  We got a good deal on the price and were happy with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r240094667-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>240094667</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Great motel</t>
+  </si>
+  <si>
+    <t>We have been on a large road trip mostly staying in cheap motels. We booked into a motel in Palmdale, and quickly worked out this was not a safe part of town (a police officer stopped us and even after telling him we had paid, he suggested we move on for our own safety) So we moved down to Santa Clarita, closer to Magic mountain the next day. This place was a fair bit more expensive, but we ended up paying for two nights because it was such a great place. Excellent service, good breakfast, spa and swimming pool. Good location and Santa Clarita has excellent shopping and dining options. This place was an oasis to us and a nice way to wind down after 4000 miles of driving.Well done to the management and staffMoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>We have been on a large road trip mostly staying in cheap motels. We booked into a motel in Palmdale, and quickly worked out this was not a safe part of town (a police officer stopped us and even after telling him we had paid, he suggested we move on for our own safety) So we moved down to Santa Clarita, closer to Magic mountain the next day. This place was a fair bit more expensive, but we ended up paying for two nights because it was such a great place. Excellent service, good breakfast, spa and swimming pool. Good location and Santa Clarita has excellent shopping and dining options. This place was an oasis to us and a nice way to wind down after 4000 miles of driving.Well done to the management and staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r238345725-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>238345725</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Sometimes being a special place is by not being 'special'</t>
+  </si>
+  <si>
+    <t>My party and I arrived late Halloween evening as we were scheduled to perform at the CalArts college Halloween function. I was warmly greeted by John, a taller broad shouldered gentleman. He was friendly and observational of our situation and helped us into a room that would better accommodate what we needed as performers. The night ended up being terrible (the function we performed at), the best experience was staying here and having John assure us everything was going to be great. Good job John! Next time we perform there, which I hope is never, we will definitely be seeing you again!The only reason why there isn't five stars is because in the morning we requested towels and they did not come at any point. I found that odd but wasn't going to make a big deal, people get busy. We requested a luggage cart and that was promptly delivered and we were off on our way.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>My party and I arrived late Halloween evening as we were scheduled to perform at the CalArts college Halloween function. I was warmly greeted by John, a taller broad shouldered gentleman. He was friendly and observational of our situation and helped us into a room that would better accommodate what we needed as performers. The night ended up being terrible (the function we performed at), the best experience was staying here and having John assure us everything was going to be great. Good job John! Next time we perform there, which I hope is never, we will definitely be seeing you again!The only reason why there isn't five stars is because in the morning we requested towels and they did not come at any point. I found that odd but wasn't going to make a big deal, people get busy. We requested a luggage cart and that was promptly delivered and we were off on our way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r236656157-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>236656157</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Fright Fest Weekend Trip</t>
+  </si>
+  <si>
+    <t>I decided to stay at the Fairfield because it was the most reasonable and pretty good conditioned hotel. I was here for 2 nights, one night just to enjoy Valencia and the next to enjoy Fright Fest. It was 5 minutes away from Six Flags and I never had to get on the freeway to get to the park, it was one straight road there. When we arrived the front desk guy was great, he had excellent customer service and even offered to get use directions to the nearest movie theater because my boyfriend and I wanted to watch a scary film our first night in town.  
+The room was extremely clean and pretty up to date. The bed was comfortable and so were the pillows! Im big on comfort and the bed was definitely comfortable. 
+Breakfast is complimentary and actually pretty good; saved me big time because I held me up for a long time and saved me an extra expense. The spa/whirlpool was nice and the pool was clean, they even let you use The Residence Inn's fitness center if you would like to work out, I used it and its not too bad..basic stuff. 
+MY ONLY COMPLAINT:
+The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its...I decided to stay at the Fairfield because it was the most reasonable and pretty good conditioned hotel. I was here for 2 nights, one night just to enjoy Valencia and the next to enjoy Fright Fest. It was 5 minutes away from Six Flags and I never had to get on the freeway to get to the park, it was one straight road there. When we arrived the front desk guy was great, he had excellent customer service and even offered to get use directions to the nearest movie theater because my boyfriend and I wanted to watch a scary film our first night in town.  The room was extremely clean and pretty up to date. The bed was comfortable and so were the pillows! Im big on comfort and the bed was definitely comfortable. Breakfast is complimentary and actually pretty good; saved me big time because I held me up for a long time and saved me an extra expense. The spa/whirlpool was nice and the pool was clean, they even let you use The Residence Inn's fitness center if you would like to work out, I used it and its not too bad..basic stuff.  MY ONLY COMPLAINT:The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its a hotel and things are private and people have the right to enjoy their rooms but at least be discrete to an extent. It was rude and inconsiderate of them, especially if there were families with kids around. It was so uncomfortable we had to leave the room and decided to use the spa. We let the front desk know and they kindly offered to move us and we agreed if our neighbors were still at it once we returned to our room. Luckily nothing more like this occurred the rest of the time we were there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I decided to stay at the Fairfield because it was the most reasonable and pretty good conditioned hotel. I was here for 2 nights, one night just to enjoy Valencia and the next to enjoy Fright Fest. It was 5 minutes away from Six Flags and I never had to get on the freeway to get to the park, it was one straight road there. When we arrived the front desk guy was great, he had excellent customer service and even offered to get use directions to the nearest movie theater because my boyfriend and I wanted to watch a scary film our first night in town.  
+The room was extremely clean and pretty up to date. The bed was comfortable and so were the pillows! Im big on comfort and the bed was definitely comfortable. 
+Breakfast is complimentary and actually pretty good; saved me big time because I held me up for a long time and saved me an extra expense. The spa/whirlpool was nice and the pool was clean, they even let you use The Residence Inn's fitness center if you would like to work out, I used it and its not too bad..basic stuff. 
+MY ONLY COMPLAINT:
+The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its...I decided to stay at the Fairfield because it was the most reasonable and pretty good conditioned hotel. I was here for 2 nights, one night just to enjoy Valencia and the next to enjoy Fright Fest. It was 5 minutes away from Six Flags and I never had to get on the freeway to get to the park, it was one straight road there. When we arrived the front desk guy was great, he had excellent customer service and even offered to get use directions to the nearest movie theater because my boyfriend and I wanted to watch a scary film our first night in town.  The room was extremely clean and pretty up to date. The bed was comfortable and so were the pillows! Im big on comfort and the bed was definitely comfortable. Breakfast is complimentary and actually pretty good; saved me big time because I held me up for a long time and saved me an extra expense. The spa/whirlpool was nice and the pool was clean, they even let you use The Residence Inn's fitness center if you would like to work out, I used it and its not too bad..basic stuff.  MY ONLY COMPLAINT:The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its a hotel and things are private and people have the right to enjoy their rooms but at least be discrete to an extent. It was rude and inconsiderate of them, especially if there were families with kids around. It was so uncomfortable we had to leave the room and decided to use the spa. We let the front desk know and they kindly offered to move us and we agreed if our neighbors were still at it once we returned to our room. Luckily nothing more like this occurred the rest of the time we were there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r232525879-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>232525879</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!</t>
+  </si>
+  <si>
+    <t>Don't bother looking anywhere else. Great hotel, super clean room, comfy beds/pillows, nice pool and hot tub, plenty of parking and free cookies at the front desk! We loved the hotel but especially loved John at the front desk. He was super friendly and seemed to really enjoy his job. He was so pleasant as my daughter and I entered and exited the building a few times. He made us smile. Give John a promotion...he deserves it!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Don't bother looking anywhere else. Great hotel, super clean room, comfy beds/pillows, nice pool and hot tub, plenty of parking and free cookies at the front desk! We loved the hotel but especially loved John at the front desk. He was super friendly and seemed to really enjoy his job. He was so pleasant as my daughter and I entered and exited the building a few times. He made us smile. Give John a promotion...he deserves it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r221898661-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>221898661</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Clean Rooms and Family Friendly</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel during our 3 day visit to Magic Mountain.  It was very clean and the service was excellent.  Every staff member we encountered was very friendly.  My kids were in love with the choices that were offered with the complimentary breakfast.  We enjoyed the pool and hot tub which was kept well stocked with towels and again was very clean.  I would recommend this hotel to anyone looking for a clean and family friendly environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel during our 3 day visit to Magic Mountain.  It was very clean and the service was excellent.  Every staff member we encountered was very friendly.  My kids were in love with the choices that were offered with the complimentary breakfast.  We enjoyed the pool and hot tub which was kept well stocked with towels and again was very clean.  I would recommend this hotel to anyone looking for a clean and family friendly environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r219799240-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>219799240</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Comfort! location! Free breakfast!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night as a halfway point between our home iand Newport Beach California. We also wanted to place close to the Ronald Reagan Library which we had scheduled the next day. My only complaint about this hotel is that we didn't get to stay here long enough! Seriously! As always in a Marriott the beds are very comfy. It was a very quiet hotel. The service was wonderful. Everyone was super friendly and very helpful.There is a cluster of three Marriott hotels in this location and I chose the Fairfield because it was the only one that had a free breakfast. And the breakfast was fantastic!In the room there was some very unique shelving which was very very nice for travelers. I actually took some pictures of things because I thought I might do that in a future remodel in my house.All in all a wonderful stay and I would definitely definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night as a halfway point between our home iand Newport Beach California. We also wanted to place close to the Ronald Reagan Library which we had scheduled the next day. My only complaint about this hotel is that we didn't get to stay here long enough! Seriously! As always in a Marriott the beds are very comfy. It was a very quiet hotel. The service was wonderful. Everyone was super friendly and very helpful.There is a cluster of three Marriott hotels in this location and I chose the Fairfield because it was the only one that had a free breakfast. And the breakfast was fantastic!In the room there was some very unique shelving which was very very nice for travelers. I actually took some pictures of things because I thought I might do that in a future remodel in my house.All in all a wonderful stay and I would definitely definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r216492126-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>216492126</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Overall Very Good - Only One Downside</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night. The TripAdvisor ratings were high and it seemed to fit our requirements and desires. We were visiting a family member in town and needed a place to stay overnight.
+As others have said, it's super convenient being right off the 5 Freeway. Also, there are gas stations, fast food, and restaurants galore very close by. 
+The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did...We stayed here on a Saturday night. The TripAdvisor ratings were high and it seemed to fit our requirements and desires. We were visiting a family member in town and needed a place to stay overnight.As others have said, it's super convenient being right off the 5 Freeway. Also, there are gas stations, fast food, and restaurants galore very close by. The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did not get it stopped despite our numerous calls to complain. Fortunately, this time the running around was short lived and only a minor annoyance. However, I would recommend the 2nd floor to any future visitors. Also, I will say that the door to our room seems to have offered no sound insulation what-so-ever. We could hear every person walking down the hall and talking regardless of whether they were speaking loud or normally. This is semi-normal in hotels and I really don't know why. I don't want to hear that, especially late at night or early morning. Fortunately, this particular Saturday night/Sunday morning, there wasn't a lot of noise but enough to wake us up a time or two or three. Note to visitors at all hotels: keep your voices down in the hallways please. :)We had hoped to use the pool but it was a cloudy day and we had arrived after 4 pm so we skipped it. We did walk out there and have a look though. Several others were using it and said the water temp was decent once you got used to it. The pool area wasn't spectacular but it wasn't bad either. We would probably have enjoyed it had it been a nicer day.Parking was convenient and plentiful enough. And free. Most hotels have free parking but not all, as you and I know.As for the room itself, as mentioned before, it was super clean and super comfortable. Very spacious. We repeatedly mentioned to each other how nice it was. There was also a huge selection of pillows, something we appreciate because for whatever reason, we are picky about our pillows. There was a nice selection of fluffy and flat, firm and soft, etc. Pretty much something for everyone. The comforter on the beds were great! In fact, we went looking for something similar in the local Bed Bath and Beyond. :)The wi-fi was full strength in the room we had, a nice surprise because we often have experienced crummy wi-fi and crummy cell phone coverage in many hotels we have stayed in. Thank you Fairfield for getting wi-fi right, at least in our room.Bath towels were pretty rough. I wish they would have been softer. I think they dropped the ball here. Conversely, shampoo and conditioner were a name brand and one that gets respect on the retail shelves. Nicely done! Ooops though, they forgot to put soap near the shower. The first one in had no soap to use and had to use shampoo instead. And uh, there was only one soap bar so even if you were thoughtful enough to take the one from the bathroom into the shower, you had to remember to take it back to the sink afterward. Hopefully a one time error on the part of the cleaning people.The mini fridge in our room was especially useless. Upon arrival, it was room temp pretty much. No thermostat inside so we couldn't turn it down colder. I like to have a diet coke in the morning since I don't drink coffee. Even after being in there overnight, my coke was not all that cold. Mini fridge's aren't known for being efficient but these aren't doing anyone any favors. Next time, I will bring a Igloo Playmate or something like that. The free breakfast was indeed crowded Sunday morning. However, we did find a spot to park ourselves and even if we hadn't we would have taken our food back to our room. No big deal to us. We've all had the usual continental breakfast at hotels. It takes the edge off and tides us over until lunch. Right? I thought this one was a notch above the rest. Sure, there was the usual stuff but they also had scrambled eggs, waffles, sausage, and a few types of yogurt. No wonder it was crowded in the breakfast area! I applaud Fairfield on this nice breakfast provide with your room stay.!Obviously, I have given this place a 4 star review despite my few nitpicks. I do like to point out the little things in my TripAdvisor reviews because frankly, many of them can be corrected by the staff pretty easily. And for you folks reading the reviews, you get the whole picture. I do want to say that overall, we did like this hotel quite a bit and would stay here again without hesitating. I've tried to also point out the little things that I think they got right or where they exceeded expectations. Right next door is a Residence Inn by Marriott (Fairfield is owned by Marriott too) and I would expect similar experiences and pricing there. 4 stars by us for this visit!Again, we will not hesitate to stay here again in the future...MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded August 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night. The TripAdvisor ratings were high and it seemed to fit our requirements and desires. We were visiting a family member in town and needed a place to stay overnight.
+As others have said, it's super convenient being right off the 5 Freeway. Also, there are gas stations, fast food, and restaurants galore very close by. 
+The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did...We stayed here on a Saturday night. The TripAdvisor ratings were high and it seemed to fit our requirements and desires. We were visiting a family member in town and needed a place to stay overnight.As others have said, it's super convenient being right off the 5 Freeway. Also, there are gas stations, fast food, and restaurants galore very close by. The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did not get it stopped despite our numerous calls to complain. Fortunately, this time the running around was short lived and only a minor annoyance. However, I would recommend the 2nd floor to any future visitors. Also, I will say that the door to our room seems to have offered no sound insulation what-so-ever. We could hear every person walking down the hall and talking regardless of whether they were speaking loud or normally. This is semi-normal in hotels and I really don't know why. I don't want to hear that, especially late at night or early morning. Fortunately, this particular Saturday night/Sunday morning, there wasn't a lot of noise but enough to wake us up a time or two or three. Note to visitors at all hotels: keep your voices down in the hallways please. :)We had hoped to use the pool but it was a cloudy day and we had arrived after 4 pm so we skipped it. We did walk out there and have a look though. Several others were using it and said the water temp was decent once you got used to it. The pool area wasn't spectacular but it wasn't bad either. We would probably have enjoyed it had it been a nicer day.Parking was convenient and plentiful enough. And free. Most hotels have free parking but not all, as you and I know.As for the room itself, as mentioned before, it was super clean and super comfortable. Very spacious. We repeatedly mentioned to each other how nice it was. There was also a huge selection of pillows, something we appreciate because for whatever reason, we are picky about our pillows. There was a nice selection of fluffy and flat, firm and soft, etc. Pretty much something for everyone. The comforter on the beds were great! In fact, we went looking for something similar in the local Bed Bath and Beyond. :)The wi-fi was full strength in the room we had, a nice surprise because we often have experienced crummy wi-fi and crummy cell phone coverage in many hotels we have stayed in. Thank you Fairfield for getting wi-fi right, at least in our room.Bath towels were pretty rough. I wish they would have been softer. I think they dropped the ball here. Conversely, shampoo and conditioner were a name brand and one that gets respect on the retail shelves. Nicely done! Ooops though, they forgot to put soap near the shower. The first one in had no soap to use and had to use shampoo instead. And uh, there was only one soap bar so even if you were thoughtful enough to take the one from the bathroom into the shower, you had to remember to take it back to the sink afterward. Hopefully a one time error on the part of the cleaning people.The mini fridge in our room was especially useless. Upon arrival, it was room temp pretty much. No thermostat inside so we couldn't turn it down colder. I like to have a diet coke in the morning since I don't drink coffee. Even after being in there overnight, my coke was not all that cold. Mini fridge's aren't known for being efficient but these aren't doing anyone any favors. Next time, I will bring a Igloo Playmate or something like that. The free breakfast was indeed crowded Sunday morning. However, we did find a spot to park ourselves and even if we hadn't we would have taken our food back to our room. No big deal to us. We've all had the usual continental breakfast at hotels. It takes the edge off and tides us over until lunch. Right? I thought this one was a notch above the rest. Sure, there was the usual stuff but they also had scrambled eggs, waffles, sausage, and a few types of yogurt. No wonder it was crowded in the breakfast area! I applaud Fairfield on this nice breakfast provide with your room stay.!Obviously, I have given this place a 4 star review despite my few nitpicks. I do like to point out the little things in my TripAdvisor reviews because frankly, many of them can be corrected by the staff pretty easily. And for you folks reading the reviews, you get the whole picture. I do want to say that overall, we did like this hotel quite a bit and would stay here again without hesitating. I've tried to also point out the little things that I think they got right or where they exceeded expectations. Right next door is a Residence Inn by Marriott (Fairfield is owned by Marriott too) and I would expect similar experiences and pricing there. 4 stars by us for this visit!Again, we will not hesitate to stay here again in the future...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r214397317-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>214397317</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Fairfield Winn :)</t>
+  </si>
+  <si>
+    <t>My family and I booked this hotel as a stop over to Hollywood on July 4th. We called and asked if it was possible to check-in at around 2am, and they said yes! The location of this hotel is perfect, it's literally right off the 5 and on a hill where you can see. You'll pass a Jack In The Box and it's next to a Residence Inn. We got there half an hour early and the guy at the front desk was really nice. He was extremely helpful too. My parents, 2 sisters, and I got a double queen room on the 3rd floor. The room was very nice, as well as the bathroom. The room had a lot of lights, coffee maker, fridge, and microwave! The bed was comfortable. Our only complaint of the room was that the AC or heater was not working at all and where that was, the carpet was wet (as if it was leaking or something).Breakfast was very good! Eggs, sausage patties, waffles, cereal, fruits, etc. :) I will definitely stop by again if I happen to be in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2014</t>
+  </si>
+  <si>
+    <t>My family and I booked this hotel as a stop over to Hollywood on July 4th. We called and asked if it was possible to check-in at around 2am, and they said yes! The location of this hotel is perfect, it's literally right off the 5 and on a hill where you can see. You'll pass a Jack In The Box and it's next to a Residence Inn. We got there half an hour early and the guy at the front desk was really nice. He was extremely helpful too. My parents, 2 sisters, and I got a double queen room on the 3rd floor. The room was very nice, as well as the bathroom. The room had a lot of lights, coffee maker, fridge, and microwave! The bed was comfortable. Our only complaint of the room was that the AC or heater was not working at all and where that was, the carpet was wet (as if it was leaking or something).Breakfast was very good! Eggs, sausage patties, waffles, cereal, fruits, etc. :) I will definitely stop by again if I happen to be in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r212707196-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>212707196</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>All great but breakfast!</t>
+  </si>
+  <si>
+    <t>Very clean, looks like rooms were very recently renovated.  Soft beds, clean, quiet, very friendly staff.  My only complaint was the free breakfast.  It was VERY crowded, no where to sit, the food bar was too close to the tables so you couldn't pass by people to get through without bumping into each other.  The food items were CONSTANTLY being depleted!  Everytime I went to get something, they'd be out of that item.  They only had one woman (who was very friendly, but overworked) trying to keep up with the mob of people taking food as fast as she could set it out. Maybe layout the breakfast area different with more space to walk around while you are getting your food AND hire another person to help keep the  items filled and mess-free!If it weren't for the breakfast, it would have received a 5 star stay for me!Oh, as far as location, there is a bunch of restaurants, right there, is only 4 or 5 miles away from Magic Mountain, and a walmart, grocery stores, more food places in that 4 mile surface street drive to Magic Mountain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Very clean, looks like rooms were very recently renovated.  Soft beds, clean, quiet, very friendly staff.  My only complaint was the free breakfast.  It was VERY crowded, no where to sit, the food bar was too close to the tables so you couldn't pass by people to get through without bumping into each other.  The food items were CONSTANTLY being depleted!  Everytime I went to get something, they'd be out of that item.  They only had one woman (who was very friendly, but overworked) trying to keep up with the mob of people taking food as fast as she could set it out. Maybe layout the breakfast area different with more space to walk around while you are getting your food AND hire another person to help keep the  items filled and mess-free!If it weren't for the breakfast, it would have received a 5 star stay for me!Oh, as far as location, there is a bunch of restaurants, right there, is only 4 or 5 miles away from Magic Mountain, and a walmart, grocery stores, more food places in that 4 mile surface street drive to Magic Mountain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r204130942-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>204130942</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Clean and safe</t>
+  </si>
+  <si>
+    <t>All I want from a hotel is a safe quiet room that's clean and doesn't creep me out, and Fairfield delivered! Very restful and clean.Wish the guest in the next room hadn't been smoking in the stairwell though.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2014</t>
+  </si>
+  <si>
+    <t>All I want from a hotel is a safe quiet room that's clean and doesn't creep me out, and Fairfield delivered! Very restful and clean.Wish the guest in the next room hadn't been smoking in the stairwell though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r201618272-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>201618272</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>First stop in LA from San Jose</t>
+  </si>
+  <si>
+    <t>I worked a full day on Friday so travelled after work.  My husband and I needed to be at a family event by noon on Saturday. We got to the hotel around 11pm. Easy access of the freeway.  The clerk was friendly and had our reservation ready.  We got a higher floor facing the hotel parking instead of the street.  It was quite enough for us.  The beds are very comfortable.  Just stayed overnight but noticed there is construction in the lobby and dining area.  We had breakfast (included) at the hotel across the shared parking, excellent variety and good service.  We left before 9am and did not use any other services.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2014</t>
+  </si>
+  <si>
+    <t>I worked a full day on Friday so travelled after work.  My husband and I needed to be at a family event by noon on Saturday. We got to the hotel around 11pm. Easy access of the freeway.  The clerk was friendly and had our reservation ready.  We got a higher floor facing the hotel parking instead of the street.  It was quite enough for us.  The beds are very comfortable.  Just stayed overnight but noticed there is construction in the lobby and dining area.  We had breakfast (included) at the hotel across the shared parking, excellent variety and good service.  We left before 9am and did not use any other services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r189873696-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>189873696</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Nice Overnight Stop</t>
+  </si>
+  <si>
+    <t>We chose this hotel as a stop over on the way home from L.A-just one hour north and no traffic congestion.  The room we had looked brand new and I felt we were the first ones to stay in it.  There is serious ownership pride here that shows in the quality of the facility.  Our room had no road noise and no noise from the neighbor's rooms.  The bed was comfortable, the room fairly large, and it came with a coffee maker, micro, and refer.The breakfast was very good and had a good variety of scrambled eggs, sausage, waffles-with strawberries and whip cream, yogurt, rolls bagels, etc.  Staff was nice and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>We chose this hotel as a stop over on the way home from L.A-just one hour north and no traffic congestion.  The room we had looked brand new and I felt we were the first ones to stay in it.  There is serious ownership pride here that shows in the quality of the facility.  Our room had no road noise and no noise from the neighbor's rooms.  The bed was comfortable, the room fairly large, and it came with a coffee maker, micro, and refer.The breakfast was very good and had a good variety of scrambled eggs, sausage, waffles-with strawberries and whip cream, yogurt, rolls bagels, etc.  Staff was nice and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r186268633-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>186268633</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Great service and rates</t>
+  </si>
+  <si>
+    <t>Driving overnight from Sacramento to Orange County on Thanksgiving eve my 2 year old son got car sick descending the Grapevine at about 12:45 AM. In a panic I pulled off at the first ramp and found myself at the Faifield Inn. John checked us in at a reduced rate of $104 for 2 queen beds, then took the time to gather supplies so I could clean out the back of my rental car and my kid's car seat. John was great and helped me make the best of a bad situation. Even called to the neighboring property to get a play pen for my son to sleep in. Room was on the main floor by the lobby but very quiet and well maintained. The breakfast bar was well stocked with fresh food and had attentive staff cleaning tables and keeping tabs on the food. Only knock on this place was that the mattress was pretty well worn but given the circumstances definetly not a big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2013</t>
+  </si>
+  <si>
+    <t>Driving overnight from Sacramento to Orange County on Thanksgiving eve my 2 year old son got car sick descending the Grapevine at about 12:45 AM. In a panic I pulled off at the first ramp and found myself at the Faifield Inn. John checked us in at a reduced rate of $104 for 2 queen beds, then took the time to gather supplies so I could clean out the back of my rental car and my kid's car seat. John was great and helped me make the best of a bad situation. Even called to the neighboring property to get a play pen for my son to sleep in. Room was on the main floor by the lobby but very quiet and well maintained. The breakfast bar was well stocked with fresh food and had attentive staff cleaning tables and keeping tabs on the food. Only knock on this place was that the mattress was pretty well worn but given the circumstances definetly not a big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r182587682-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>182587682</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay for weary traveller</t>
+  </si>
+  <si>
+    <t>Very comfortable, quiet, easy access off I-5 with great service and friendly staff. Stayed both on a northbound trip to Norcal and then on the return trip to San Diego. Staff very helpful and do understand good service for us. Have stayed here several times before and service very consistent.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Very comfortable, quiet, easy access off I-5 with great service and friendly staff. Stayed both on a northbound trip to Norcal and then on the return trip to San Diego. Staff very helpful and do understand good service for us. Have stayed here several times before and service very consistent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r181648053-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>181648053</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for one night when we went to Six Flags. It's a very nice and clean hotel. The staff were very nice. The breakfast was also good! The only complaint I have is that the bed was uncomfortable. It was sagging and needs to be replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for one night when we went to Six Flags. It's a very nice and clean hotel. The staff were very nice. The breakfast was also good! The only complaint I have is that the bed was uncomfortable. It was sagging and needs to be replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r172458401-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>172458401</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We had an unexpected trip to Santa Clarita over the weekend and it seems, this is the only Marriott hotel in the area that is available for a last minute (same day) reservation.  This is my first time staying at a Fairfield Inn and was not expecting much.I was once again pleasantly surprised.   The facility itself is simply designed but pleasant and clean.  The hotel sits right next to Residence Inn, which was initially my first choice.  Staffs here are all friendly and accommodating.  Rooms are as expected of a Marriott brand – Clean, comfy beds and fully equipped room.  We had mini fridge and a mini microwave which is convenient.  My gold status preference was recognized and honored.  Although, we did not receive an upgrade, our room was a pretty good size.  It was also quiet.  No noise issue on this stay.  The complimentary breakfast was decent and with many choices.  The swimming pool and the Jacuzzi area was simply designed, average size and clean.This hotel is located by Stevenson Ranch, surrounded with lots of eateries – from fast food to a great sit down restaurant like the Kinza Japanese restaurant.  There are a lot of things to do around this area. So, I’d say, this hotel is conveniently situated. Our weekend stay here in Fairfield Inn was indeed a pleasant one, and I would not hesitate to stay here again if I’m in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>We had an unexpected trip to Santa Clarita over the weekend and it seems, this is the only Marriott hotel in the area that is available for a last minute (same day) reservation.  This is my first time staying at a Fairfield Inn and was not expecting much.I was once again pleasantly surprised.   The facility itself is simply designed but pleasant and clean.  The hotel sits right next to Residence Inn, which was initially my first choice.  Staffs here are all friendly and accommodating.  Rooms are as expected of a Marriott brand – Clean, comfy beds and fully equipped room.  We had mini fridge and a mini microwave which is convenient.  My gold status preference was recognized and honored.  Although, we did not receive an upgrade, our room was a pretty good size.  It was also quiet.  No noise issue on this stay.  The complimentary breakfast was decent and with many choices.  The swimming pool and the Jacuzzi area was simply designed, average size and clean.This hotel is located by Stevenson Ranch, surrounded with lots of eateries – from fast food to a great sit down restaurant like the Kinza Japanese restaurant.  There are a lot of things to do around this area. So, I’d say, this hotel is conveniently situated. Our weekend stay here in Fairfield Inn was indeed a pleasant one, and I would not hesitate to stay here again if I’m in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r172065190-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>172065190</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>We stayed in a few different Fairfield Inn properties this summer, and we were growing less and less impressed until we arrived at this one near Magic Mountain. It's nothing extravagant, but it's a clean hotel with a friendly staff that's also a fair value. The free breakfast is well organized, and the rooms are big enough where you don't feel like you're tripping over each other. The housekeeping staff started with the vacuum pretty early, which was a bit annoying, but otherwise everything was good. If you're looking for a quick stopover during your trip to Magic Mountain, you could certainly do worse than this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in a few different Fairfield Inn properties this summer, and we were growing less and less impressed until we arrived at this one near Magic Mountain. It's nothing extravagant, but it's a clean hotel with a friendly staff that's also a fair value. The free breakfast is well organized, and the rooms are big enough where you don't feel like you're tripping over each other. The housekeeping staff started with the vacuum pretty early, which was a bit annoying, but otherwise everything was good. If you're looking for a quick stopover during your trip to Magic Mountain, you could certainly do worse than this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r166865837-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>166865837</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Exceptionally clean establishment, well maintained and very friendly, service oriented staff. Clearly a well managed property. Convenient location off and on I-5 Freeway. Close by variety of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded July 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2013</t>
+  </si>
+  <si>
+    <t>Exceptionally clean establishment, well maintained and very friendly, service oriented staff. Clearly a well managed property. Convenient location off and on I-5 Freeway. Close by variety of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161830202-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>161830202</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Nice Stopover</t>
+  </si>
+  <si>
+    <t>We spent one night here on our way back to San Diego.  The Fairfield Inn is always consistent with their service.  This hotel is located in an excellent location just off I-5, near plenty of restaurants and shopping.  The room was a typical Fairfield Inn room.  However, the hallways are beginning to show wear and tear and need to be updated.  The breakfast was very good -- biscuits and gravy, sausage, eggs, fresh fruit, cereal, waffles and the regular items.  Even though the hotel sits right on the road, we did not hear any noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2013</t>
+  </si>
+  <si>
+    <t>We spent one night here on our way back to San Diego.  The Fairfield Inn is always consistent with their service.  This hotel is located in an excellent location just off I-5, near plenty of restaurants and shopping.  The room was a typical Fairfield Inn room.  However, the hallways are beginning to show wear and tear and need to be updated.  The breakfast was very good -- biscuits and gravy, sausage, eggs, fresh fruit, cereal, waffles and the regular items.  Even though the hotel sits right on the road, we did not hear any noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161507494-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>161507494</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Very Good Value</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Hotel staff was very polite and efficient.  There was a problem with the ventilation system in our room (fan wouldn't turn on) and we called the front desk.  They sent someone immediately who took care of the problem.  The room was comfortable.  Lots of pillows and a comfortable mattress.  Complimentary breakfast had many options, including hot food.  Ample parking.  Great location right off the freeway with shopping and many restaurant options nearby.  We didn't use it, but the pool looked very inviting and private.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Hotel staff was very polite and efficient.  There was a problem with the ventilation system in our room (fan wouldn't turn on) and we called the front desk.  They sent someone immediately who took care of the problem.  The room was comfortable.  Lots of pillows and a comfortable mattress.  Complimentary breakfast had many options, including hot food.  Ample parking.  Great location right off the freeway with shopping and many restaurant options nearby.  We didn't use it, but the pool looked very inviting and private.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161452764-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>161452764</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Average Fairfield</t>
+  </si>
+  <si>
+    <t>My husband is a Marriott Gold Rewards member and we have stayed at many Fairfield properties. I have to say, I was a little disappointed with this one.  The property is in need of renovation.  The furnishings are outdated  and the carpets in the hallways are lifting.  These are things I do not expect in a Marriott property.  
+The light sensor in the vanity area of bathroom was completely OBNOXIOUS. It would only stay on for a minute or so and then turn off even if you were standing right there doing your hair or brushing your teeth.  It became frustrating.  Also, we left for the evening and were gone for about 6 hours.  We like our room cold when we sleep.  Even though we had the AC set to 70 it was almost 78 degrees when we got back to our room and we could not get the AC unit to turn back on for almost 15 minutes after we got back.  We did actually call maintenance but by the time they came up, the AC had kicked in.  I believe this has something to do with another motion sensor in the room.  Going green is fine - but not when it becomes a pain to the hotel guest!
+My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of...My husband is a Marriott Gold Rewards member and we have stayed at many Fairfield properties. I have to say, I was a little disappointed with this one.  The property is in need of renovation.  The furnishings are outdated  and the carpets in the hallways are lifting.  These are things I do not expect in a Marriott property.  The light sensor in the vanity area of bathroom was completely OBNOXIOUS. It would only stay on for a minute or so and then turn off even if you were standing right there doing your hair or brushing your teeth.  It became frustrating.  Also, we left for the evening and were gone for about 6 hours.  We like our room cold when we sleep.  Even though we had the AC set to 70 it was almost 78 degrees when we got back to our room and we could not get the AC unit to turn back on for almost 15 minutes after we got back.  We did actually call maintenance but by the time they came up, the AC had kicked in.  I believe this has something to do with another motion sensor in the room.  Going green is fine - but not when it becomes a pain to the hotel guest!My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of top floor rooms...no problem.  Until we take the elevator up, walk out and realize our room is directly in front of the elevator.  So back downstairs where they were able to assign us a room on the top floor away from the elevator.  I felt as if nothing in our profile was read.  Very disappointing.This hotel is  inexpensive (less than $100 per night and does include breakfast), close to Magic Mountain, and was only 30 minutes from Hollywood on a Monday evening around 4:30 pm.  It also provides easy access out of the LA area if you are heading north.  I do have to say that even with the hotel being so near the freeway, noise was not an issue and we all slept well during our trip.Overall, I had higher expectations for this property and left feeling disappointed and that it wasn't up to Marriott standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, General Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2013</t>
+  </si>
+  <si>
+    <t>My husband is a Marriott Gold Rewards member and we have stayed at many Fairfield properties. I have to say, I was a little disappointed with this one.  The property is in need of renovation.  The furnishings are outdated  and the carpets in the hallways are lifting.  These are things I do not expect in a Marriott property.  
+The light sensor in the vanity area of bathroom was completely OBNOXIOUS. It would only stay on for a minute or so and then turn off even if you were standing right there doing your hair or brushing your teeth.  It became frustrating.  Also, we left for the evening and were gone for about 6 hours.  We like our room cold when we sleep.  Even though we had the AC set to 70 it was almost 78 degrees when we got back to our room and we could not get the AC unit to turn back on for almost 15 minutes after we got back.  We did actually call maintenance but by the time they came up, the AC had kicked in.  I believe this has something to do with another motion sensor in the room.  Going green is fine - but not when it becomes a pain to the hotel guest!
+My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of...My husband is a Marriott Gold Rewards member and we have stayed at many Fairfield properties. I have to say, I was a little disappointed with this one.  The property is in need of renovation.  The furnishings are outdated  and the carpets in the hallways are lifting.  These are things I do not expect in a Marriott property.  The light sensor in the vanity area of bathroom was completely OBNOXIOUS. It would only stay on for a minute or so and then turn off even if you were standing right there doing your hair or brushing your teeth.  It became frustrating.  Also, we left for the evening and were gone for about 6 hours.  We like our room cold when we sleep.  Even though we had the AC set to 70 it was almost 78 degrees when we got back to our room and we could not get the AC unit to turn back on for almost 15 minutes after we got back.  We did actually call maintenance but by the time they came up, the AC had kicked in.  I believe this has something to do with another motion sensor in the room.  Going green is fine - but not when it becomes a pain to the hotel guest!My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of top floor rooms...no problem.  Until we take the elevator up, walk out and realize our room is directly in front of the elevator.  So back downstairs where they were able to assign us a room on the top floor away from the elevator.  I felt as if nothing in our profile was read.  Very disappointing.This hotel is  inexpensive (less than $100 per night and does include breakfast), close to Magic Mountain, and was only 30 minutes from Hollywood on a Monday evening around 4:30 pm.  It also provides easy access out of the LA area if you are heading north.  I do have to say that even with the hotel being so near the freeway, noise was not an issue and we all slept well during our trip.Overall, I had higher expectations for this property and left feeling disappointed and that it wasn't up to Marriott standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r156651889-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>156651889</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Lots of pillows!!!</t>
+  </si>
+  <si>
+    <t>I don't know about most other people but it drives me nuts when hotels/motels are cheap with the pillows.  Sure a comfy mattress is great but nothing without sufficient pillows.  Aside from that the room was very neat and cozy.  Room has a microwave and a mini fridge.  Free wi-fi.  If you are traveling with the intent on doing a little bit of business, they have nice desks with probably the best desk chairs I have seen in a hotel.  I was leary of the price but I needed something close to Magic Mountain for one night and the only cheap options not booked up were poorly rated so I went with these guys.  Definitely worth the money I think.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>I don't know about most other people but it drives me nuts when hotels/motels are cheap with the pillows.  Sure a comfy mattress is great but nothing without sufficient pillows.  Aside from that the room was very neat and cozy.  Room has a microwave and a mini fridge.  Free wi-fi.  If you are traveling with the intent on doing a little bit of business, they have nice desks with probably the best desk chairs I have seen in a hotel.  I was leary of the price but I needed something close to Magic Mountain for one night and the only cheap options not booked up were poorly rated so I went with these guys.  Definitely worth the money I think.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r155770112-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>155770112</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Good Value!</t>
+  </si>
+  <si>
+    <t>We were visiting family who live in the area and found the hotel really  convient to get to from the freeway. Lots of nearby restaurants too! Staff were friendly but not overly helpful when we tried to get intormation about a hotel in San Diego. Breakfast was good and appreciated. We also used the pool and hottub and they seemed to be well used by other guests. Overall a good experience, we will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>We were visiting family who live in the area and found the hotel really  convient to get to from the freeway. Lots of nearby restaurants too! Staff were friendly but not overly helpful when we tried to get intormation about a hotel in San Diego. Breakfast was good and appreciated. We also used the pool and hottub and they seemed to be well used by other guests. Overall a good experience, we will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r155162443-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>155162443</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Nice value, nice place</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel more than a dozen times over the last 2 years. It is my go to place for this area. The rooms are very nice and large. The breakfast is always the same, but good. They have been kind enough to let me check in early many times. It is convenient to so many restaurants and shopping, plus magic mountain.  The room price is a good value.  MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel more than a dozen times over the last 2 years. It is my go to place for this area. The rooms are very nice and large. The breakfast is always the same, but good. They have been kind enough to let me check in early many times. It is convenient to so many restaurants and shopping, plus magic mountain.  The room price is a good value.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r149740482-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>149740482</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Safe</t>
+  </si>
+  <si>
+    <t>Stayed four nights for business in Van Nuys.  This hotel was a short, easy commute in the early morning and worth the drive to sleep in what I felt was a safer area.  The room was clean and quiet.  I left at 6 each morning so can't rate the breakfast.  I fully understand why breakfast doesn't start any earlier than that but was a little disappointed that coffee wasn't kept fresh during the off peak hours.The staff was friendly and the hotel is convenient to both fast food and casual sit down restaurants.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Stayed four nights for business in Van Nuys.  This hotel was a short, easy commute in the early morning and worth the drive to sleep in what I felt was a safer area.  The room was clean and quiet.  I left at 6 each morning so can't rate the breakfast.  I fully understand why breakfast doesn't start any earlier than that but was a little disappointed that coffee wasn't kept fresh during the off peak hours.The staff was friendly and the hotel is convenient to both fast food and casual sit down restaurants.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r149669064-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>149669064</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>pricelined (2) rooms</t>
+  </si>
+  <si>
+    <t>we just returned from a 2 night stay in Santa clarita and had a very pleasant stay at the Fairfield.The rooms were very large and well equipped.  The breakfast was a wonderful bonus...but get out there early as it gets very crowded. Great selection of breakfast choices.  The warm "ooey gooey" chocolate cookies were fabulous...as our entire family ate the whole batch alone!  My only complaint was few...one was that they had just installed a beauiful gas firepit out by the pool and the guy  at the desk didn't even know it was out there and was arguing with us about it. Upon calling maintenance, he was informed that they had installed one, but it wasn't completed yet to use, so we couldn't sit by the warm fire at the fairfield hotel, but across the way was another hotel that they are affiliated with, and they also got a new fire pit installed and they allowed us to go over and use that one. (Wonderful of them to make the accomadations for us).  Also, on the website, it showed a magitized mirror in the bathroom (which I was excited too see) because my eyesight isn't the best anymore and it really helps when applying my makeup, but they didn't have one in our room...booooohoooo!  But other than those  things, Our stay was wonderful...we would definately be back again when traveling thru town.MoreShow less</t>
+  </si>
+  <si>
+    <t>we just returned from a 2 night stay in Santa clarita and had a very pleasant stay at the Fairfield.The rooms were very large and well equipped.  The breakfast was a wonderful bonus...but get out there early as it gets very crowded. Great selection of breakfast choices.  The warm "ooey gooey" chocolate cookies were fabulous...as our entire family ate the whole batch alone!  My only complaint was few...one was that they had just installed a beauiful gas firepit out by the pool and the guy  at the desk didn't even know it was out there and was arguing with us about it. Upon calling maintenance, he was informed that they had installed one, but it wasn't completed yet to use, so we couldn't sit by the warm fire at the fairfield hotel, but across the way was another hotel that they are affiliated with, and they also got a new fire pit installed and they allowed us to go over and use that one. (Wonderful of them to make the accomadations for us).  Also, on the website, it showed a magitized mirror in the bathroom (which I was excited too see) because my eyesight isn't the best anymore and it really helps when applying my makeup, but they didn't have one in our room...booooohoooo!  But other than those  things, Our stay was wonderful...we would definately be back again when traveling thru town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r146328732-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>146328732</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Four Very Happy Families</t>
+  </si>
+  <si>
+    <t>We had reserved 4 rooms for us &amp; all our children and grandchildren on the way to a Mexican cruise from Los Angeles.  It was an excellent stop.  We had asked for two cribs, which were in the rooms when we arrived.  Check-in was extremely easy, and the rooms were very large &amp; clean.  The bathroom was also clean. They had fresh cookies in the lobby as well as fruit.  The desk person was friendly and helpful.  Breakfast was good with lots of choices for the kids.  Coffee and tea were available 24 hours.  We were able to play cards on the tables in the breakfast area.  We had looked for a reasonable hotel which was good for all the kids, and this Marriott definitely fit the bill.  It's also in a great location.  I would certainly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Ian K, Public Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>We had reserved 4 rooms for us &amp; all our children and grandchildren on the way to a Mexican cruise from Los Angeles.  It was an excellent stop.  We had asked for two cribs, which were in the rooms when we arrived.  Check-in was extremely easy, and the rooms were very large &amp; clean.  The bathroom was also clean. They had fresh cookies in the lobby as well as fruit.  The desk person was friendly and helpful.  Breakfast was good with lots of choices for the kids.  Coffee and tea were available 24 hours.  We were able to play cards on the tables in the breakfast area.  We had looked for a reasonable hotel which was good for all the kids, and this Marriott definitely fit the bill.  It's also in a great location.  I would certainly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r142481991-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>142481991</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Good Place to Stay if Working in Northern LA</t>
+  </si>
+  <si>
+    <t>I've stayed here for about five weeks over the past few months.  In that time, I've also stayed at the Courtyard in Pasadena and the Warner Marriott on Oxnard.Nothing against the Courtyard or the Warner Marriott - they are both great hotels; but for the value, this Fairfield is a great option.The staff is nice and helpful, free breakfast, free parking, much cheaper than LA hotels.Yes, there is a commute, but I'm accustom to an hour + commute, so this was nothing new for me.The Fairfield is not as nice as the other Marriott properties closer to the city, but again, if you're looking for a good cheaperMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here for about five weeks over the past few months.  In that time, I've also stayed at the Courtyard in Pasadena and the Warner Marriott on Oxnard.Nothing against the Courtyard or the Warner Marriott - they are both great hotels; but for the value, this Fairfield is a great option.The staff is nice and helpful, free breakfast, free parking, much cheaper than LA hotels.Yes, there is a commute, but I'm accustom to an hour + commute, so this was nothing new for me.The Fairfield is not as nice as the other Marriott properties closer to the city, but again, if you're looking for a good cheaperMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r140785676-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>140785676</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Great for Magic Mountain or Overnight Stop</t>
+  </si>
+  <si>
+    <t>Nice Fairfield with large rooms. The bathroom is a bit tiny but not too small. Good staff and breakfast is very nice. This is a good spot if you are visiting Magic Mountain or need a place to spend the night driving the State.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>fom0430, Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Nice Fairfield with large rooms. The bathroom is a bit tiny but not too small. Good staff and breakfast is very nice. This is a good spot if you are visiting Magic Mountain or need a place to spend the night driving the State.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r137868764-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>137868764</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Large, clean, comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Got caught in traffic jam when the 405 at the Sepulveda Blvd. Exit was closed because of a jack knifed truck.  Hotel had rooms available.  Front desk was very helpful, little quick store in lobby was convenient and breakfast in the morning was everything I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got caught in traffic jam when the 405 at the Sepulveda Blvd. Exit was closed because of a jack knifed truck.  Hotel had rooms available.  Front desk was very helpful, little quick store in lobby was convenient and breakfast in the morning was everything I needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r132730000-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>132730000</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>I've stayed three different times.  It's always good.  Friendly reception, clean quiet rooms.  Good breakfast.  Public area walls and woodwork are getting to the point where cleaning and some fresh paint would help.  It's starting to get a bot shop worn.  I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed three different times.  It's always good.  Friendly reception, clean quiet rooms.  Good breakfast.  Public area walls and woodwork are getting to the point where cleaning and some fresh paint would help.  It's starting to get a bot shop worn.  I'd stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r129233066-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>129233066</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>great pet friendly hotel</t>
+  </si>
+  <si>
+    <t>We had a dog and 3 cats, and this place was perfect, There is a small fenced in dog area and lots of grassy areas for dog walking. Our room was clean and comfy with a gorgeous mountain view. We were close to the outdoor pool but it was still pretty quiet. The staff was accommodating and friendly, the complimentary breakfast was very good - I especially liked the big pot of fresh hot oatmeal and all the fixin's for that.  Vegan if you bring your own soy milk, which you can because you have a mini-fridge and microwave in your room. Got online easily too. Very nice place. No restaurant but many nearby and a convenience store in walking distance if you want to buy cold beer, soda, and snacks.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>fom0430, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2012</t>
+  </si>
+  <si>
+    <t>We had a dog and 3 cats, and this place was perfect, There is a small fenced in dog area and lots of grassy areas for dog walking. Our room was clean and comfy with a gorgeous mountain view. We were close to the outdoor pool but it was still pretty quiet. The staff was accommodating and friendly, the complimentary breakfast was very good - I especially liked the big pot of fresh hot oatmeal and all the fixin's for that.  Vegan if you bring your own soy milk, which you can because you have a mini-fridge and microwave in your room. Got online easily too. Very nice place. No restaurant but many nearby and a convenience store in walking distance if you want to buy cold beer, soda, and snacks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r129127239-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>129127239</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Classy Inexpensive Stop-Over in Los Angeles Area</t>
+  </si>
+  <si>
+    <t>This hotel offered a welcome respite after a long drive from Southern Oregon.  The price for seniors was quite reasonable--less than $100 while rooms in the L.A. basin would have cost well over that.  And the rooms were spacious and well appointed.  The desk staff was friendly and helpful and everything about the hotel was classy, even the breakfast.  I'd recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>fom0430, Public Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded May 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2012</t>
+  </si>
+  <si>
+    <t>This hotel offered a welcome respite after a long drive from Southern Oregon.  The price for seniors was quite reasonable--less than $100 while rooms in the L.A. basin would have cost well over that.  And the rooms were spacious and well appointed.  The desk staff was friendly and helpful and everything about the hotel was classy, even the breakfast.  I'd recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r127780730-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>127780730</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Great hotel for families near Magic Mountain.</t>
+  </si>
+  <si>
+    <t>We stayed here with our teenage kids because it is close to Magic Mountain. The hotel is about 5 minutes from Magic Mountain and is conveniently located right off the freeway with shops and restaurants within walking distance. I went for a run in the neighborhood, which is very nice and safe. The hotel is clean, comfortable and well-kept. It's a good value and includes a continental breakfast with a waffle-iron for making your own waffles.  The hotel also includes free parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>fom0430, Front Office Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here with our teenage kids because it is close to Magic Mountain. The hotel is about 5 minutes from Magic Mountain and is conveniently located right off the freeway with shops and restaurants within walking distance. I went for a run in the neighborhood, which is very nice and safe. The hotel is clean, comfortable and well-kept. It's a good value and includes a continental breakfast with a waffle-iron for making your own waffles.  The hotel also includes free parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r123937506-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>123937506</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay if visiting anywhere in the area - Clean, Friendly, Good Price point</t>
+  </si>
+  <si>
+    <t>My wife and I stay at this hotel every time we visit our family in Porter Ranch (they have pets, we're allergic!).The hotel is clean, comfortable, and quiet.  It's one of the lowest priced hotels in it's class in the greater San Fernando Valley area.  It's also close to a bunch of restaurants and other activities.  They have a nice breakfast and Gym too.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>fom0430, Public Relations Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded April 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stay at this hotel every time we visit our family in Porter Ranch (they have pets, we're allergic!).The hotel is clean, comfortable, and quiet.  It's one of the lowest priced hotels in it's class in the greater San Fernando Valley area.  It's also close to a bunch of restaurants and other activities.  They have a nice breakfast and Gym too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r122323908-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>122323908</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Marriot property on the way to Pismo Beach</t>
+  </si>
+  <si>
+    <t>Older property but well kept and reasonably priced compared to other spots on the way to Pismo. No extra fees for parking and includes continental breakfast-waffle maker,pre-made bagel sandwiches,hard boiled eggs,cereals,yogurt,etc. The hotel is right off the freeway and shares the property with the Residence Inn and is surrounded by many of restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r117662765-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>117662765</t>
+  </si>
+  <si>
+    <t>09/04/2011</t>
+  </si>
+  <si>
+    <t>Great Customer Svc, no breakfast options for vegetarians</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  The Front Desk and staff were great.  The place is very basic but clean and well maintained.  Nothing amazing, but nothing bad either.  Wireless Internet only in the Lobby, ethernet in the room.  Breakfast was pretty good, very clean, plenty of choices for non-vegetarians.  If you are travelling with a vegetarian (like I was) the only option is waffles.  All the breakfast sandwiches had meat on them.  They have a computer in the lobby to print boarding pases but there is no privacy because it is smack in the middle of the lobby.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r116589302-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>116589302</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Excelence!</t>
+  </si>
+  <si>
+    <t>Very friendly young staff, elegant and beyond clean. Priced around $108.00 dollars for the King sized bed, but very well worth it.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r116165578-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>116165578</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>After a day a Magic Mountain with 3 Grand  children - 2, 16 and 18 we needed a cool, clean, reliable place to rest our weary bones and this palce met the bill on every level.  From Alex, the man at the desk to the nice self serve breakfast the next morning.  Everything was tip top.  Quiet room, fun pool, laundry - that worked, courteous staff.  If you are looking for a nice hotel, near Six Flags, this is the place to saty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r97040679-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>97040679</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice room, reasonable rates, good breakfast, comfortable bed</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r93560970-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>93560970</t>
+  </si>
+  <si>
+    <t>01/18/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay for many reasons</t>
+  </si>
+  <si>
+    <t>Great for location, cleanliness, spaciousness, atmosphere, breakfast selection, staff friendliness and helpfulness, and access to other food outlets/malls/places to visit/Interstate, but without the noise, heavy traffic, riff-raff, and clutter.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r89042490-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>89042490</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
+  </si>
+  <si>
+    <t>Clean hotel- not too great with customer service</t>
+  </si>
+  <si>
+    <t>This was the second time staying at this hotel. But this second time I found a total shift in customer service.  It's a nice clean hotel, but the manager was very rude, and unhelpful. She was the day manager. I even tried to email the general manager to let know of my concerns and I never received a response. So, as long as you don't have a problem or a need when staying at this hotel stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>RIFFISC, General Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded December 6, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2010</t>
+  </si>
+  <si>
+    <t>This was the second time staying at this hotel. But this second time I found a total shift in customer service.  It's a nice clean hotel, but the manager was very rude, and unhelpful. She was the day manager. I even tried to email the general manager to let know of my concerns and I never received a response. So, as long as you don't have a problem or a need when staying at this hotel stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r70407809-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>70407809</t>
+  </si>
+  <si>
+    <t>07/10/2010</t>
+  </si>
+  <si>
+    <t>Reasonable value and friendly service</t>
+  </si>
+  <si>
+    <t>Booked via the Marriott website and everything as stated on the website. Efficient and very helpful check in. Free parking. Free internet computer at foyer forboarding pass printing if needed. Room was clean and fully functional. Microwave and fridge in the room. Free breakfast was a bit disappointing in terms of choice but adequate for a quick bite. Check out also quic, efficient and accurate. No issues with this hotel. Reasonable value. A Whole Foods market is several blocks away at 24130 Valencia Boulevard if in need of organic natural food.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>fom0430, Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded August 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2010</t>
+  </si>
+  <si>
+    <t>Booked via the Marriott website and everything as stated on the website. Efficient and very helpful check in. Free parking. Free internet computer at foyer forboarding pass printing if needed. Room was clean and fully functional. Microwave and fridge in the room. Free breakfast was a bit disappointing in terms of choice but adequate for a quick bite. Check out also quic, efficient and accurate. No issues with this hotel. Reasonable value. A Whole Foods market is several blocks away at 24130 Valencia Boulevard if in need of organic natural food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r67215512-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>67215512</t>
+  </si>
+  <si>
+    <t>06/11/2010</t>
+  </si>
+  <si>
+    <t>it has been perfect for us</t>
+  </si>
+  <si>
+    <t>We have stayed here 4 times over the past 3 years as our son was in grad school @ calarts which is very close by. We have always enjoyed our stays. It has been clean,comfy and  we feel a very good value. The breakfast is included and although has never changed over the 3 years has been good. The staff for the most part has been very friendly and good at their jobs.Our son has since graduated but we enjoyed our days here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>fom0430, Manager at Fairfield Inn Santa Clarita Valencia, responded to this reviewResponded June 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2010</t>
+  </si>
+  <si>
+    <t>We have stayed here 4 times over the past 3 years as our son was in grad school @ calarts which is very close by. We have always enjoyed our stays. It has been clean,comfy and  we feel a very good value. The breakfast is included and although has never changed over the 3 years has been good. The staff for the most part has been very friendly and good at their jobs.Our son has since graduated but we enjoyed our days here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r65019047-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>65019047</t>
+  </si>
+  <si>
+    <t>05/22/2010</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>We have stayed here several times over the past few years and the place is very nice.  As a Fairfield, it's not as plush as a Courtyard or a full service Marriott but this is a very nice place for the money.  We enjoy going to Magic Mountain and had planned to do that in the mornings and do other things in the afternoon/evening hours.  This Fairfield suits us to a T for that!  We can get into LA relatively easily and Magic Mountain is just down the road.  The area around this Fairfield has an Outback, Chuy's, In and Out Burger, Mc Donald's, and a sushi place all within easy walking distance.  Across the road is an El Pollo Loco and a Carl's Jr.  Closer to Magic Mountain there are Mimi's, Red Lobster, Macaroni Grill, and some other places.  If you're going to do the park, this is a nice reasonably priced place to stay.  And it has a free breakfast to boot!  (Not a great breakfast but a decent one.)MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed here several times over the past few years and the place is very nice.  As a Fairfield, it's not as plush as a Courtyard or a full service Marriott but this is a very nice place for the money.  We enjoy going to Magic Mountain and had planned to do that in the mornings and do other things in the afternoon/evening hours.  This Fairfield suits us to a T for that!  We can get into LA relatively easily and Magic Mountain is just down the road.  The area around this Fairfield has an Outback, Chuy's, In and Out Burger, Mc Donald's, and a sushi place all within easy walking distance.  Across the road is an El Pollo Loco and a Carl's Jr.  Closer to Magic Mountain there are Mimi's, Red Lobster, Macaroni Grill, and some other places.  If you're going to do the park, this is a nice reasonably priced place to stay.  And it has a free breakfast to boot!  (Not a great breakfast but a decent one.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r53678603-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>53678603</t>
+  </si>
+  <si>
+    <t>01/17/2010</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>Booked reservation for 2 nights, after the 1st night of not sleeping because you can here everything through these walls, people coughing /talking outside, flushing toilets, and uncomfortable beds. Called cheap rooms to get credit back for 2nd night they were willing but the office manager her Amy refused to refund. So, needless to say we are still leaving early without our refund. Horrible experience never again will we stay here.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r52318887-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>52318887</t>
+  </si>
+  <si>
+    <t>01/01/2010</t>
+  </si>
+  <si>
+    <t>Confortable and Clean</t>
+  </si>
+  <si>
+    <t>Upon arriving we found this hotelt to be very clean.  The room was spacious and confortable. Nice TV, free internet and small fridge and microwave in room. The beds are confortable and the restroom seperate from vanity. I will agree with a previous review on the towels. The towels where a bit thin. However, the bedding was very nice.Although they where fully booked the hotel was very quiet. Parking was easy to find and near restraunts and gas stations.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r51863072-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>51863072</t>
+  </si>
+  <si>
+    <t>12/25/2009</t>
+  </si>
+  <si>
+    <t>Nice modern quiet hotel</t>
+  </si>
+  <si>
+    <t>A great hotel that was well equipped with everything you needed. Staff were helpful and friendly. good value for money.Free parking and a good choice of breakfast items included free of charge. Good location 5-6 miles from six flags &amp; lots of shopping strips around. Our only criticism was the towels were old and very thin.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r36645338-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>36645338</t>
+  </si>
+  <si>
+    <t>08/03/2009</t>
+  </si>
+  <si>
+    <t>Rooms small for 4 but nothing else wrong</t>
+  </si>
+  <si>
+    <t>The rooms were small for 4 people but the service and facilities were excellent. We were given 3 $25 fuel vouchers which we didn't know about as a part of our 3 day stay. The views were great from our room and brekky was excellent.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r35035821-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>35035821</t>
+  </si>
+  <si>
+    <t>07/17/2009</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed one night while visiting local friends. The staff was exceptional. Needed towels for the pool and they brought them straight to us. Front desk always helpful. Room was a good size and bed was comfortable. Hotel is conveniently located near freeway, food and shops. No problems with noise either. The pool is not big but was perfect for an afternoon dip. Would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r18486585-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>18486585</t>
+  </si>
+  <si>
+    <t>07/31/2008</t>
+  </si>
+  <si>
+    <t>pleasant experience</t>
+  </si>
+  <si>
+    <t>The property was very clean and the beds were comfortable. I took four teenagers for Magic Mountain.  This is the only hotel, in the area, that we found with a hook-up for their Xbox 360 in the room.  The front desk staff was always very friendly and helpful.  The boys enjoyed the continental breakfast and waffle station.  I enjoyed the laundry facilities for wet clothes after the waterpark.  The pool is not very big, but ok.  Will definitely return. If you plan on visiting in the summer, it is VERY hot. The location is near several restaraunts and fast food places.  The teenagers also enjoyed visiting the nearby Westfield shopping mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>The property was very clean and the beds were comfortable. I took four teenagers for Magic Mountain.  This is the only hotel, in the area, that we found with a hook-up for their Xbox 360 in the room.  The front desk staff was always very friendly and helpful.  The boys enjoyed the continental breakfast and waffle station.  I enjoyed the laundry facilities for wet clothes after the waterpark.  The pool is not very big, but ok.  Will definitely return. If you plan on visiting in the summer, it is VERY hot. The location is near several restaraunts and fast food places.  The teenagers also enjoyed visiting the nearby Westfield shopping mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r12992712-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>12992712</t>
+  </si>
+  <si>
+    <t>01/25/2008</t>
+  </si>
+  <si>
+    <t>Stayed over the holidays. Nice stay, decent complimentary buffet. Very nice staff. Plenty of parking and lots of amenities close by (without being too noisy). Love the free wi-fi.I really liked the fact that they had minimal room service on Christmas Day and New Years Day so that staff members could spend time with their families.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r10069354-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>10069354</t>
+  </si>
+  <si>
+    <t>10/11/2007</t>
+  </si>
+  <si>
+    <t>Nice place for a night and for the right price</t>
+  </si>
+  <si>
+    <t>Got a nice rate of $52 a room on priceline.  Front Desk was very nice and fast check in.  Rooms have microwave and fridge.  Breakfast has waffles, cinnamon buns, and a breakfast sandwich to choose from.  Good place for a business traveler or just to catch a nights rest.  Clean, comfortable, and pretty cheap if you can use priceline.  Hotels rates were about 4x's what I paid.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r10067409-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>10067409</t>
+  </si>
+  <si>
+    <t>Friendly and clean</t>
+  </si>
+  <si>
+    <t>We stayed here Oct 29th which was a Saturday.The parking lot does not have a lot of spaces but we were able to find a spot each time we left and returned.  The checking was fast and friendly.   No issues there.  They had homemade cookies and coffee in the lobby.   They also had snack machines in the lobby which even included ice cream.Our room was comfy and clean.   We had plenty of lotion/shampoo/soap.  The beds were comfortable.  We thought the room was very quiet.Plenty of towels.  Shower was clean.  Very minimal water temp changes when other guests used their toilets or showers.  Our bill was under the door in the morning for fast checkout.The check in clerk had a smile every time we passed through the lobby.I have no complaints about this hotel and would not hesitate to stay again.The price was reasonable compared to other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here Oct 29th which was a Saturday.The parking lot does not have a lot of spaces but we were able to find a spot each time we left and returned.  The checking was fast and friendly.   No issues there.  They had homemade cookies and coffee in the lobby.   They also had snack machines in the lobby which even included ice cream.Our room was comfy and clean.   We had plenty of lotion/shampoo/soap.  The beds were comfortable.  We thought the room was very quiet.Plenty of towels.  Shower was clean.  Very minimal water temp changes when other guests used their toilets or showers.  Our bill was under the door in the morning for fast checkout.The check in clerk had a smile every time we passed through the lobby.I have no complaints about this hotel and would not hesitate to stay again.The price was reasonable compared to other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r6612482-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>6612482</t>
+  </si>
+  <si>
+    <t>01/16/2007</t>
+  </si>
+  <si>
+    <t>Great clean hotel</t>
+  </si>
+  <si>
+    <t>First time at a Fairlfield Inn and we loved it! My husband and I were returning from LA and stopped for the night. Clean room, good breakfast in the AM, everything was just perfect. I would stay again.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r6359409-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>6359409</t>
+  </si>
+  <si>
+    <t>12/09/2006</t>
+  </si>
+  <si>
+    <t>Stay here for Sta Clarita, Magic Mtn, Castaic</t>
+  </si>
+  <si>
+    <t>Great customer service in reservations (booked a group of 10 rooms): excellent communication, rates, &amp; follow up. Small hotel but it was all we needed. Pool was temporarily out of service but they offered us the use of the Residence Inn pool next door (same ownership); very nice. Linens are great, as their website states; but mattresses were boxy. Breakfast was perfect for our group; included some protein for our sports team, unlike most complimentary breakfasts. Very clean. Stayed 2 nights. Some freeway noise and construction trucks beeping; but all the hotels in this area are right by the freeway. A lot of restaurants &amp; tons of shopping nearby. Busy town on a Saturday night: there was a 45-60 minute wait at most restaurants we tried, except at Spumoni (20 minutes). Food &amp; service there was great! Would definitely stay at the Fairfield again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great customer service in reservations (booked a group of 10 rooms): excellent communication, rates, &amp; follow up. Small hotel but it was all we needed. Pool was temporarily out of service but they offered us the use of the Residence Inn pool next door (same ownership); very nice. Linens are great, as their website states; but mattresses were boxy. Breakfast was perfect for our group; included some protein for our sports team, unlike most complimentary breakfasts. Very clean. Stayed 2 nights. Some freeway noise and construction trucks beeping; but all the hotels in this area are right by the freeway. A lot of restaurants &amp; tons of shopping nearby. Busy town on a Saturday night: there was a 45-60 minute wait at most restaurants we tried, except at Spumoni (20 minutes). Food &amp; service there was great! Would definitely stay at the Fairfield again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r5424827-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>5424827</t>
+  </si>
+  <si>
+    <t>07/03/2006</t>
+  </si>
+  <si>
+    <t>A non smoking hotel</t>
+  </si>
+  <si>
+    <t>We were driving from the San Francisco area to San Diego.  When we hit a traffic jam in Santa Clarita, we decided to stop for the night.  We chose the Fairfield Inn because we thought it would be the least expensive lodging in the immediate area.  We were very pleased with the hotel.  It seemed new and was very clean.  Our room was quite large.  The continental breakfast was ok but the waffle iron for the "make-it yourself" waffles was not heated up enough to function correctly even though the breakfast area had been open for more than 1/2 hour.  If I ever stay in Santa Clarita again, I would stay here again.  We had a great Italian dinner at the nearby Spumoni Restaurant!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were driving from the San Francisco area to San Diego.  When we hit a traffic jam in Santa Clarita, we decided to stop for the night.  We chose the Fairfield Inn because we thought it would be the least expensive lodging in the immediate area.  We were very pleased with the hotel.  It seemed new and was very clean.  Our room was quite large.  The continental breakfast was ok but the waffle iron for the "make-it yourself" waffles was not heated up enough to function correctly even though the breakfast area had been open for more than 1/2 hour.  If I ever stay in Santa Clarita again, I would stay here again.  We had a great Italian dinner at the nearby Spumoni Restaurant!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r3662130-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>3662130</t>
+  </si>
+  <si>
+    <t>07/12/2005</t>
+  </si>
+  <si>
+    <t>would stay there again</t>
+  </si>
+  <si>
+    <t>I have now stayed in 4 different hotels of approx the same cost while visiting my daughter in Santa Clarita.  This is definitely the nicest for the money.  The room was very recently redecorated; it looked like new carpet, new drapes, new bedspread, etc.  The room was well cleaned every day &amp; all the staff I met were very courteous.  The free continental breakfast was pretty good.  They even had little cups of waffle batter &amp; a waffle iron to make your own waffles.  I plan on staying here next time I'm in the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r3335725-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>3335725</t>
+  </si>
+  <si>
+    <t>04/04/2005</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel with my wife and kids 4 times.  We usually stay here on our way to Arizona.  It's about the halfway point.Has nice vistas from the pool deck.  Pool is adequit and heated.  Service is nice.  Has a nice contenetal breakfast in the morning with a number of tables to eat at.Plenty of fast food nearby.  I highly recommend this Inn.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3169,7045 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>257</v>
+      </c>
+      <c r="X27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>289</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>298</v>
+      </c>
+      <c r="X31" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>322</v>
+      </c>
+      <c r="X34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>327</v>
+      </c>
+      <c r="K35" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>339</v>
+      </c>
+      <c r="X36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>347</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>348</v>
+      </c>
+      <c r="X37" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>357</v>
+      </c>
+      <c r="X38" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>361</v>
+      </c>
+      <c r="J39" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" t="s">
+        <v>363</v>
+      </c>
+      <c r="L39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>367</v>
+      </c>
+      <c r="J40" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" t="s">
+        <v>369</v>
+      </c>
+      <c r="L40" t="s">
+        <v>370</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X40" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>376</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>378</v>
+      </c>
+      <c r="X41" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>382</v>
+      </c>
+      <c r="J42" t="s">
+        <v>383</v>
+      </c>
+      <c r="K42" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" t="s">
+        <v>385</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>386</v>
+      </c>
+      <c r="X42" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L43" t="s">
+        <v>393</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>394</v>
+      </c>
+      <c r="X43" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" t="s">
+        <v>399</v>
+      </c>
+      <c r="K44" t="s">
+        <v>400</v>
+      </c>
+      <c r="L44" t="s">
+        <v>401</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>402</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>409</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>402</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>416</v>
+      </c>
+      <c r="X46" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>269</v>
+      </c>
+      <c r="L47" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>423</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>424</v>
+      </c>
+      <c r="X47" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>428</v>
+      </c>
+      <c r="J48" t="s">
+        <v>429</v>
+      </c>
+      <c r="K48" t="s">
+        <v>430</v>
+      </c>
+      <c r="L48" t="s">
+        <v>431</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>432</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>424</v>
+      </c>
+      <c r="X48" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>435</v>
+      </c>
+      <c r="J49" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>439</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>440</v>
+      </c>
+      <c r="X49" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s">
+        <v>289</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>448</v>
+      </c>
+      <c r="X50" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>456</v>
+      </c>
+      <c r="O51" t="s">
+        <v>289</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>457</v>
+      </c>
+      <c r="X51" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>461</v>
+      </c>
+      <c r="J52" t="s">
+        <v>462</v>
+      </c>
+      <c r="K52" t="s">
+        <v>463</v>
+      </c>
+      <c r="L52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>456</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>457</v>
+      </c>
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>467</v>
+      </c>
+      <c r="J53" t="s">
+        <v>468</v>
+      </c>
+      <c r="K53" t="s">
+        <v>469</v>
+      </c>
+      <c r="L53" t="s">
+        <v>470</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>456</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>471</v>
+      </c>
+      <c r="X53" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>475</v>
+      </c>
+      <c r="J54" t="s">
+        <v>476</v>
+      </c>
+      <c r="K54" t="s">
+        <v>477</v>
+      </c>
+      <c r="L54" t="s">
+        <v>478</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>479</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>480</v>
+      </c>
+      <c r="X54" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>483</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>484</v>
+      </c>
+      <c r="J55" t="s">
+        <v>485</v>
+      </c>
+      <c r="K55" t="s">
+        <v>486</v>
+      </c>
+      <c r="L55" t="s">
+        <v>487</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>488</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>489</v>
+      </c>
+      <c r="X55" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>492</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" t="s">
+        <v>494</v>
+      </c>
+      <c r="K56" t="s">
+        <v>495</v>
+      </c>
+      <c r="L56" t="s">
+        <v>496</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>488</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>497</v>
+      </c>
+      <c r="X56" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>488</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>505</v>
+      </c>
+      <c r="X57" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>508</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>509</v>
+      </c>
+      <c r="J58" t="s">
+        <v>510</v>
+      </c>
+      <c r="K58" t="s">
+        <v>511</v>
+      </c>
+      <c r="L58" t="s">
+        <v>512</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>513</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>514</v>
+      </c>
+      <c r="X58" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>517</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59" t="s">
+        <v>519</v>
+      </c>
+      <c r="K59" t="s">
+        <v>520</v>
+      </c>
+      <c r="L59" t="s">
+        <v>521</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>522</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>523</v>
+      </c>
+      <c r="X59" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>529</v>
+      </c>
+      <c r="L60" t="s">
+        <v>530</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>531</v>
+      </c>
+      <c r="O60" t="s">
+        <v>289</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>532</v>
+      </c>
+      <c r="X60" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>535</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>536</v>
+      </c>
+      <c r="J61" t="s">
+        <v>537</v>
+      </c>
+      <c r="K61" t="s">
+        <v>538</v>
+      </c>
+      <c r="L61" t="s">
+        <v>539</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>540</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>541</v>
+      </c>
+      <c r="X61" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>544</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>545</v>
+      </c>
+      <c r="J62" t="s">
+        <v>546</v>
+      </c>
+      <c r="K62" t="s">
+        <v>547</v>
+      </c>
+      <c r="L62" t="s">
+        <v>548</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>549</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>550</v>
+      </c>
+      <c r="X62" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>553</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>554</v>
+      </c>
+      <c r="J63" t="s">
+        <v>555</v>
+      </c>
+      <c r="K63" t="s">
+        <v>556</v>
+      </c>
+      <c r="L63" t="s">
+        <v>557</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>558</v>
+      </c>
+      <c r="O63" t="s">
+        <v>97</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>559</v>
+      </c>
+      <c r="X63" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>562</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>563</v>
+      </c>
+      <c r="J64" t="s">
+        <v>564</v>
+      </c>
+      <c r="K64" t="s">
+        <v>565</v>
+      </c>
+      <c r="L64" t="s">
+        <v>566</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>558</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>567</v>
+      </c>
+      <c r="X64" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>570</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>571</v>
+      </c>
+      <c r="J65" t="s">
+        <v>572</v>
+      </c>
+      <c r="K65" t="s">
+        <v>573</v>
+      </c>
+      <c r="L65" t="s">
+        <v>574</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>575</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>576</v>
+      </c>
+      <c r="X65" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>579</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>580</v>
+      </c>
+      <c r="J66" t="s">
+        <v>581</v>
+      </c>
+      <c r="K66" t="s">
+        <v>582</v>
+      </c>
+      <c r="L66" t="s">
+        <v>583</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>575</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>576</v>
+      </c>
+      <c r="X66" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>585</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>586</v>
+      </c>
+      <c r="J67" t="s">
+        <v>587</v>
+      </c>
+      <c r="K67" t="s">
+        <v>588</v>
+      </c>
+      <c r="L67" t="s">
+        <v>589</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>590</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>591</v>
+      </c>
+      <c r="X67" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>594</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>595</v>
+      </c>
+      <c r="J68" t="s">
+        <v>596</v>
+      </c>
+      <c r="K68" t="s">
+        <v>597</v>
+      </c>
+      <c r="L68" t="s">
+        <v>598</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>599</v>
+      </c>
+      <c r="O68" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>600</v>
+      </c>
+      <c r="X68" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>603</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>604</v>
+      </c>
+      <c r="J69" t="s">
+        <v>605</v>
+      </c>
+      <c r="K69" t="s">
+        <v>606</v>
+      </c>
+      <c r="L69" t="s">
+        <v>607</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>599</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>600</v>
+      </c>
+      <c r="X69" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>609</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>610</v>
+      </c>
+      <c r="J70" t="s">
+        <v>611</v>
+      </c>
+      <c r="K70" t="s">
+        <v>612</v>
+      </c>
+      <c r="L70" t="s">
+        <v>613</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>599</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>614</v>
+      </c>
+      <c r="X70" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>617</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>618</v>
+      </c>
+      <c r="J71" t="s">
+        <v>619</v>
+      </c>
+      <c r="K71" t="s">
+        <v>620</v>
+      </c>
+      <c r="L71" t="s">
+        <v>621</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>622</v>
+      </c>
+      <c r="O71" t="s">
+        <v>88</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>623</v>
+      </c>
+      <c r="X71" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>626</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>627</v>
+      </c>
+      <c r="J72" t="s">
+        <v>628</v>
+      </c>
+      <c r="K72" t="s">
+        <v>629</v>
+      </c>
+      <c r="L72" t="s">
+        <v>630</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>631</v>
+      </c>
+      <c r="O72" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>632</v>
+      </c>
+      <c r="X72" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>635</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>636</v>
+      </c>
+      <c r="J73" t="s">
+        <v>637</v>
+      </c>
+      <c r="K73" t="s">
+        <v>638</v>
+      </c>
+      <c r="L73" t="s">
+        <v>639</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>640</v>
+      </c>
+      <c r="X73" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>643</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>644</v>
+      </c>
+      <c r="J74" t="s">
+        <v>645</v>
+      </c>
+      <c r="K74" t="s">
+        <v>646</v>
+      </c>
+      <c r="L74" t="s">
+        <v>647</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>648</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>649</v>
+      </c>
+      <c r="X74" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>653</v>
+      </c>
+      <c r="J75" t="s">
+        <v>654</v>
+      </c>
+      <c r="K75" t="s">
+        <v>655</v>
+      </c>
+      <c r="L75" t="s">
+        <v>656</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>648</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>649</v>
+      </c>
+      <c r="X75" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>658</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>659</v>
+      </c>
+      <c r="J76" t="s">
+        <v>660</v>
+      </c>
+      <c r="K76" t="s">
+        <v>661</v>
+      </c>
+      <c r="L76" t="s">
+        <v>662</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>663</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>664</v>
+      </c>
+      <c r="X76" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>667</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>668</v>
+      </c>
+      <c r="J77" t="s">
+        <v>669</v>
+      </c>
+      <c r="K77" t="s">
+        <v>670</v>
+      </c>
+      <c r="L77" t="s">
+        <v>671</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>672</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>664</v>
+      </c>
+      <c r="X77" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>674</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>675</v>
+      </c>
+      <c r="J78" t="s">
+        <v>676</v>
+      </c>
+      <c r="K78" t="s">
+        <v>677</v>
+      </c>
+      <c r="L78" t="s">
+        <v>678</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>679</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>680</v>
+      </c>
+      <c r="X78" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>682</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>683</v>
+      </c>
+      <c r="J79" t="s">
+        <v>684</v>
+      </c>
+      <c r="K79" t="s">
+        <v>685</v>
+      </c>
+      <c r="L79" t="s">
+        <v>686</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>664</v>
+      </c>
+      <c r="X79" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>688</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>689</v>
+      </c>
+      <c r="J80" t="s">
+        <v>690</v>
+      </c>
+      <c r="K80" t="s">
+        <v>588</v>
+      </c>
+      <c r="L80" t="s">
+        <v>691</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>692</v>
+      </c>
+      <c r="O80" t="s">
+        <v>88</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>693</v>
+      </c>
+      <c r="X80" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>696</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>697</v>
+      </c>
+      <c r="J81" t="s">
+        <v>698</v>
+      </c>
+      <c r="K81" t="s">
+        <v>699</v>
+      </c>
+      <c r="L81" t="s">
+        <v>700</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>701</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>702</v>
+      </c>
+      <c r="X81" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>705</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>706</v>
+      </c>
+      <c r="J82" t="s">
+        <v>707</v>
+      </c>
+      <c r="K82" t="s">
+        <v>708</v>
+      </c>
+      <c r="L82" t="s">
+        <v>709</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>710</v>
+      </c>
+      <c r="O82" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>711</v>
+      </c>
+      <c r="X82" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>714</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>715</v>
+      </c>
+      <c r="J83" t="s">
+        <v>716</v>
+      </c>
+      <c r="K83" t="s">
+        <v>717</v>
+      </c>
+      <c r="L83" t="s">
+        <v>718</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>701</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>719</v>
+      </c>
+      <c r="X83" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>722</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>723</v>
+      </c>
+      <c r="J84" t="s">
+        <v>724</v>
+      </c>
+      <c r="K84" t="s">
+        <v>725</v>
+      </c>
+      <c r="L84" t="s">
+        <v>726</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>727</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>728</v>
+      </c>
+      <c r="X84" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>731</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>732</v>
+      </c>
+      <c r="J85" t="s">
+        <v>733</v>
+      </c>
+      <c r="K85" t="s">
+        <v>734</v>
+      </c>
+      <c r="L85" t="s">
+        <v>735</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>736</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>737</v>
+      </c>
+      <c r="J86" t="s">
+        <v>738</v>
+      </c>
+      <c r="K86" t="s">
+        <v>739</v>
+      </c>
+      <c r="L86" t="s">
+        <v>740</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>741</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>742</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>743</v>
+      </c>
+      <c r="J87" t="s">
+        <v>744</v>
+      </c>
+      <c r="K87" t="s">
+        <v>745</v>
+      </c>
+      <c r="L87" t="s">
+        <v>746</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>747</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>748</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>749</v>
+      </c>
+      <c r="J88" t="s">
+        <v>750</v>
+      </c>
+      <c r="K88" t="s">
+        <v>751</v>
+      </c>
+      <c r="L88" t="s">
+        <v>752</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>747</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>753</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>754</v>
+      </c>
+      <c r="J89" t="s">
+        <v>755</v>
+      </c>
+      <c r="K89" t="s">
+        <v>756</v>
+      </c>
+      <c r="L89" t="s">
+        <v>757</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>758</v>
+      </c>
+      <c r="O89" t="s">
+        <v>97</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>759</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>760</v>
+      </c>
+      <c r="J90" t="s">
+        <v>761</v>
+      </c>
+      <c r="K90" t="s">
+        <v>762</v>
+      </c>
+      <c r="L90" t="s">
+        <v>763</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>764</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>765</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>766</v>
+      </c>
+      <c r="J91" t="s">
+        <v>767</v>
+      </c>
+      <c r="K91" t="s">
+        <v>768</v>
+      </c>
+      <c r="L91" t="s">
+        <v>769</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>770</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>771</v>
+      </c>
+      <c r="X91" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>774</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>775</v>
+      </c>
+      <c r="J92" t="s">
+        <v>776</v>
+      </c>
+      <c r="K92" t="s">
+        <v>777</v>
+      </c>
+      <c r="L92" t="s">
+        <v>778</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>779</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>780</v>
+      </c>
+      <c r="X92" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>783</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>784</v>
+      </c>
+      <c r="J93" t="s">
+        <v>785</v>
+      </c>
+      <c r="K93" t="s">
+        <v>786</v>
+      </c>
+      <c r="L93" t="s">
+        <v>787</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>788</v>
+      </c>
+      <c r="O93" t="s">
+        <v>97</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>789</v>
+      </c>
+      <c r="X93" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>792</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>793</v>
+      </c>
+      <c r="J94" t="s">
+        <v>794</v>
+      </c>
+      <c r="K94" t="s">
+        <v>795</v>
+      </c>
+      <c r="L94" t="s">
+        <v>796</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>789</v>
+      </c>
+      <c r="X94" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>798</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>799</v>
+      </c>
+      <c r="J95" t="s">
+        <v>800</v>
+      </c>
+      <c r="K95" t="s">
+        <v>801</v>
+      </c>
+      <c r="L95" t="s">
+        <v>802</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>803</v>
+      </c>
+      <c r="O95" t="s">
+        <v>97</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>804</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>805</v>
+      </c>
+      <c r="J96" t="s">
+        <v>806</v>
+      </c>
+      <c r="K96" t="s">
+        <v>807</v>
+      </c>
+      <c r="L96" t="s">
+        <v>808</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>809</v>
+      </c>
+      <c r="O96" t="s">
+        <v>97</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>810</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>811</v>
+      </c>
+      <c r="J97" t="s">
+        <v>812</v>
+      </c>
+      <c r="K97" t="s">
+        <v>813</v>
+      </c>
+      <c r="L97" t="s">
+        <v>814</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>815</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>816</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>817</v>
+      </c>
+      <c r="J98" t="s">
+        <v>818</v>
+      </c>
+      <c r="K98" t="s">
+        <v>819</v>
+      </c>
+      <c r="L98" t="s">
+        <v>820</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>821</v>
+      </c>
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>822</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>823</v>
+      </c>
+      <c r="J99" t="s">
+        <v>824</v>
+      </c>
+      <c r="K99" t="s">
+        <v>825</v>
+      </c>
+      <c r="L99" t="s">
+        <v>826</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>827</v>
+      </c>
+      <c r="O99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>828</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>829</v>
+      </c>
+      <c r="J100" t="s">
+        <v>830</v>
+      </c>
+      <c r="K100" t="s">
+        <v>831</v>
+      </c>
+      <c r="L100" t="s">
+        <v>832</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>834</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>835</v>
+      </c>
+      <c r="J101" t="s">
+        <v>836</v>
+      </c>
+      <c r="K101" t="s">
+        <v>565</v>
+      </c>
+      <c r="L101" t="s">
+        <v>837</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>838</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>839</v>
+      </c>
+      <c r="J102" t="s">
+        <v>840</v>
+      </c>
+      <c r="K102" t="s">
+        <v>841</v>
+      </c>
+      <c r="L102" t="s">
+        <v>842</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>843</v>
+      </c>
+      <c r="O102" t="s">
+        <v>289</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>844</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>845</v>
+      </c>
+      <c r="J103" t="s">
+        <v>840</v>
+      </c>
+      <c r="K103" t="s">
+        <v>846</v>
+      </c>
+      <c r="L103" t="s">
+        <v>847</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>843</v>
+      </c>
+      <c r="O103" t="s">
+        <v>71</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>849</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>850</v>
+      </c>
+      <c r="J104" t="s">
+        <v>851</v>
+      </c>
+      <c r="K104" t="s">
+        <v>852</v>
+      </c>
+      <c r="L104" t="s">
+        <v>853</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>854</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>855</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>856</v>
+      </c>
+      <c r="J105" t="s">
+        <v>857</v>
+      </c>
+      <c r="K105" t="s">
+        <v>858</v>
+      </c>
+      <c r="L105" t="s">
+        <v>859</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>861</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>862</v>
+      </c>
+      <c r="J106" t="s">
+        <v>863</v>
+      </c>
+      <c r="K106" t="s">
+        <v>864</v>
+      </c>
+      <c r="L106" t="s">
+        <v>865</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>867</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>868</v>
+      </c>
+      <c r="J107" t="s">
+        <v>869</v>
+      </c>
+      <c r="K107" t="s">
+        <v>870</v>
+      </c>
+      <c r="L107" t="s">
+        <v>871</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33268</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>872</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>873</v>
+      </c>
+      <c r="J108" t="s">
+        <v>874</v>
+      </c>
+      <c r="K108" t="s">
+        <v>875</v>
+      </c>
+      <c r="L108" t="s">
+        <v>876</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>876</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="983">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SeminarTrekker</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I was in the area for business and this property is a good value property for a short stay.For a longer stay, I have previously stayed at the property across the shared parking lot - Residence Inn.  Room was clean and bed was fine.  There a strong room freshener smell.  A breakfast was included in the rate but I just had coffee and some fresh fruit.  If I was looking for a short stay at a value price point then I was stay at this property again.More</t>
   </si>
   <si>
+    <t>EduardoS4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r555548312-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Excelent hotel located close to Six Flags MAgic Mountain park.God Breakfast and very contable beds .Clean and quiet , and plenty of good reataurant and shopping options around.I recommend this Marriot chain hotel in case you are looking to stay around Santa Clarita area. More</t>
   </si>
   <si>
+    <t>tbrown114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r554471815-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>When booking hotels, I do a bunch of research and out of all the hotels I researched, I liked what people had to say about the Fairfield Inn Santa Clarita.  I reserved our room about a month ago &amp; then a week prior to our arrival I upgraded our room.  I was a little hesitate, but the hotel reviewed my request &amp; gave us what I asked for including the bottom floor as requested.  Upon checking in, they front desk gentleman was extremely nice &amp; checked us in quickly with no problems.  Entering the room, I did my usual inspections &amp; could not find anything wrong with this room.  It was nicely decorated, extremely clean, plenty of towels (which were clean), clean linens on the bed, beds were comfy, plenty of parking &amp; I was completely comfortable &amp; felt safe knowing it was just my 13 year old son &amp; myself there.  There was a limited but hot breakfast in the morning.  Not fabulous but not bad either.  Plenty of options to eat around the hotels (most within walking distance).  Overall a great experience &amp; would definitely recommend to everyone &amp; stay here again myself next time in Cali.More</t>
   </si>
   <si>
+    <t>Lilli Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r552821917-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>The hotel is very clean!  The rooms were quite big and had enough space to stay for 4 adults and a small child.  The bathrooms were quite big! The room felt bright and warm! The rooms were also very clean!The staff is their prized possession!  All of the staff were friendly and accomodating to our requests such as late check out and a little extension for breakfast time.  The breakfast is basic and complete!   The housekeeping were always so warm and always greeting us no mater how tired they were!The location is also great! very near and convenient to a variety of restaurants and shopping!  everything is either a 5 minute walk away such as Mc Donalds, Ihop, Outback or a 5 minute drive away to more restaurants and shopping!  Loved the area!  Quiet and safe!  Would definitely stay here again and again!More</t>
   </si>
   <si>
+    <t>Joseph F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r546090845-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I needed a hotel where I could spend the night to break up my trip from the Merced to Hermosa Beach. The Fairfield Inn was perfectly located for that. Also, the rooms were nice and quiet, and there were numerous places to eat nearby. Also, the Marriott Senior Discount saved me quite a bit of money. I highly recommend staying here if you are a senior like me and need to take a break from driving.More</t>
   </si>
   <si>
+    <t>peg c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r545342750-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>This was a stop on our road trip. We booked last minute. We've had hit and misses when it came to road trip accommodations due to location, safety of the area, food options, etc. Fairfield Inn was packed with cars when we arrived. It felt safe. The rooms were clean and there were food options close by. We stayed long enough to get some rest and head back on the road but it was worth the money.More</t>
   </si>
   <si>
+    <t>Frank M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r531160044-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>When in Santa Clarita, hotels/motels can be very pricey, and it does take time to find a reasonable place to stay; here is where Fairfield Inn, by Marriott, provides a very clean, and comfortable place to stay, at a more reasonable price.  We saved about $72/night over a similar place only a short distance away.This place also provides a free breakfast, of reasonable quality.More</t>
   </si>
   <si>
+    <t>Michelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r525293417-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Unexpectedly stayed here and was pleasantly surprised. The rooms were clean and updated and the breakfast was great with lots of hot and cold options.  The staff were extremely friendly and accommodating. Convenient location just of expressway with restaurants and stores close by. More</t>
   </si>
   <si>
+    <t>theheatonfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r521248491-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>We had a great stop over at this Marriott property.  The rooms were very clean, quiet, comfortable and a nice welcome after a long day on the road.  We missed enjoying the pool and hot tub though.  A complete breakfast was available in the morning.  I would stay here again and recommend.  Note:  This is a great overnight spot if you are heading north and want to miss the LA traffic in the morning.More</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r503028583-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Last night of a long road trip, facing the traffic through Los Angeles. We stopped here and had such a good experience, it will be our spot to stop on future trips. Coming from Phoenix, we go through Los Angeles often. The front desk staff were so friendly and welcoming. The room was comfortable and quiet. You are off the highway in a pleasant area (great sushi restaurant an easy walk from hotel, along with other restaurants). The hotel breakfast has excellent variety, lots of fruit, along with hot and cold entrees.More</t>
   </si>
   <si>
+    <t>CyCh6768</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r493368299-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Everything at this hotel was great from check in to check out. Friendly staff, clean rooms, nice size rooms, comfortable beds, excellent breakfast, nice pool/hot tub area and it's easy to and from Six Flags Magic Mountain. Next time we're in town, this is where we'll be staying.More</t>
   </si>
   <si>
+    <t>Bill G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r490663719-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>Easy on and off the freeway location. Sparkling clean hotel, lobby, hallways, and rooms. The room air conditioner was quiet, allowing a good night's sleep. Comfortable bed.The included breakfast was very good with both scrambled eggs and a cheese omelette, with sausage patties. The manager of the breakfast came to each table to say good morning and see if we were happy with breakfast. Nice touch! We will stay here againMore</t>
   </si>
   <si>
+    <t>Pfam07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r475697022-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>We went here with friends for our 10 year wedding anniversary trip to Six Flags. We really enjoyed it! The staff was very polite and accommodating. I didn't really hear any noise from other guests. They have plenty of parking, and free breakfast! Some of the breakfast items weren't great like the sausage patties or eggs, but they had enough of a selection that it didn't bother me at all. We also loved that it was SO close to almost anything you'd need (restaurants, stores, etc.) and Six Flags!! We'd definitely stay here again. More</t>
   </si>
   <si>
+    <t>GuyWagon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r470730801-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>All excellent, staff, breakfast, room and bed. The staff went out of their way to explain everything and to make sure we were comfortable. I believe the highest rating you can give is "We will stay here again!"More</t>
   </si>
   <si>
+    <t>scoobysmom2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r468560327-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>We stayed for a few days while visiting family in the area. The front desk clerk who checked us in was very friendly. The room was large and clean and the hotel is close to a lot of restaurants and shopping. Everything we wanted to see and do was about 40 - 50 minutes from here in different directions so this made for a good home base for us each day. More</t>
   </si>
   <si>
+    <t>MrTraveller2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r453014024-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>The subject line says it all.  Good rates based on a quick search of hotels in the area with AAA discounts.  Breakfast is pretty good, I saw comments about the small area for breakfast but it was fine.  It does get a little crowded around 8:00 am when everyone decides to go down but other than that it was ok.The hotel is next to the interstate, with lots of stores nearby - Marshall's, Wal-mart, Old Navy, etc.  Also next to fast food places - In.out, taco bell, poolo loco, Carl's,,,If I had my preference I would ask for a ground floor room just because it's a shorter walk for breakfast and out the door.Room was clean and "average" sized, no complaints.  All in all good bang for the buck,More</t>
   </si>
   <si>
+    <t>Christianrf F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r452534769-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -609,6 +660,9 @@
     <t>Very pleasant place. Very good breakfast.Hot jacuzzi, if you have balls, in the winter!!!The only complain is that the in-room carpet was very very dirty, leaving my socks and my family's very dark.Employees are very friendly.Price is not good nor bad. Ok, I'd say.More</t>
   </si>
   <si>
+    <t>Dawn  G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r452388570-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Room was clean.  Beds were comfortable.  House keeping was awsome.  Rate was standard.  Continental breakfeast was fair and there was plenty to choose from.  Did not hear anyone above us or below.  Great access to interstate 5.  Plenty of restaurants and shopping close by.  If needed in the future would stay there again. More</t>
   </si>
   <si>
+    <t>Carla Julieta B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r442014603-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Pretty good stay.   Very comfortable for all.  Clean and spacious.   Serve free breakfast, everything pretty good.  A variety of stuff for breakfast.  Good way to save on meals.   Also has a fitness center and heated pool for this cold December nights.  More</t>
   </si>
   <si>
+    <t>Anne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r441649030-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>We've stayed here several times and appreciate the proximity to I-5. Rooms are clean. Management is helpful and responsive. This hotel can fill up fast, so be sure to reserve early for peak times. Hotel is near some nice restaurants and shopping areas.More</t>
   </si>
   <si>
+    <t>Captainspires</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r440638219-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>This hotel ( no suites unfortunately) is located minutes off of the freeway. It is a typical Marriott lower end hotel ideal for several nights stay. It has special rates for families of local universities and colleges, a good free breakfast and free wi-fi. The bed was comfortable and clean. There was plenty of parking.There is a heated swimming pool and exercise room across the parking lot in the Residence Inn ( not so convenient if it is chilly).We had several glitches which were not major. The tv was broken when we arrived ( they fixed it immediately) and the coffee pot broke the day after we got there. When we reported it, the person behind the front desk seemed very matter of fact and disinterested. The breakfast room could have been better designed as some of the items were crammed in the corner and crowded to get to. Otherwise for the price it is a real bargain and we would stay here again since it is very close to our daughter's school.More</t>
   </si>
   <si>
+    <t>Twinmommy2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r394909468-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>This is the third time we have stayed at this hotel in the last year. It's an affordable hotel for Los Angeles and right off the I-5. Aesthetically it's like most other Fairfield's. The rooms are spacious enough and the breakfast is good. My only complaint is the size of the breakfast area. It's pretty small and if you hit it during peak hours in the morning then it's really hard to maneuver around the many people and the lack of tables.  My advice is to get to the breakfast area really early when it is least busy. But the staff are great and there are plenty of restaurants near by, most importantly In n Out Burger!We will definitely stay here again when in LA. More</t>
   </si>
   <si>
+    <t>Moonmel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r390858221-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -747,6 +816,9 @@
     <t>The rooms were very clean and somewhat spacious. It had a separate sink area outside the shower/toilet area which makes it easier for everyone getting ready in the morning. Large refrigerator. The breakfast was good: coffee, oatmeal, waffles, eggs, sausage, ham, and pastries. We stayed here on our way to Magic Mountain. I will say we entered the new GPS as recommended in the email sent to us and we still had trouble finding it. You may want to call the hotel directly since the address given by the reservation system is incorrect. We would stay here again...now that we know where it's located. The man at the front desk was very chatty and helpful.More</t>
   </si>
   <si>
+    <t>Tang2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r390030920-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -771,6 +843,9 @@
     <t>We were on a road trip, driving from SFO through Monterey - it feels good to finally 'land' at Fairfield Inn Santa Clarita Valencia.The environment, the front desk, the hotel setting, the chambermaids and the parking.....they all made us feel so at home.I like the little drinks corner that the hotel sets up for their guests.  We can have drinking water, hot beverages 24hrs.  This is 1 hotel that other hotels should be talking about!The staff were great!  Even the pesticide terminator is so cheerful!  Though it was hottest of all the cities we visited, the people at the hotel made a great difference and it is the coolest place to be!I highly recommend this property especially for family.  It is family friendly.Stayed from Jun 20 - 23, 2016 (Singapore)More</t>
   </si>
   <si>
+    <t>gyvette59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r381128139-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -798,6 +873,9 @@
     <t>The hotel is located right off Interstate 5, and is close to stores, restaurants, and Magic Mountain.  The hotel was clean, and there was a good breakfast selection. The customer service was good, and I would stay there again if I am in the area.More</t>
   </si>
   <si>
+    <t>gravel11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r380061574-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>I stay here often for business. The staff is great - very accomodating and can anticipate my needs.Rooms: I would recommend getting any of the corner rooms as the main source of noise is your neighbors, and the corner rooms (end of the corridor) have only a single neighbor and are less noisy. Easy access to the stairs as well.Food: Right next door is Hamburger Hill - the largest collection of hamburger joints I have ever seen. If fast food is your things - it is a short walk away.The real gem is the Kinza Sushi restaurant - great sushi for reasonable prices. A short walk towards the Outback steakhouse.More</t>
   </si>
   <si>
+    <t>Gramsof10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r379379010-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>Our experience was very good.  Great customer service during check in and check out, our room was very clean and quiet.  The breakfast was your normal hotel breakfast but everything was clean and food was hot. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>kb2923</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r367623981-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As...This was our first stay at a Fairfield Inn. We usually stay at B&amp;Bs or 4Star type hotels but the Fairfield was more economical in this area and we were only spending one night. The reviews on quality of service won us over. Our room was exceptionally clean and comfortable. The mattress was high quality. Customer service met the high standards mentioned in other reviews. The manager who checked us in made sure that we knew a second manager was coming on duty, gave us his name and indicated that he would make sure everything met our expectations. The first room they gave us was next to a building exit door that was somewhat loud as it closed and a lady happened to use the ice machine across from our room as I entered. The ice machine was also very loud. We went back to the front desk and inquired about another room. The manager was very solicitous, asked about various preferences and gave us a room at the end of an upper floor with only one adjacent room. We had a very peaceful night. As we left for dinner, the second manager greeted us, apologized for not seeing us sooner (it had only been 10-15 minutes) and asked how our room was and if we needed anything else. A breakfast buffet was available in the morning but our plans were for breakfast with family. Our stay was perfect. As we left the hotel I did note that we could hear conversations in rooms as we passed by them so it may be worthwhile requesting a room in a quiet location.More</t>
   </si>
   <si>
+    <t>MattiasLund</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r364607841-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -897,6 +984,9 @@
     <t>Clean and fresh. Very nice outdoor pool area. Plenty of parking lots. Coin laundry exists. Good free breakfast and nice breakfast room.A little bit expensive, but you get what you pay for.A few fast food restaurants within walking distance.Wifi was OK.More</t>
   </si>
   <si>
+    <t>Willie_Lovitt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r358604762-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -921,6 +1011,9 @@
     <t>Stayed here for 2 nights while we hit Six Flags. Room was clean and comfortable. Windows were a little thin and could hear talking outside and noise from pool but want too big of a deal. Cool air from outside seemed to be seeping in as well. I would avoid the pool side if possible if the weather is hot. Breakfast was very good for a free breakfast with lots of hot choices. Hotel is in a great location with lots of restaurants nearby. Staff were very friendly and acknowledged me as a rewards member with water and snacks. I would stay here again.More</t>
   </si>
   <si>
+    <t>ss-hao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r340057177-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -948,6 +1041,9 @@
     <t>Stayed here for a night so we could visit 6 flags magic mountain. The hotel was really nice and the staff were friendly. Rooms were well furnished and very clean. Marriot has continued to give great hotels stays at affordable prices (~$30 per pax for a room of 4). Location is also very near 6 flags so it made things even better for us. Would definitely recommend staying More</t>
   </si>
   <si>
+    <t>LovinMaui_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r335991131-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -969,6 +1065,9 @@
     <t>My husband and I have stayed here often when in Santa Clarita visiting family. It's close to the freeway and many restaurants and shopping if needed. The breakfast is great for a quick bite before getting on the road. Staff is always very friendly and accommodating. My only critical comments: the bed is to firm. Usually Marriott beds are better. Second, I don't like that dogs are allowed. I'm not talking about a seeing eye dog. There were dogs being walked through the lobby (one tied up while the owner went and got breakfast. The young man at the front desk did tell her she had to move on). I'd like to know of dogs are always in the same rooms? Or are they allowed in any room? Our gold status got us free wifi.More</t>
   </si>
   <si>
+    <t>JC1064</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r335321316-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -993,6 +1092,9 @@
     <t>we stayed here when travelling through California - we asked for a low floor and rooms close to each other - and got exactly that - the rooms were spotlessly clean and well equipped. Staff we lovely and friendly. Lots of restaurants close by for dinner. Breakfast area was busy but there was plenty of choice both hot and cold items. Over all a great stay and I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Tom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r330739558-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1017,6 +1119,9 @@
     <t>Have stopped here many times over the years, but was pleasantly surprised to see the whole place has been upgraded since my last visit. From the automatic front door, to new rugs and furniture throughout. Not to forget the flat screen TVs and friendly greeting at the front desk that included chocolate chip cookies. The free hot breakfast is also a cut above what many other places offer. We didn't make use of the spa or pool, but enjoyed our quiet overnight stay. I recommend it to anyone traveling through the area.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r329691796-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1044,6 +1149,9 @@
     <t>Third time selecting a new hotel for annual family Thanksgiving visit to Santa  Clarita and we were extraordinarily pleased.  Checking in was a breeze (thanks Tom!), room was VERY clean, and breakfast was ample for almost any kind of eater.  Did I say the toom was VERY clean?  There were even freshly baked cookies in the afternoon!  Everything in the room was in fabulous condition and we were just very happy overall.  (Couple of suggestions ... with rooms on first floor it would be nice to have a heavier sheer so drapes could be pulled for daylight but there would more privacy.  Stronger steam vent in bathroom.?  Loved our stay!More</t>
   </si>
   <si>
+    <t>Magnolia1385</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r322802165-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1071,6 +1179,9 @@
     <t>As usual, I was not disappointed by anything during my stay at this Marriott property. I had not stayed at this particular hotel before but did so because Fairfield Inns are consistently very good. From my arrival to my departure, everything was perfect. The staff were polite, cheerful and quick at check-in and check-out. The hotel was very clean, pleasantly decorated and bright.  My room was immaculate, comfortable, well appointed  and quiet.  The breakfast buffet was good as expected and allowed me to start off my day with sufficient protein.  I definitely recommend that you stay at this hotel.More</t>
   </si>
   <si>
+    <t>TwinTourists</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r315684707-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1098,6 +1209,9 @@
     <t>Stayed here for one night and it was perfect. Big room and very clean and comfortable.  Good selection of tv stations. A nice breakfast is included with the room including scrambled eggs, sausage patties or turkey Canadian bacon, bagels, bread, muffins, make-your-own waffles, hot oatmeal, little boxes of dried cereal, fruit, yogurt, coffee and cocoa.The hotel is located a short drive away from malls and restaurants, although there are some restaurants nearby.  There is also a nice swimming pool on the property and plenty of free parking, which is a great plus. Magic Mountain is nearby.We wouldn’t hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>Barry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r306260896-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1116,6 +1230,9 @@
     <t>Room,staff,place to park,pet friendly, breakfast, close to freeway and other stores. In rooms you hear nothing Front desk was great, check in 40 seconds Internet was fast.Just what you would want and cosy was very good. More</t>
   </si>
   <si>
+    <t>Harvey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r302973689-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1134,6 +1251,9 @@
     <t>We stayed at this hotel on short notice. The hotel was clean and comfortable. It would have been perfect for a longer stay, but we only had 1 night. Looking for a good dinner after a 5 hr drive, Steve, the front desk person, printed out the directions to the cemetery and  made a recommendation that was wonderful, not expensive, and it had a ton of atmosphere. He was so helpful in a time of stress. Breakfast was good. Above the standard fair for a hotel I would recommend this hotel as a great place to stay and it's very near Six Flags for vacationers. More</t>
   </si>
   <si>
+    <t>fj787</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r285684645-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1161,6 +1281,9 @@
     <t>After a long days drive from San Francisco it was so nice to find a such a comfortable, well appointed and clean hotel room in which to break our journey and all at a reasonable price. The coin operated laundry was most handy also and breakfast supplied plentiful and a good start to the day.More</t>
   </si>
   <si>
+    <t>Ski W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r282489893-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1185,6 +1308,9 @@
     <t>After a long traveling day, checked out the room cleanliness, features, etc.  The room was clean, thermostat was not working but the air conditioner could be manually adjusted. Settled in to watch several of the TV programs we were TVOing at home to discovered that most of the channels would pixel out, and drop dialog.  Called front desk, maintenance man came, said he would contact Direct and bring us a new TV if they said there was no problem.  Maintenance man did not return, nothing changed.  Bill not adjusted.  I would not recommend this place as a result. Hotel should stand by their product or lack thereof. Don't get a room on the backside, as traffic noise can be bad.More</t>
   </si>
   <si>
+    <t>Jeff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r278630115-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1209,6 +1335,9 @@
     <t>We were provided a good greeting when we arrived at the hotel. We were provided with complementary bottled waters and pretzels because of being a Marriott rewards member. The front desk staff even told us who would be replacing her after her shift and who would be the overnight staff as well.   The room was set up very nicely, was clean, and they had extra towels in the room as requested when we booked the room. Our only issues were the tub was very slippery and since we were above the continental breakfast area, we smelled the food being prepared in our room at wake up time. When we informed the front desk staff about the slippery showers, they notified the needed maintenance crew right away. They rectified the issue with the tubs with us as well. Over all, it was a very good hotel.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r266620614-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1230,6 +1359,9 @@
     <t>Friendly staff and a clean room were a major plus.  Pool is an outdoor pool.  Standard wifi is adequate but not blazing fast.  Breakfast included typical Fairfield Inn fare such as reconstituted eggs, sausage, cereal, oatmeal, yogurt, waffles, fruit, and muffins.  Our room included a microwave and a small fridge. Desk and counter space were very good, with the desk tucking under a counter but having wheels so you could pull it out for more space and to angle it however you wish.  Room overall was a tad smaller than average, but adequate (no sofa, but there is a small arm chair tucked away between a wall and one of the beds).  There was no real "hang out space" for a larger group (for example, if you were traveling with a family of four, half of you will be sitting on a bed rather than a chair or sofa).  One issue is the thin walls.  We could always hear our upstairs neighbors walking around (loud walking, not just hints of someone walking). And we could hear the loud mumbling of conversations to our side.  Some hotels do better than others on the insulation, and this one seems to have built on the cheaper side of soundproofing.  Still, this hotel is a good choice if you can get a deal.More</t>
   </si>
   <si>
+    <t>AKD725</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r264981085-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1251,6 +1383,9 @@
     <t>We were really happy with our stay at Fairfield Inn.  The hotel was very clean and quiet.  Our room looked mostly modern and in great condition.  The breakfast was much better than most free hotel breakfasts, a great spread.  The beds were comfortable.  The pool and spa were perfectly heated.  We really only spoke with the staff member, Topher, who checked us in.  He was friendly and welcoming.  He gave us an excellent recommendation for dinner within walking distance.More</t>
   </si>
   <si>
+    <t>Happymomof3littles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r259852938-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1273,6 +1408,9 @@
   </si>
   <si>
     <t>The room was clean (most important).  The room had a microwave, mini-fridge and a coffee maker.  However, we were on the second level and the only ice machine (according to the informational papers provided) was on the first floor.   We came in late at night after a day at Magic Mountain and didn't feel like roaming in search of ice.  We were looking forward to plunging our aching feet into the Jacuzzi - but it was closed by 10:00 pm.  The rooms were small compared to comfort Inn Suites (next door) for same price which was equipped with 2 queen beds and a pull-out sofa bed.More</t>
+  </si>
+  <si>
+    <t>Paul S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r250046753-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1305,6 +1443,9 @@
 We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave,...My elder son and I were doing a weekend fishing trip up to Castaic Lake and decided to use this place to stop overnight. It's been several years since I was last at a Fairfield and I was really pleased with this location. I used the Marriott site to setup the reservation and was pleasantly surprised to receive an email from the day manager confirming my stay and asking if I had any questions. Since I was planning on calling to make sure we were expected for a late arrival, I emailed her back and received an immediate reply that my record had been updated with that note for the evening shift.We arrived at the hotel around 8:00 PM, earlier than I had estimated given Friday night traffic and were politely greeted by the front desk staff. He gave us the run down of the hotel and directions to the hotel amenities. The lobby decor looked recently updated as well.We had an end unit which was nice. The decor was significantly upgraded from my prior experience with Fairfields and it was obvious that they were tailoring it to business travelers as well as "medium" stay visitors - those who might be staying four to five days, for example. The beds and linens were comfortable and clean, turned down for us, and the room had a really nice workstation setup with a flat-screen TV on one end, a microwave, coffee maker, mini-refrigerator on the other and a laptop workstation area in the middle. The laptop area had a built in power bar with six plugs. Very thoughtful. Lighting was good and the bathroom was clean with appropriate amenities.Perhaps the only "con" is that the sound insulation was a little lacking. We could hear the other visitors in the one room we shared a common wall with with and, even though we were on the third floor, we could hear the guests in the pool area below. The folks at the pool were having a good time and politely left the pool around 9:30-9:45 PM. Likewise, walking down the hallway we could hear the other guests in the rooms as we passed. No one was being obnoxious or anything and there were no kids running up and down the hallways at odd-hours (there were children staying there), a good reflection on the parents. I could also hear the truck traffic from Highway Five, nearby. Nothing terrible, just obvious.The breakfast area is small - perhaps 15 tables - but the bar is well stocked with scrambled eggs, sausage patties, breads, cereals, fruit, juice, waffle maker, coffee, milk and yogurt. It was a perfect breakfast. As we got down there a bit late (8:30 AM), there were only a few other guests so no lines and we had a table to ourselves. We enjoyed the breakfast!The morning staff was pleasant and thanked us for the stay. Parking and access are easy. WiFi is free and faster than some of the "higher end" hotels I've stayed at. Additionally, I noticed that the connection strength was excellent and I didn't have any drops or low signal problems.I would definitely use this hotel again.More</t>
   </si>
   <si>
+    <t>radar60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r246894118-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1326,6 +1467,9 @@
     <t>Picked this hotel for its proximity to Magic Mountain. Since it was a last minute reservation for NY Eve we paid full price but we could have done a lot worse. Room was clean ,spacious and modern looking. Beds were ok and I didn't have complaints about service level or noise that other travelers have complained about. I would rate the continental breakfast as above average. Overall a very pleasant stay!!More</t>
   </si>
   <si>
+    <t>kmr1809</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r244783766-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1353,6 +1497,9 @@
     <t>Our experience of chain hotels in the US is that no matter how many times you stay there there's always a different person on the front desk and most of them don't acknowledge you in any way once you've checked in.  This place was different; the guy on the front desk was so friendly and seemed genuinely interested in having a conversation.  We asked for a quiet room on the top floor and that's what we got. After we came back from dinner he made a point of speaking to us and asking how it was.  These little things help make a difference.The hotel is clean and quiet, located near the freeway but not to close to be bothered by noise.  Breakfast is fairly standard for a Residence Inn.  We got a good deal on the price and were happy with our stay.More</t>
   </si>
   <si>
+    <t>JFTasmania</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r240094667-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1377,6 +1524,9 @@
     <t>We have been on a large road trip mostly staying in cheap motels. We booked into a motel in Palmdale, and quickly worked out this was not a safe part of town (a police officer stopped us and even after telling him we had paid, he suggested we move on for our own safety) So we moved down to Santa Clarita, closer to Magic mountain the next day. This place was a fair bit more expensive, but we ended up paying for two nights because it was such a great place. Excellent service, good breakfast, spa and swimming pool. Good location and Santa Clarita has excellent shopping and dining options. This place was an oasis to us and a nice way to wind down after 4000 miles of driving.Well done to the management and staffMore</t>
   </si>
   <si>
+    <t>Ryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r238345725-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1402,6 +1552,9 @@
   </si>
   <si>
     <t>My party and I arrived late Halloween evening as we were scheduled to perform at the CalArts college Halloween function. I was warmly greeted by John, a taller broad shouldered gentleman. He was friendly and observational of our situation and helped us into a room that would better accommodate what we needed as performers. The night ended up being terrible (the function we performed at), the best experience was staying here and having John assure us everything was going to be great. Good job John! Next time we perform there, which I hope is never, we will definitely be seeing you again!The only reason why there isn't five stars is because in the morning we requested towels and they did not come at any point. I found that odd but wasn't going to make a big deal, people get busy. We requested a luggage cart and that was promptly delivered and we were off on our way.More</t>
+  </si>
+  <si>
+    <t>Mark G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r236656157-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1430,6 +1583,9 @@
 The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its...I decided to stay at the Fairfield because it was the most reasonable and pretty good conditioned hotel. I was here for 2 nights, one night just to enjoy Valencia and the next to enjoy Fright Fest. It was 5 minutes away from Six Flags and I never had to get on the freeway to get to the park, it was one straight road there. When we arrived the front desk guy was great, he had excellent customer service and even offered to get use directions to the nearest movie theater because my boyfriend and I wanted to watch a scary film our first night in town.  The room was extremely clean and pretty up to date. The bed was comfortable and so were the pillows! Im big on comfort and the bed was definitely comfortable. Breakfast is complimentary and actually pretty good; saved me big time because I held me up for a long time and saved me an extra expense. The spa/whirlpool was nice and the pool was clean, they even let you use The Residence Inn's fitness center if you would like to work out, I used it and its not too bad..basic stuff.  MY ONLY COMPLAINT:The walls are extremely thin, upon our arrival we decided to lay in bed just to relax from the long drive....next door the most inconsiderate people decided to have the loudest most awkwardest sounding sex imaginable.Now I get it, its a hotel and things are private and people have the right to enjoy their rooms but at least be discrete to an extent. It was rude and inconsiderate of them, especially if there were families with kids around. It was so uncomfortable we had to leave the room and decided to use the spa. We let the front desk know and they kindly offered to move us and we agreed if our neighbors were still at it once we returned to our room. Luckily nothing more like this occurred the rest of the time we were there.More</t>
   </si>
   <si>
+    <t>theravenfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r232525879-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1454,6 +1610,9 @@
     <t>Don't bother looking anywhere else. Great hotel, super clean room, comfy beds/pillows, nice pool and hot tub, plenty of parking and free cookies at the front desk! We loved the hotel but especially loved John at the front desk. He was super friendly and seemed to really enjoy his job. He was so pleasant as my daughter and I entered and exited the building a few times. He made us smile. Give John a promotion...he deserves it!More</t>
   </si>
   <si>
+    <t>Retro_Raven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r221898661-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1481,6 +1640,9 @@
     <t>My family and I stayed at this hotel during our 3 day visit to Magic Mountain.  It was very clean and the service was excellent.  Every staff member we encountered was very friendly.  My kids were in love with the choices that were offered with the complimentary breakfast.  We enjoyed the pool and hot tub which was kept well stocked with towels and again was very clean.  I would recommend this hotel to anyone looking for a clean and family friendly environment.More</t>
   </si>
   <si>
+    <t>Teaqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r219799240-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1506,6 +1668,9 @@
   </si>
   <si>
     <t>We stayed at this hotel for one night as a halfway point between our home iand Newport Beach California. We also wanted to place close to the Ronald Reagan Library which we had scheduled the next day. My only complaint about this hotel is that we didn't get to stay here long enough! Seriously! As always in a Marriott the beds are very comfy. It was a very quiet hotel. The service was wonderful. Everyone was super friendly and very helpful.There is a cluster of three Marriott hotels in this location and I chose the Fairfield because it was the only one that had a free breakfast. And the breakfast was fantastic!In the room there was some very unique shelving which was very very nice for travelers. I actually took some pictures of things because I thought I might do that in a future remodel in my house.All in all a wonderful stay and I would definitely definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>Sixeye</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r216492126-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1536,6 +1701,9 @@
 The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did...We stayed here on a Saturday night. The TripAdvisor ratings were high and it seemed to fit our requirements and desires. We were visiting a family member in town and needed a place to stay overnight.As others have said, it's super convenient being right off the 5 Freeway. Also, there are gas stations, fast food, and restaurants galore very close by. The hotel was very clean and very comfortable. Our room was definitely top notch and we enjoyed staying here. Upon check in we were offered our choice of 1st or 2nd floor. I honestly don't remember ever being offered a choice of floors before so kudos to Fairfield for this! Going forward, I will always ask for my preference at every hotel I stay at. In this case, I chose 1st floor thinking it would be a little more convenient. And that it was. The downside was that this particular hotel didn't have the greatest of insulation between floors. About 6 pm or so, we started hearing a kid upstairs running around in the room above us. It brought back bad memories of a different hotel chain in a different city where there was a Little League tournament going on and there were several kids in the room above us that ran around all afternoon and night (until well past 11 pm) and then started up again at 5 am! In that one instance, the front desk did not get it stopped despite our numerous calls to complain. Fortunately, this time the running around was short lived and only a minor annoyance. However, I would recommend the 2nd floor to any future visitors. Also, I will say that the door to our room seems to have offered no sound insulation what-so-ever. We could hear every person walking down the hall and talking regardless of whether they were speaking loud or normally. This is semi-normal in hotels and I really don't know why. I don't want to hear that, especially late at night or early morning. Fortunately, this particular Saturday night/Sunday morning, there wasn't a lot of noise but enough to wake us up a time or two or three. Note to visitors at all hotels: keep your voices down in the hallways please. :)We had hoped to use the pool but it was a cloudy day and we had arrived after 4 pm so we skipped it. We did walk out there and have a look though. Several others were using it and said the water temp was decent once you got used to it. The pool area wasn't spectacular but it wasn't bad either. We would probably have enjoyed it had it been a nicer day.Parking was convenient and plentiful enough. And free. Most hotels have free parking but not all, as you and I know.As for the room itself, as mentioned before, it was super clean and super comfortable. Very spacious. We repeatedly mentioned to each other how nice it was. There was also a huge selection of pillows, something we appreciate because for whatever reason, we are picky about our pillows. There was a nice selection of fluffy and flat, firm and soft, etc. Pretty much something for everyone. The comforter on the beds were great! In fact, we went looking for something similar in the local Bed Bath and Beyond. :)The wi-fi was full strength in the room we had, a nice surprise because we often have experienced crummy wi-fi and crummy cell phone coverage in many hotels we have stayed in. Thank you Fairfield for getting wi-fi right, at least in our room.Bath towels were pretty rough. I wish they would have been softer. I think they dropped the ball here. Conversely, shampoo and conditioner were a name brand and one that gets respect on the retail shelves. Nicely done! Ooops though, they forgot to put soap near the shower. The first one in had no soap to use and had to use shampoo instead. And uh, there was only one soap bar so even if you were thoughtful enough to take the one from the bathroom into the shower, you had to remember to take it back to the sink afterward. Hopefully a one time error on the part of the cleaning people.The mini fridge in our room was especially useless. Upon arrival, it was room temp pretty much. No thermostat inside so we couldn't turn it down colder. I like to have a diet coke in the morning since I don't drink coffee. Even after being in there overnight, my coke was not all that cold. Mini fridge's aren't known for being efficient but these aren't doing anyone any favors. Next time, I will bring a Igloo Playmate or something like that. The free breakfast was indeed crowded Sunday morning. However, we did find a spot to park ourselves and even if we hadn't we would have taken our food back to our room. No big deal to us. We've all had the usual continental breakfast at hotels. It takes the edge off and tides us over until lunch. Right? I thought this one was a notch above the rest. Sure, there was the usual stuff but they also had scrambled eggs, waffles, sausage, and a few types of yogurt. No wonder it was crowded in the breakfast area! I applaud Fairfield on this nice breakfast provide with your room stay.!Obviously, I have given this place a 4 star review despite my few nitpicks. I do like to point out the little things in my TripAdvisor reviews because frankly, many of them can be corrected by the staff pretty easily. And for you folks reading the reviews, you get the whole picture. I do want to say that overall, we did like this hotel quite a bit and would stay here again without hesitating. I've tried to also point out the little things that I think they got right or where they exceeded expectations. Right next door is a Residence Inn by Marriott (Fairfield is owned by Marriott too) and I would expect similar experiences and pricing there. 4 stars by us for this visit!Again, we will not hesitate to stay here again in the future...More</t>
   </si>
   <si>
+    <t>Jarleen V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r214397317-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1560,6 +1728,9 @@
     <t>My family and I booked this hotel as a stop over to Hollywood on July 4th. We called and asked if it was possible to check-in at around 2am, and they said yes! The location of this hotel is perfect, it's literally right off the 5 and on a hill where you can see. You'll pass a Jack In The Box and it's next to a Residence Inn. We got there half an hour early and the guy at the front desk was really nice. He was extremely helpful too. My parents, 2 sisters, and I got a double queen room on the 3rd floor. The room was very nice, as well as the bathroom. The room had a lot of lights, coffee maker, fridge, and microwave! The bed was comfortable. Our only complaint of the room was that the AC or heater was not working at all and where that was, the carpet was wet (as if it was leaking or something).Breakfast was very good! Eggs, sausage patties, waffles, cereal, fruits, etc. :) I will definitely stop by again if I happen to be in the area!More</t>
   </si>
   <si>
+    <t>tly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r212707196-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1587,6 +1758,9 @@
     <t>Very clean, looks like rooms were very recently renovated.  Soft beds, clean, quiet, very friendly staff.  My only complaint was the free breakfast.  It was VERY crowded, no where to sit, the food bar was too close to the tables so you couldn't pass by people to get through without bumping into each other.  The food items were CONSTANTLY being depleted!  Everytime I went to get something, they'd be out of that item.  They only had one woman (who was very friendly, but overworked) trying to keep up with the mob of people taking food as fast as she could set it out. Maybe layout the breakfast area different with more space to walk around while you are getting your food AND hire another person to help keep the  items filled and mess-free!If it weren't for the breakfast, it would have received a 5 star stay for me!Oh, as far as location, there is a bunch of restaurants, right there, is only 4 or 5 miles away from Magic Mountain, and a walmart, grocery stores, more food places in that 4 mile surface street drive to Magic Mountain.More</t>
   </si>
   <si>
+    <t>photowil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r204130942-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1614,6 +1788,9 @@
     <t>All I want from a hotel is a safe quiet room that's clean and doesn't creep me out, and Fairfield delivered! Very restful and clean.Wish the guest in the next room hadn't been smoking in the stairwell though.More</t>
   </si>
   <si>
+    <t>Cyndee R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r201618272-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1641,6 +1818,9 @@
     <t>I worked a full day on Friday so travelled after work.  My husband and I needed to be at a family event by noon on Saturday. We got to the hotel around 11pm. Easy access of the freeway.  The clerk was friendly and had our reservation ready.  We got a higher floor facing the hotel parking instead of the street.  It was quite enough for us.  The beds are very comfortable.  Just stayed overnight but noticed there is construction in the lobby and dining area.  We had breakfast (included) at the hotel across the shared parking, excellent variety and good service.  We left before 9am and did not use any other services.More</t>
   </si>
   <si>
+    <t>Dan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r189873696-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1668,6 +1848,9 @@
     <t>We chose this hotel as a stop over on the way home from L.A-just one hour north and no traffic congestion.  The room we had looked brand new and I felt we were the first ones to stay in it.  There is serious ownership pride here that shows in the quality of the facility.  Our room had no road noise and no noise from the neighbor's rooms.  The bed was comfortable, the room fairly large, and it came with a coffee maker, micro, and refer.The breakfast was very good and had a good variety of scrambled eggs, sausage, waffles-with strawberries and whip cream, yogurt, rolls bagels, etc.  Staff was nice and efficient.More</t>
   </si>
   <si>
+    <t>Adam C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r186268633-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1695,6 +1878,9 @@
     <t>Driving overnight from Sacramento to Orange County on Thanksgiving eve my 2 year old son got car sick descending the Grapevine at about 12:45 AM. In a panic I pulled off at the first ramp and found myself at the Faifield Inn. John checked us in at a reduced rate of $104 for 2 queen beds, then took the time to gather supplies so I could clean out the back of my rental car and my kid's car seat. John was great and helped me make the best of a bad situation. Even called to the neighboring property to get a play pen for my son to sleep in. Room was on the main floor by the lobby but very quiet and well maintained. The breakfast bar was well stocked with fresh food and had attentive staff cleaning tables and keeping tabs on the food. Only knock on this place was that the mattress was pretty well worn but given the circumstances definetly not a big deal.More</t>
   </si>
   <si>
+    <t>Edward P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r182587682-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1722,6 +1908,9 @@
     <t>Very comfortable, quiet, easy access off I-5 with great service and friendly staff. Stayed both on a northbound trip to Norcal and then on the return trip to San Diego. Staff very helpful and do understand good service for us. Have stayed here several times before and service very consistent.More</t>
   </si>
   <si>
+    <t>Renee Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r181648053-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1746,6 +1935,9 @@
     <t>We stayed here for one night when we went to Six Flags. It's a very nice and clean hotel. The staff were very nice. The breakfast was also good! The only complaint I have is that the bed was uncomfortable. It was sagging and needs to be replaced.More</t>
   </si>
   <si>
+    <t>Thor G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r172458401-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1773,6 +1965,9 @@
     <t>We had an unexpected trip to Santa Clarita over the weekend and it seems, this is the only Marriott hotel in the area that is available for a last minute (same day) reservation.  This is my first time staying at a Fairfield Inn and was not expecting much.I was once again pleasantly surprised.   The facility itself is simply designed but pleasant and clean.  The hotel sits right next to Residence Inn, which was initially my first choice.  Staffs here are all friendly and accommodating.  Rooms are as expected of a Marriott brand – Clean, comfy beds and fully equipped room.  We had mini fridge and a mini microwave which is convenient.  My gold status preference was recognized and honored.  Although, we did not receive an upgrade, our room was a pretty good size.  It was also quiet.  No noise issue on this stay.  The complimentary breakfast was decent and with many choices.  The swimming pool and the Jacuzzi area was simply designed, average size and clean.This hotel is located by Stevenson Ranch, surrounded with lots of eateries – from fast food to a great sit down restaurant like the Kinza Japanese restaurant.  There are a lot of things to do around this area. So, I’d say, this hotel is conveniently situated. Our weekend stay here in Fairfield Inn was indeed a pleasant one, and I would not hesitate to stay here again if I’m in the area.More</t>
   </si>
   <si>
+    <t>56waldorf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r172065190-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1791,6 +1986,9 @@
     <t>We stayed in a few different Fairfield Inn properties this summer, and we were growing less and less impressed until we arrived at this one near Magic Mountain. It's nothing extravagant, but it's a clean hotel with a friendly staff that's also a fair value. The free breakfast is well organized, and the rooms are big enough where you don't feel like you're tripping over each other. The housekeeping staff started with the vacuum pretty early, which was a bit annoying, but otherwise everything was good. If you're looking for a quick stopover during your trip to Magic Mountain, you could certainly do worse than this property.More</t>
   </si>
   <si>
+    <t>Kenneth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r166865837-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1818,6 +2016,9 @@
     <t>Exceptionally clean establishment, well maintained and very friendly, service oriented staff. Clearly a well managed property. Convenient location off and on I-5 Freeway. Close by variety of restaurants.More</t>
   </si>
   <si>
+    <t>VAVBV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161830202-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1845,6 +2046,9 @@
     <t>We spent one night here on our way back to San Diego.  The Fairfield Inn is always consistent with their service.  This hotel is located in an excellent location just off I-5, near plenty of restaurants and shopping.  The room was a typical Fairfield Inn room.  However, the hallways are beginning to show wear and tear and need to be updated.  The breakfast was very good -- biscuits and gravy, sausage, eggs, fresh fruit, cereal, waffles and the regular items.  Even though the hotel sits right on the road, we did not hear any noise.More</t>
   </si>
   <si>
+    <t>Mary D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161507494-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1861,6 +2065,9 @@
   </si>
   <si>
     <t>Stayed one night.  Hotel staff was very polite and efficient.  There was a problem with the ventilation system in our room (fan wouldn't turn on) and we called the front desk.  They sent someone immediately who took care of the problem.  The room was comfortable.  Lots of pillows and a comfortable mattress.  Complimentary breakfast had many options, including hot food.  Ample parking.  Great location right off the freeway with shopping and many restaurant options nearby.  We didn't use it, but the pool looked very inviting and private.More</t>
+  </si>
+  <si>
+    <t>CA4Fun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r161452764-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1891,6 +2098,9 @@
 My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of...My husband is a Marriott Gold Rewards member and we have stayed at many Fairfield properties. I have to say, I was a little disappointed with this one.  The property is in need of renovation.  The furnishings are outdated  and the carpets in the hallways are lifting.  These are things I do not expect in a Marriott property.  The light sensor in the vanity area of bathroom was completely OBNOXIOUS. It would only stay on for a minute or so and then turn off even if you were standing right there doing your hair or brushing your teeth.  It became frustrating.  Also, we left for the evening and were gone for about 6 hours.  We like our room cold when we sleep.  Even though we had the AC set to 70 it was almost 78 degrees when we got back to our room and we could not get the AC unit to turn back on for almost 15 minutes after we got back.  We did actually call maintenance but by the time they came up, the AC had kicked in.  I believe this has something to do with another motion sensor in the room.  Going green is fine - but not when it becomes a pain to the hotel guest!My husband's profile clearly states top floor room away from elevator.  When we checked in, we were given a room on the second floor.  OK...they must be sold out of top floor rooms...no problem.  Until we take the elevator up, walk out and realize our room is directly in front of the elevator.  So back downstairs where they were able to assign us a room on the top floor away from the elevator.  I felt as if nothing in our profile was read.  Very disappointing.This hotel is  inexpensive (less than $100 per night and does include breakfast), close to Magic Mountain, and was only 30 minutes from Hollywood on a Monday evening around 4:30 pm.  It also provides easy access out of the LA area if you are heading north.  I do have to say that even with the hotel being so near the freeway, noise was not an issue and we all slept well during our trip.Overall, I had higher expectations for this property and left feeling disappointed and that it wasn't up to Marriott standards.More</t>
   </si>
   <si>
+    <t>GeneC79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r156651889-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1918,6 +2128,9 @@
     <t>I don't know about most other people but it drives me nuts when hotels/motels are cheap with the pillows.  Sure a comfy mattress is great but nothing without sufficient pillows.  Aside from that the room was very neat and cozy.  Room has a microwave and a mini fridge.  Free wi-fi.  If you are traveling with the intent on doing a little bit of business, they have nice desks with probably the best desk chairs I have seen in a hotel.  I was leary of the price but I needed something close to Magic Mountain for one night and the only cheap options not booked up were poorly rated so I went with these guys.  Definitely worth the money I think.More</t>
   </si>
   <si>
+    <t>Peg04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r155770112-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1945,6 +2158,9 @@
     <t>We were visiting family who live in the area and found the hotel really  convient to get to from the freeway. Lots of nearby restaurants too! Staff were friendly but not overly helpful when we tried to get intormation about a hotel in San Diego. Breakfast was good and appreciated. We also used the pool and hottub and they seemed to be well used by other guests. Overall a good experience, we will stay there again.More</t>
   </si>
   <si>
+    <t>Set2gogal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r155162443-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1969,6 +2185,9 @@
     <t>I have stayed at this hotel more than a dozen times over the last 2 years. It is my go to place for this area. The rooms are very nice and large. The breakfast is always the same, but good. They have been kind enough to let me check in early many times. It is convenient to so many restaurants and shopping, plus magic mountain.  The room price is a good value.  More</t>
   </si>
   <si>
+    <t>ArcFlashMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r149740482-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1996,6 +2215,9 @@
     <t>Stayed four nights for business in Van Nuys.  This hotel was a short, easy commute in the early morning and worth the drive to sleep in what I felt was a safer area.  The room was clean and quiet.  I left at 6 each morning so can't rate the breakfast.  I fully understand why breakfast doesn't start any earlier than that but was a little disappointed that coffee wasn't kept fresh during the off peak hours.The staff was friendly and the hotel is convenient to both fast food and casual sit down restaurants.  Would stay here again.More</t>
   </si>
   <si>
+    <t>hesaves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r149669064-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2014,6 +2236,9 @@
     <t>we just returned from a 2 night stay in Santa clarita and had a very pleasant stay at the Fairfield.The rooms were very large and well equipped.  The breakfast was a wonderful bonus...but get out there early as it gets very crowded. Great selection of breakfast choices.  The warm "ooey gooey" chocolate cookies were fabulous...as our entire family ate the whole batch alone!  My only complaint was few...one was that they had just installed a beauiful gas firepit out by the pool and the guy  at the desk didn't even know it was out there and was arguing with us about it. Upon calling maintenance, he was informed that they had installed one, but it wasn't completed yet to use, so we couldn't sit by the warm fire at the fairfield hotel, but across the way was another hotel that they are affiliated with, and they also got a new fire pit installed and they allowed us to go over and use that one. (Wonderful of them to make the accomadations for us).  Also, on the website, it showed a magitized mirror in the bathroom (which I was excited too see) because my eyesight isn't the best anymore and it really helps when applying my makeup, but they didn't have one in our room...booooohoooo!  But other than those  things, Our stay was wonderful...we would definately be back again when traveling thru town.More</t>
   </si>
   <si>
+    <t>Eaglator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r146328732-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2041,6 +2266,9 @@
     <t>We had reserved 4 rooms for us &amp; all our children and grandchildren on the way to a Mexican cruise from Los Angeles.  It was an excellent stop.  We had asked for two cribs, which were in the rooms when we arrived.  Check-in was extremely easy, and the rooms were very large &amp; clean.  The bathroom was also clean. They had fresh cookies in the lobby as well as fruit.  The desk person was friendly and helpful.  Breakfast was good with lots of choices for the kids.  Coffee and tea were available 24 hours.  We were able to play cards on the tables in the breakfast area.  We had looked for a reasonable hotel which was good for all the kids, and this Marriott definitely fit the bill.  It's also in a great location.  I would certainly recommend staying here.More</t>
   </si>
   <si>
+    <t>Bryan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r142481991-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2062,6 +2290,9 @@
     <t>I've stayed here for about five weeks over the past few months.  In that time, I've also stayed at the Courtyard in Pasadena and the Warner Marriott on Oxnard.Nothing against the Courtyard or the Warner Marriott - they are both great hotels; but for the value, this Fairfield is a great option.The staff is nice and helpful, free breakfast, free parking, much cheaper than LA hotels.Yes, there is a commute, but I'm accustom to an hour + commute, so this was nothing new for me.The Fairfield is not as nice as the other Marriott properties closer to the city, but again, if you're looking for a good cheaperMore</t>
   </si>
   <si>
+    <t>Roy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r140785676-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2086,6 +2317,9 @@
     <t>Nice Fairfield with large rooms. The bathroom is a bit tiny but not too small. Good staff and breakfast is very nice. This is a good spot if you are visiting Magic Mountain or need a place to spend the night driving the State.More</t>
   </si>
   <si>
+    <t>Brad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r137868764-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2104,6 +2338,9 @@
     <t>Got caught in traffic jam when the 405 at the Sepulveda Blvd. Exit was closed because of a jack knifed truck.  Hotel had rooms available.  Front desk was very helpful, little quick store in lobby was convenient and breakfast in the morning was everything I needed.More</t>
   </si>
   <si>
+    <t>Bboftx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r132730000-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2128,6 +2365,9 @@
     <t>I've stayed three different times.  It's always good.  Friendly reception, clean quiet rooms.  Good breakfast.  Public area walls and woodwork are getting to the point where cleaning and some fresh paint would help.  It's starting to get a bot shop worn.  I'd stay there again.More</t>
   </si>
   <si>
+    <t>piperann3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r129233066-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2155,6 +2395,9 @@
     <t>We had a dog and 3 cats, and this place was perfect, There is a small fenced in dog area and lots of grassy areas for dog walking. Our room was clean and comfy with a gorgeous mountain view. We were close to the outdoor pool but it was still pretty quiet. The staff was accommodating and friendly, the complimentary breakfast was very good - I especially liked the big pot of fresh hot oatmeal and all the fixin's for that.  Vegan if you bring your own soy milk, which you can because you have a mini-fridge and microwave in your room. Got online easily too. Very nice place. No restaurant but many nearby and a convenience store in walking distance if you want to buy cold beer, soda, and snacks.More</t>
   </si>
   <si>
+    <t>culturevulture94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r129127239-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2182,6 +2425,9 @@
     <t>This hotel offered a welcome respite after a long drive from Southern Oregon.  The price for seniors was quite reasonable--less than $100 while rooms in the L.A. basin would have cost well over that.  And the rooms were spacious and well appointed.  The desk staff was friendly and helpful and everything about the hotel was classy, even the breakfast.  I'd recommend it to anyone.More</t>
   </si>
   <si>
+    <t>Runningrock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r127780730-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2206,6 +2452,9 @@
     <t>We stayed here with our teenage kids because it is close to Magic Mountain. The hotel is about 5 minutes from Magic Mountain and is conveniently located right off the freeway with shops and restaurants within walking distance. I went for a run in the neighborhood, which is very nice and safe. The hotel is clean, comfortable and well-kept. It's a good value and includes a continental breakfast with a waffle-iron for making your own waffles.  The hotel also includes free parking.More</t>
   </si>
   <si>
+    <t>wb6jao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r123937506-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2233,6 +2482,9 @@
     <t>My wife and I stay at this hotel every time we visit our family in Porter Ranch (they have pets, we're allergic!).The hotel is clean, comfortable, and quiet.  It's one of the lowest priced hotels in it's class in the greater San Fernando Valley area.  It's also close to a bunch of restaurants and other activities.  They have a nice breakfast and Gym too.More</t>
   </si>
   <si>
+    <t>AngjosCalifornia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r122323908-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2248,6 +2500,9 @@
     <t>Older property but well kept and reasonably priced compared to other spots on the way to Pismo. No extra fees for parking and includes continental breakfast-waffle maker,pre-made bagel sandwiches,hard boiled eggs,cereals,yogurt,etc. The hotel is right off the freeway and shares the property with the Residence Inn and is surrounded by many of restaurants.</t>
   </si>
   <si>
+    <t>Ramblingwelove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r117662765-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2266,6 +2521,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>TRUTH777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r116589302-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2284,6 +2542,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>RIVERMAN63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r116165578-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2299,6 +2560,9 @@
     <t>After a day a Magic Mountain with 3 Grand  children - 2, 16 and 18 we needed a cool, clean, reliable place to rest our weary bones and this palce met the bill on every level.  From Alex, the man at the desk to the nice self serve breakfast the next morning.  Everything was tip top.  Quiet room, fun pool, laundry - that worked, courteous staff.  If you are looking for a nice hotel, near Six Flags, this is the place to saty.</t>
   </si>
   <si>
+    <t>Marsdencci</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r97040679-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2317,6 +2581,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>tianshi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r93560970-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2335,6 +2602,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>explorer1421</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r89042490-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2362,6 +2632,9 @@
     <t>This was the second time staying at this hotel. But this second time I found a total shift in customer service.  It's a nice clean hotel, but the manager was very rude, and unhelpful. She was the day manager. I even tried to email the general manager to let know of my concerns and I never received a response. So, as long as you don't have a problem or a need when staying at this hotel stay there.More</t>
   </si>
   <si>
+    <t>private1_90732</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r70407809-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2389,6 +2662,9 @@
     <t>Booked via the Marriott website and everything as stated on the website. Efficient and very helpful check in. Free parking. Free internet computer at foyer forboarding pass printing if needed. Room was clean and fully functional. Microwave and fridge in the room. Free breakfast was a bit disappointing in terms of choice but adequate for a quick bite. Check out also quic, efficient and accurate. No issues with this hotel. Reasonable value. A Whole Foods market is several blocks away at 24130 Valencia Boulevard if in need of organic natural food.More</t>
   </si>
   <si>
+    <t>1lanelover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r67215512-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2416,6 +2692,9 @@
     <t>We have stayed here 4 times over the past 3 years as our son was in grad school @ calarts which is very close by. We have always enjoyed our stays. It has been clean,comfy and  we feel a very good value. The breakfast is included and although has never changed over the 3 years has been good. The staff for the most part has been very friendly and good at their jobs.Our son has since graduated but we enjoyed our days here.More</t>
   </si>
   <si>
+    <t>Cybermama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r65019047-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2434,6 +2713,9 @@
     <t>We have stayed here several times over the past few years and the place is very nice.  As a Fairfield, it's not as plush as a Courtyard or a full service Marriott but this is a very nice place for the money.  We enjoy going to Magic Mountain and had planned to do that in the mornings and do other things in the afternoon/evening hours.  This Fairfield suits us to a T for that!  We can get into LA relatively easily and Magic Mountain is just down the road.  The area around this Fairfield has an Outback, Chuy's, In and Out Burger, Mc Donald's, and a sushi place all within easy walking distance.  Across the road is an El Pollo Loco and a Carl's Jr.  Closer to Magic Mountain there are Mimi's, Red Lobster, Macaroni Grill, and some other places.  If you're going to do the park, this is a nice reasonably priced place to stay.  And it has a free breakfast to boot!  (Not a great breakfast but a decent one.)More</t>
   </si>
   <si>
+    <t>ruckerm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r53678603-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2452,6 +2734,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>lovecancun234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r52318887-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2470,6 +2755,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>Brenda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r51863072-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2488,6 +2776,9 @@
     <t>November 2009</t>
   </si>
   <si>
+    <t>Rakaia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r36645338-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2506,6 +2797,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>nascarfan8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r35035821-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2524,6 +2818,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>cbadm0m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r18486585-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2542,6 +2839,9 @@
     <t>The property was very clean and the beds were comfortable. I took four teenagers for Magic Mountain.  This is the only hotel, in the area, that we found with a hook-up for their Xbox 360 in the room.  The front desk staff was always very friendly and helpful.  The boys enjoyed the continental breakfast and waffle station.  I enjoyed the laundry facilities for wet clothes after the waterpark.  The pool is not very big, but ok.  Will definitely return. If you plan on visiting in the summer, it is VERY hot. The location is near several restaraunts and fast food places.  The teenagers also enjoyed visiting the nearby Westfield shopping mall.More</t>
   </si>
   <si>
+    <t>COGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r12992712-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2554,6 +2854,9 @@
     <t>Stayed over the holidays. Nice stay, decent complimentary buffet. Very nice staff. Plenty of parking and lots of amenities close by (without being too noisy). Love the free wi-fi.I really liked the fact that they had minimal room service on Christmas Day and New Years Day so that staff members could spend time with their families.</t>
   </si>
   <si>
+    <t>Angelfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r10069354-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2572,6 +2875,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>Toobusy2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r10067409-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2587,6 +2893,9 @@
     <t>We stayed here Oct 29th which was a Saturday.The parking lot does not have a lot of spaces but we were able to find a spot each time we left and returned.  The checking was fast and friendly.   No issues there.  They had homemade cookies and coffee in the lobby.   They also had snack machines in the lobby which even included ice cream.Our room was comfy and clean.   We had plenty of lotion/shampoo/soap.  The beds were comfortable.  We thought the room was very quiet.Plenty of towels.  Shower was clean.  Very minimal water temp changes when other guests used their toilets or showers.  Our bill was under the door in the morning for fast checkout.The check in clerk had a smile every time we passed through the lobby.I have no complaints about this hotel and would not hesitate to stay again.The price was reasonable compared to other hotels in the area.More</t>
   </si>
   <si>
+    <t>Catlover4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r6612482-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2605,6 +2914,9 @@
     <t>January 2007</t>
   </si>
   <si>
+    <t>Dee-Akas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r6359409-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2623,6 +2935,9 @@
     <t>Great customer service in reservations (booked a group of 10 rooms): excellent communication, rates, &amp; follow up. Small hotel but it was all we needed. Pool was temporarily out of service but they offered us the use of the Residence Inn pool next door (same ownership); very nice. Linens are great, as their website states; but mattresses were boxy. Breakfast was perfect for our group; included some protein for our sports team, unlike most complimentary breakfasts. Very clean. Stayed 2 nights. Some freeway noise and construction trucks beeping; but all the hotels in this area are right by the freeway. A lot of restaurants &amp; tons of shopping nearby. Busy town on a Saturday night: there was a 45-60 minute wait at most restaurants we tried, except at Spumoni (20 minutes). Food &amp; service there was great! Would definitely stay at the Fairfield again.More</t>
   </si>
   <si>
+    <t>TZK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r5424827-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2654,6 +2969,9 @@
   </si>
   <si>
     <t>I have now stayed in 4 different hotels of approx the same cost while visiting my daughter in Santa Clarita.  This is definitely the nicest for the money.  The room was very recently redecorated; it looked like new carpet, new drapes, new bedspread, etc.  The room was well cleaned every day &amp; all the staff I met were very courteous.  The free continental breakfast was pretty good.  They even had little cups of waffle batter &amp; a waffle iron to make your own waffles.  I plan on staying here next time I'm in the area</t>
+  </si>
+  <si>
+    <t>VentureMan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d84688-r3335725-Fairfield_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -3173,43 +3491,47 @@
       <c r="A2" t="n">
         <v>33268</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>147336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3225,47 +3547,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33268</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>147337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -3282,56 +3608,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33268</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>147338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3347,56 +3677,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33268</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>147339</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3414,56 +3748,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33268</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>24200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3481,56 +3819,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33268</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>147340</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3548,56 +3890,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33268</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>16846</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
         <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3615,47 +3961,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33268</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -3672,56 +4022,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33268</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>147341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3737,56 +4091,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33268</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3802,56 +4160,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33268</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>147342</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3867,56 +4229,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33268</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>10306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3928,56 +4294,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33268</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>147343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3989,56 +4359,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33268</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>147344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4050,56 +4424,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33268</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>147345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4111,56 +4489,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33268</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>147346</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4178,56 +4560,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33268</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>147347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4239,56 +4625,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33268</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>147348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4300,56 +4690,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33268</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>147349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4361,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33268</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>26605</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4428,56 +4826,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33268</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>147350</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4495,56 +4897,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33268</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>147351</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4556,56 +4962,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33268</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>147352</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4623,56 +5033,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33268</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>147353</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4690,56 +5104,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33268</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>39239</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4751,56 +5169,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33268</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>147354</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
+        <v>288</v>
+      </c>
+      <c r="K27" t="s">
+        <v>289</v>
+      </c>
+      <c r="L27" t="s">
+        <v>290</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>262</v>
       </c>
-      <c r="K27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L27" t="s">
-        <v>264</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>239</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4818,56 +5240,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33268</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>147355</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4879,56 +5305,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33268</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>147356</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4944,56 +5374,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33268</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>30507</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5009,56 +5443,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="X30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Y30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33268</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>147357</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="J31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="K31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5070,56 +5508,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33268</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>147358</v>
+      </c>
+      <c r="C32" t="s">
+        <v>331</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="J32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="O32" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5131,56 +5573,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="X32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="Y32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33268</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>147359</v>
+      </c>
+      <c r="C33" t="s">
+        <v>341</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5198,50 +5644,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33268</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>90613</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5259,56 +5709,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="X34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33268</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>15878</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5326,56 +5780,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="X35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33268</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5387,56 +5845,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33268</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>147360</v>
+      </c>
+      <c r="C37" t="s">
+        <v>377</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5454,56 +5916,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="X37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="Y37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33268</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>147361</v>
+      </c>
+      <c r="C38" t="s">
+        <v>387</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5521,56 +5987,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="X38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Y38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33268</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>34929</v>
+      </c>
+      <c r="C39" t="s">
+        <v>397</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="L39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5582,47 +6052,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="X39" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33268</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>44365</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="J40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -5639,56 +6113,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="X40" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33268</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>147362</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5704,56 +6182,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="X41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="Y41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33268</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>147363</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="J42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="K42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="O42" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5771,47 +6253,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="X42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="Y42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33268</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>43579</v>
+      </c>
+      <c r="C43" t="s">
+        <v>430</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="J43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -5828,56 +6314,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33268</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5893,56 +6383,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33268</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>147364</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5958,56 +6452,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X45" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33268</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>147365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>455</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -6025,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33268</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>997</v>
+      </c>
+      <c r="C47" t="s">
+        <v>464</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="K47" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6092,56 +6594,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="X47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="Y47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33268</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>49721</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="J48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="K48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="L48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -6157,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="Y48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33268</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>147366</v>
+      </c>
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="J49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="L49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="O49" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6222,56 +6732,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="X49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33268</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>147367</v>
+      </c>
+      <c r="C50" t="s">
+        <v>491</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="O50" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6283,56 +6797,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="X50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33268</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>18778</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="O51" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6350,56 +6868,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="X51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33268</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C52" t="s">
+        <v>510</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="J52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="L52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="O52" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6417,56 +6939,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="X52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33268</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>147368</v>
+      </c>
+      <c r="C53" t="s">
+        <v>517</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="J53" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="K53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="L53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6478,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33268</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>147369</v>
+      </c>
+      <c r="C54" t="s">
+        <v>526</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="J54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="K54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="L54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6545,56 +7075,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="X54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33268</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>147370</v>
+      </c>
+      <c r="C55" t="s">
+        <v>536</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="J55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="K55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="L55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6612,56 +7146,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="X55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="Y55" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33268</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>147371</v>
+      </c>
+      <c r="C56" t="s">
+        <v>546</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="J56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="K56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="L56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6679,56 +7217,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33268</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>147372</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6744,56 +7286,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="X57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="Y57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33268</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>147373</v>
+      </c>
+      <c r="C58" t="s">
+        <v>564</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="J58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="K58" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="L58" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6815,56 +7361,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="X58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="Y58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33268</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>147374</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="J59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="O59" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6886,56 +7436,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="X59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="Y59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33268</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>147375</v>
+      </c>
+      <c r="C60" t="s">
+        <v>584</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="J60" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="K60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="L60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="O60" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6957,56 +7511,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="X60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="Y60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33268</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>3978</v>
+      </c>
+      <c r="C61" t="s">
+        <v>594</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="J61" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="K61" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="L61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="O61" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7028,56 +7586,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="X61" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="Y61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33268</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>11134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>604</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="J62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="K62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="L62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7099,56 +7661,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="X62" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="Y62" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33268</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C63" t="s">
+        <v>614</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="J63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="K63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="L63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="O63" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7170,56 +7736,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="X63" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="Y63" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33268</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>147376</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="J64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="K64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="L64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7241,56 +7811,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="X64" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="Y64" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33268</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>147377</v>
+      </c>
+      <c r="C65" t="s">
+        <v>633</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="J65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="K65" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="L65" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7312,56 +7886,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="X65" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="Y65" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33268</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>147378</v>
+      </c>
+      <c r="C66" t="s">
+        <v>643</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="J66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="K66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="L66" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7383,56 +7961,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="X66" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="Y66" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33268</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>31162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>650</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="J67" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="K67" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="L67" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7454,56 +8036,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="X67" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="Y67" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33268</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>147379</v>
+      </c>
+      <c r="C68" t="s">
+        <v>660</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="J68" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="K68" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="L68" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="O68" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7525,56 +8111,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="X68" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="Y68" t="s">
-        <v>602</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33268</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>3712</v>
+      </c>
+      <c r="C69" t="s">
+        <v>670</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="J69" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="K69" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="L69" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7596,56 +8186,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="X69" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="Y69" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33268</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>147380</v>
+      </c>
+      <c r="C70" t="s">
+        <v>677</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="J70" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="K70" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="L70" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7667,56 +8261,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="X70" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="Y70" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33268</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>147381</v>
+      </c>
+      <c r="C71" t="s">
+        <v>686</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="J71" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="K71" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="L71" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="O71" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7738,56 +8336,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="X71" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="Y71" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33268</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>147382</v>
+      </c>
+      <c r="C72" t="s">
+        <v>696</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="J72" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="K72" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="L72" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="O72" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7809,47 +8411,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="X72" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="Y72" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33268</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>147383</v>
+      </c>
+      <c r="C73" t="s">
+        <v>706</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="J73" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="K73" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="L73" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7876,56 +8482,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="X73" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="Y73" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33268</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>147384</v>
+      </c>
+      <c r="C74" t="s">
+        <v>715</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="J74" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="K74" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="L74" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7947,56 +8557,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="X74" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="Y74" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33268</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>147385</v>
+      </c>
+      <c r="C75" t="s">
+        <v>725</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="J75" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="K75" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="L75" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8018,56 +8632,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="X75" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
       <c r="Y75" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33268</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>147386</v>
+      </c>
+      <c r="C76" t="s">
+        <v>732</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="J76" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="K76" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="L76" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8089,56 +8707,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="X76" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="Y76" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33268</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>147387</v>
+      </c>
+      <c r="C77" t="s">
+        <v>742</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="J77" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="K77" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="L77" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8160,56 +8782,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="X77" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="Y77" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33268</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>147388</v>
+      </c>
+      <c r="C78" t="s">
+        <v>750</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="J78" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="K78" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="L78" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8231,47 +8857,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="X78" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="Y78" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33268</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>19025</v>
+      </c>
+      <c r="C79" t="s">
+        <v>759</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="J79" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
       <c r="K79" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
       <c r="L79" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -8298,56 +8928,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="X79" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="Y79" t="s">
-        <v>687</v>
+        <v>765</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33268</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>147389</v>
+      </c>
+      <c r="C80" t="s">
+        <v>766</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="J80" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="K80" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="L80" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="O80" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8369,56 +9003,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="X80" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
       <c r="Y80" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33268</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>147390</v>
+      </c>
+      <c r="C81" t="s">
+        <v>775</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
       <c r="J81" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="K81" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="L81" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
       <c r="O81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8440,56 +9078,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
       <c r="X81" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="Y81" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33268</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>147391</v>
+      </c>
+      <c r="C82" t="s">
+        <v>785</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>706</v>
+        <v>787</v>
       </c>
       <c r="J82" t="s">
-        <v>707</v>
+        <v>788</v>
       </c>
       <c r="K82" t="s">
-        <v>708</v>
+        <v>789</v>
       </c>
       <c r="L82" t="s">
-        <v>709</v>
+        <v>790</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="O82" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8511,56 +9153,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>711</v>
+        <v>792</v>
       </c>
       <c r="X82" t="s">
-        <v>712</v>
+        <v>793</v>
       </c>
       <c r="Y82" t="s">
-        <v>713</v>
+        <v>794</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33268</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>147392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>795</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>715</v>
+        <v>797</v>
       </c>
       <c r="J83" t="s">
-        <v>716</v>
+        <v>798</v>
       </c>
       <c r="K83" t="s">
-        <v>717</v>
+        <v>799</v>
       </c>
       <c r="L83" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8582,56 +9228,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
       <c r="X83" t="s">
-        <v>720</v>
+        <v>802</v>
       </c>
       <c r="Y83" t="s">
-        <v>721</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33268</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>147393</v>
+      </c>
+      <c r="C84" t="s">
+        <v>804</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>723</v>
+        <v>806</v>
       </c>
       <c r="J84" t="s">
-        <v>724</v>
+        <v>807</v>
       </c>
       <c r="K84" t="s">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="L84" t="s">
-        <v>726</v>
+        <v>809</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="O84" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8653,47 +9303,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
       <c r="X84" t="s">
-        <v>729</v>
+        <v>812</v>
       </c>
       <c r="Y84" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33268</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>814</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>731</v>
+        <v>815</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>732</v>
+        <v>816</v>
       </c>
       <c r="J85" t="s">
-        <v>733</v>
+        <v>817</v>
       </c>
       <c r="K85" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="L85" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8722,50 +9376,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33268</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>147394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>820</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>737</v>
+        <v>822</v>
       </c>
       <c r="J86" t="s">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="K86" t="s">
-        <v>739</v>
+        <v>824</v>
       </c>
       <c r="L86" t="s">
-        <v>740</v>
+        <v>825</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>741</v>
+        <v>826</v>
       </c>
       <c r="O86" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8785,50 +9443,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>740</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33268</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>147395</v>
+      </c>
+      <c r="C87" t="s">
+        <v>827</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
       <c r="J87" t="s">
-        <v>744</v>
+        <v>830</v>
       </c>
       <c r="K87" t="s">
-        <v>745</v>
+        <v>831</v>
       </c>
       <c r="L87" t="s">
-        <v>746</v>
+        <v>832</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8848,50 +9510,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>746</v>
+        <v>832</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33268</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>147396</v>
+      </c>
+      <c r="C88" t="s">
+        <v>834</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="J88" t="s">
-        <v>750</v>
+        <v>837</v>
       </c>
       <c r="K88" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="L88" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="O88" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8911,50 +9577,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33268</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>147397</v>
+      </c>
+      <c r="C89" t="s">
+        <v>840</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="J89" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="K89" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="L89" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="O89" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8978,50 +9648,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33268</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>147398</v>
+      </c>
+      <c r="C90" t="s">
+        <v>847</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="J90" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="K90" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="L90" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
       <c r="O90" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9045,50 +9719,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33268</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>133435</v>
+      </c>
+      <c r="C91" t="s">
+        <v>854</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="J91" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="K91" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="L91" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -9110,56 +9788,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="X91" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="Y91" t="s">
-        <v>773</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33268</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>118402</v>
+      </c>
+      <c r="C92" t="s">
+        <v>864</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="J92" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="K92" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="L92" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -9181,56 +9863,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="X92" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="Y92" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33268</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>147399</v>
+      </c>
+      <c r="C93" t="s">
+        <v>874</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="J93" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="K93" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
       <c r="L93" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="O93" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9252,47 +9938,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
       <c r="X93" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="Y93" t="s">
-        <v>791</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33268</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>147400</v>
+      </c>
+      <c r="C94" t="s">
+        <v>884</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
       <c r="J94" t="s">
-        <v>794</v>
+        <v>887</v>
       </c>
       <c r="K94" t="s">
-        <v>795</v>
+        <v>888</v>
       </c>
       <c r="L94" t="s">
-        <v>796</v>
+        <v>889</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -9319,56 +10009,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
       <c r="X94" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="Y94" t="s">
-        <v>797</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33268</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>147401</v>
+      </c>
+      <c r="C95" t="s">
+        <v>891</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="J95" t="s">
-        <v>800</v>
+        <v>894</v>
       </c>
       <c r="K95" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="L95" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>803</v>
+        <v>897</v>
       </c>
       <c r="O95" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9392,50 +10086,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33268</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>147402</v>
+      </c>
+      <c r="C96" t="s">
+        <v>898</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
       <c r="J96" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
       <c r="K96" t="s">
-        <v>807</v>
+        <v>902</v>
       </c>
       <c r="L96" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
       <c r="O96" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9459,50 +10157,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33268</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>3442</v>
+      </c>
+      <c r="C97" t="s">
+        <v>905</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="J97" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="K97" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="L97" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="O97" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9526,50 +10228,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33268</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>147403</v>
+      </c>
+      <c r="C98" t="s">
+        <v>912</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>817</v>
+        <v>914</v>
       </c>
       <c r="J98" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="K98" t="s">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="L98" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="O98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9593,50 +10299,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33268</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>147404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>919</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
       <c r="J99" t="s">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="K99" t="s">
-        <v>825</v>
+        <v>923</v>
       </c>
       <c r="L99" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>827</v>
+        <v>925</v>
       </c>
       <c r="O99" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9660,41 +10370,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33268</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>147405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>926</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>828</v>
+        <v>927</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="J100" t="s">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="K100" t="s">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="L100" t="s">
-        <v>832</v>
+        <v>931</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
@@ -9713,41 +10427,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33268</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>147406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>933</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>834</v>
+        <v>934</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="J101" t="s">
-        <v>836</v>
+        <v>936</v>
       </c>
       <c r="K101" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="L101" t="s">
-        <v>837</v>
+        <v>937</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
@@ -9766,50 +10484,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>837</v>
+        <v>937</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33268</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>147407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>938</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>838</v>
+        <v>939</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>839</v>
+        <v>940</v>
       </c>
       <c r="J102" t="s">
-        <v>840</v>
+        <v>941</v>
       </c>
       <c r="K102" t="s">
-        <v>841</v>
+        <v>942</v>
       </c>
       <c r="L102" t="s">
-        <v>842</v>
+        <v>943</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>843</v>
+        <v>944</v>
       </c>
       <c r="O102" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9833,50 +10555,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>842</v>
+        <v>943</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33268</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>147408</v>
+      </c>
+      <c r="C103" t="s">
+        <v>945</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="J103" t="s">
-        <v>840</v>
+        <v>941</v>
       </c>
       <c r="K103" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="L103" t="s">
-        <v>847</v>
+        <v>949</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>843</v>
+        <v>944</v>
       </c>
       <c r="O103" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9900,50 +10626,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>848</v>
+        <v>950</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33268</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>147409</v>
+      </c>
+      <c r="C104" t="s">
+        <v>951</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>849</v>
+        <v>952</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>850</v>
+        <v>953</v>
       </c>
       <c r="J104" t="s">
-        <v>851</v>
+        <v>954</v>
       </c>
       <c r="K104" t="s">
-        <v>852</v>
+        <v>955</v>
       </c>
       <c r="L104" t="s">
-        <v>853</v>
+        <v>956</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>854</v>
+        <v>957</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9967,41 +10697,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>853</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33268</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>147410</v>
+      </c>
+      <c r="C105" t="s">
+        <v>958</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>855</v>
+        <v>959</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>856</v>
+        <v>960</v>
       </c>
       <c r="J105" t="s">
-        <v>857</v>
+        <v>961</v>
       </c>
       <c r="K105" t="s">
-        <v>858</v>
+        <v>962</v>
       </c>
       <c r="L105" t="s">
-        <v>859</v>
+        <v>963</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -10030,41 +10764,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>860</v>
+        <v>964</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33268</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>147411</v>
+      </c>
+      <c r="C106" t="s">
+        <v>965</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>861</v>
+        <v>966</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="J106" t="s">
-        <v>863</v>
+        <v>968</v>
       </c>
       <c r="K106" t="s">
-        <v>864</v>
+        <v>969</v>
       </c>
       <c r="L106" t="s">
-        <v>865</v>
+        <v>970</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
@@ -10091,41 +10829,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>866</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33268</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>367</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>867</v>
+        <v>972</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>868</v>
+        <v>973</v>
       </c>
       <c r="J107" t="s">
-        <v>869</v>
+        <v>974</v>
       </c>
       <c r="K107" t="s">
-        <v>870</v>
+        <v>975</v>
       </c>
       <c r="L107" t="s">
-        <v>871</v>
+        <v>976</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -10144,41 +10886,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>871</v>
+        <v>976</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33268</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>147412</v>
+      </c>
+      <c r="C108" t="s">
+        <v>977</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>872</v>
+        <v>978</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>873</v>
+        <v>979</v>
       </c>
       <c r="J108" t="s">
-        <v>874</v>
+        <v>980</v>
       </c>
       <c r="K108" t="s">
-        <v>875</v>
+        <v>981</v>
       </c>
       <c r="L108" t="s">
-        <v>876</v>
+        <v>982</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
@@ -10205,7 +10951,7 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>876</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_286.xlsx
@@ -3492,7 +3492,7 @@
         <v>33268</v>
       </c>
       <c r="B2" t="n">
-        <v>147336</v>
+        <v>178713</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3561,7 +3561,7 @@
         <v>33268</v>
       </c>
       <c r="B3" t="n">
-        <v>147337</v>
+        <v>178714</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3622,7 +3622,7 @@
         <v>33268</v>
       </c>
       <c r="B4" t="n">
-        <v>147338</v>
+        <v>178715</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3691,7 +3691,7 @@
         <v>33268</v>
       </c>
       <c r="B5" t="n">
-        <v>147339</v>
+        <v>178716</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3833,7 +3833,7 @@
         <v>33268</v>
       </c>
       <c r="B7" t="n">
-        <v>147340</v>
+        <v>178717</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -4036,7 +4036,7 @@
         <v>33268</v>
       </c>
       <c r="B10" t="n">
-        <v>147341</v>
+        <v>178718</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -4174,7 +4174,7 @@
         <v>33268</v>
       </c>
       <c r="B12" t="n">
-        <v>147342</v>
+        <v>178719</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -4308,7 +4308,7 @@
         <v>33268</v>
       </c>
       <c r="B14" t="n">
-        <v>147343</v>
+        <v>178720</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -4373,7 +4373,7 @@
         <v>33268</v>
       </c>
       <c r="B15" t="n">
-        <v>147344</v>
+        <v>178721</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
@@ -4438,7 +4438,7 @@
         <v>33268</v>
       </c>
       <c r="B16" t="n">
-        <v>147345</v>
+        <v>178722</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -4503,7 +4503,7 @@
         <v>33268</v>
       </c>
       <c r="B17" t="n">
-        <v>147346</v>
+        <v>178723</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -4574,7 +4574,7 @@
         <v>33268</v>
       </c>
       <c r="B18" t="n">
-        <v>147347</v>
+        <v>178724</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -4639,7 +4639,7 @@
         <v>33268</v>
       </c>
       <c r="B19" t="n">
-        <v>147348</v>
+        <v>178725</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -4704,7 +4704,7 @@
         <v>33268</v>
       </c>
       <c r="B20" t="n">
-        <v>147349</v>
+        <v>178726</v>
       </c>
       <c r="C20" t="s">
         <v>220</v>
@@ -4840,7 +4840,7 @@
         <v>33268</v>
       </c>
       <c r="B22" t="n">
-        <v>147350</v>
+        <v>178727</v>
       </c>
       <c r="C22" t="s">
         <v>237</v>
@@ -4911,7 +4911,7 @@
         <v>33268</v>
       </c>
       <c r="B23" t="n">
-        <v>147351</v>
+        <v>178728</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -4976,7 +4976,7 @@
         <v>33268</v>
       </c>
       <c r="B24" t="n">
-        <v>147352</v>
+        <v>178729</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -5047,7 +5047,7 @@
         <v>33268</v>
       </c>
       <c r="B25" t="n">
-        <v>147353</v>
+        <v>178730</v>
       </c>
       <c r="C25" t="s">
         <v>266</v>
@@ -5183,7 +5183,7 @@
         <v>33268</v>
       </c>
       <c r="B27" t="n">
-        <v>147354</v>
+        <v>178731</v>
       </c>
       <c r="C27" t="s">
         <v>285</v>
@@ -5254,7 +5254,7 @@
         <v>33268</v>
       </c>
       <c r="B28" t="n">
-        <v>147355</v>
+        <v>178732</v>
       </c>
       <c r="C28" t="s">
         <v>292</v>
@@ -5319,7 +5319,7 @@
         <v>33268</v>
       </c>
       <c r="B29" t="n">
-        <v>147356</v>
+        <v>178733</v>
       </c>
       <c r="C29" t="s">
         <v>301</v>
@@ -5457,7 +5457,7 @@
         <v>33268</v>
       </c>
       <c r="B31" t="n">
-        <v>147357</v>
+        <v>178734</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
@@ -5522,7 +5522,7 @@
         <v>33268</v>
       </c>
       <c r="B32" t="n">
-        <v>147358</v>
+        <v>178735</v>
       </c>
       <c r="C32" t="s">
         <v>331</v>
@@ -5587,7 +5587,7 @@
         <v>33268</v>
       </c>
       <c r="B33" t="n">
-        <v>147359</v>
+        <v>178736</v>
       </c>
       <c r="C33" t="s">
         <v>341</v>
@@ -5859,7 +5859,7 @@
         <v>33268</v>
       </c>
       <c r="B37" t="n">
-        <v>147360</v>
+        <v>178737</v>
       </c>
       <c r="C37" t="s">
         <v>377</v>
@@ -5930,7 +5930,7 @@
         <v>33268</v>
       </c>
       <c r="B38" t="n">
-        <v>147361</v>
+        <v>178738</v>
       </c>
       <c r="C38" t="s">
         <v>387</v>
@@ -6127,7 +6127,7 @@
         <v>33268</v>
       </c>
       <c r="B41" t="n">
-        <v>147362</v>
+        <v>178739</v>
       </c>
       <c r="C41" t="s">
         <v>411</v>
@@ -6196,7 +6196,7 @@
         <v>33268</v>
       </c>
       <c r="B42" t="n">
-        <v>147363</v>
+        <v>178740</v>
       </c>
       <c r="C42" t="s">
         <v>421</v>
@@ -6397,7 +6397,7 @@
         <v>33268</v>
       </c>
       <c r="B45" t="n">
-        <v>147364</v>
+        <v>178741</v>
       </c>
       <c r="C45" t="s">
         <v>447</v>
@@ -6466,7 +6466,7 @@
         <v>33268</v>
       </c>
       <c r="B46" t="n">
-        <v>147365</v>
+        <v>178742</v>
       </c>
       <c r="C46" t="s">
         <v>455</v>
@@ -6677,7 +6677,7 @@
         <v>33268</v>
       </c>
       <c r="B49" t="n">
-        <v>147366</v>
+        <v>178743</v>
       </c>
       <c r="C49" t="s">
         <v>481</v>
@@ -6746,7 +6746,7 @@
         <v>33268</v>
       </c>
       <c r="B50" t="n">
-        <v>147367</v>
+        <v>178744</v>
       </c>
       <c r="C50" t="s">
         <v>491</v>
@@ -6953,7 +6953,7 @@
         <v>33268</v>
       </c>
       <c r="B53" t="n">
-        <v>147368</v>
+        <v>178745</v>
       </c>
       <c r="C53" t="s">
         <v>517</v>
@@ -7018,7 +7018,7 @@
         <v>33268</v>
       </c>
       <c r="B54" t="n">
-        <v>147369</v>
+        <v>178746</v>
       </c>
       <c r="C54" t="s">
         <v>526</v>
@@ -7089,7 +7089,7 @@
         <v>33268</v>
       </c>
       <c r="B55" t="n">
-        <v>147370</v>
+        <v>178747</v>
       </c>
       <c r="C55" t="s">
         <v>536</v>
@@ -7160,7 +7160,7 @@
         <v>33268</v>
       </c>
       <c r="B56" t="n">
-        <v>147371</v>
+        <v>178748</v>
       </c>
       <c r="C56" t="s">
         <v>546</v>
@@ -7231,7 +7231,7 @@
         <v>33268</v>
       </c>
       <c r="B57" t="n">
-        <v>147372</v>
+        <v>178749</v>
       </c>
       <c r="C57" t="s">
         <v>555</v>
@@ -7300,7 +7300,7 @@
         <v>33268</v>
       </c>
       <c r="B58" t="n">
-        <v>147373</v>
+        <v>178750</v>
       </c>
       <c r="C58" t="s">
         <v>564</v>
@@ -7375,7 +7375,7 @@
         <v>33268</v>
       </c>
       <c r="B59" t="n">
-        <v>147374</v>
+        <v>178751</v>
       </c>
       <c r="C59" t="s">
         <v>574</v>
@@ -7450,7 +7450,7 @@
         <v>33268</v>
       </c>
       <c r="B60" t="n">
-        <v>147375</v>
+        <v>178752</v>
       </c>
       <c r="C60" t="s">
         <v>584</v>
@@ -7750,7 +7750,7 @@
         <v>33268</v>
       </c>
       <c r="B64" t="n">
-        <v>147376</v>
+        <v>178753</v>
       </c>
       <c r="C64" t="s">
         <v>624</v>
@@ -7825,7 +7825,7 @@
         <v>33268</v>
       </c>
       <c r="B65" t="n">
-        <v>147377</v>
+        <v>178754</v>
       </c>
       <c r="C65" t="s">
         <v>633</v>
@@ -7900,7 +7900,7 @@
         <v>33268</v>
       </c>
       <c r="B66" t="n">
-        <v>147378</v>
+        <v>178755</v>
       </c>
       <c r="C66" t="s">
         <v>643</v>
@@ -8050,7 +8050,7 @@
         <v>33268</v>
       </c>
       <c r="B68" t="n">
-        <v>147379</v>
+        <v>178756</v>
       </c>
       <c r="C68" t="s">
         <v>660</v>
@@ -8200,7 +8200,7 @@
         <v>33268</v>
       </c>
       <c r="B70" t="n">
-        <v>147380</v>
+        <v>178757</v>
       </c>
       <c r="C70" t="s">
         <v>677</v>
@@ -8275,7 +8275,7 @@
         <v>33268</v>
       </c>
       <c r="B71" t="n">
-        <v>147381</v>
+        <v>178758</v>
       </c>
       <c r="C71" t="s">
         <v>686</v>
@@ -8350,7 +8350,7 @@
         <v>33268</v>
       </c>
       <c r="B72" t="n">
-        <v>147382</v>
+        <v>178759</v>
       </c>
       <c r="C72" t="s">
         <v>696</v>
@@ -8425,7 +8425,7 @@
         <v>33268</v>
       </c>
       <c r="B73" t="n">
-        <v>147383</v>
+        <v>178760</v>
       </c>
       <c r="C73" t="s">
         <v>706</v>
@@ -8496,7 +8496,7 @@
         <v>33268</v>
       </c>
       <c r="B74" t="n">
-        <v>147384</v>
+        <v>178761</v>
       </c>
       <c r="C74" t="s">
         <v>715</v>
@@ -8571,7 +8571,7 @@
         <v>33268</v>
       </c>
       <c r="B75" t="n">
-        <v>147385</v>
+        <v>178762</v>
       </c>
       <c r="C75" t="s">
         <v>725</v>
@@ -8646,7 +8646,7 @@
         <v>33268</v>
       </c>
       <c r="B76" t="n">
-        <v>147386</v>
+        <v>178763</v>
       </c>
       <c r="C76" t="s">
         <v>732</v>
@@ -8721,7 +8721,7 @@
         <v>33268</v>
       </c>
       <c r="B77" t="n">
-        <v>147387</v>
+        <v>178764</v>
       </c>
       <c r="C77" t="s">
         <v>742</v>
@@ -8796,7 +8796,7 @@
         <v>33268</v>
       </c>
       <c r="B78" t="n">
-        <v>147388</v>
+        <v>178765</v>
       </c>
       <c r="C78" t="s">
         <v>750</v>
@@ -8942,7 +8942,7 @@
         <v>33268</v>
       </c>
       <c r="B80" t="n">
-        <v>147389</v>
+        <v>178766</v>
       </c>
       <c r="C80" t="s">
         <v>766</v>
@@ -9017,7 +9017,7 @@
         <v>33268</v>
       </c>
       <c r="B81" t="n">
-        <v>147390</v>
+        <v>178767</v>
       </c>
       <c r="C81" t="s">
         <v>775</v>
@@ -9092,7 +9092,7 @@
         <v>33268</v>
       </c>
       <c r="B82" t="n">
-        <v>147391</v>
+        <v>178768</v>
       </c>
       <c r="C82" t="s">
         <v>785</v>
@@ -9167,7 +9167,7 @@
         <v>33268</v>
       </c>
       <c r="B83" t="n">
-        <v>147392</v>
+        <v>178769</v>
       </c>
       <c r="C83" t="s">
         <v>795</v>
@@ -9242,7 +9242,7 @@
         <v>33268</v>
       </c>
       <c r="B84" t="n">
-        <v>147393</v>
+        <v>178770</v>
       </c>
       <c r="C84" t="s">
         <v>804</v>
@@ -9384,7 +9384,7 @@
         <v>33268</v>
       </c>
       <c r="B86" t="n">
-        <v>147394</v>
+        <v>178771</v>
       </c>
       <c r="C86" t="s">
         <v>820</v>
@@ -9451,7 +9451,7 @@
         <v>33268</v>
       </c>
       <c r="B87" t="n">
-        <v>147395</v>
+        <v>178772</v>
       </c>
       <c r="C87" t="s">
         <v>827</v>
@@ -9518,7 +9518,7 @@
         <v>33268</v>
       </c>
       <c r="B88" t="n">
-        <v>147396</v>
+        <v>178773</v>
       </c>
       <c r="C88" t="s">
         <v>834</v>
@@ -9585,7 +9585,7 @@
         <v>33268</v>
       </c>
       <c r="B89" t="n">
-        <v>147397</v>
+        <v>178774</v>
       </c>
       <c r="C89" t="s">
         <v>840</v>
@@ -9656,7 +9656,7 @@
         <v>33268</v>
       </c>
       <c r="B90" t="n">
-        <v>147398</v>
+        <v>178775</v>
       </c>
       <c r="C90" t="s">
         <v>847</v>
@@ -9877,7 +9877,7 @@
         <v>33268</v>
       </c>
       <c r="B93" t="n">
-        <v>147399</v>
+        <v>178776</v>
       </c>
       <c r="C93" t="s">
         <v>874</v>
@@ -9952,7 +9952,7 @@
         <v>33268</v>
       </c>
       <c r="B94" t="n">
-        <v>147400</v>
+        <v>178777</v>
       </c>
       <c r="C94" t="s">
         <v>884</v>
@@ -10023,7 +10023,7 @@
         <v>33268</v>
       </c>
       <c r="B95" t="n">
-        <v>147401</v>
+        <v>178778</v>
       </c>
       <c r="C95" t="s">
         <v>891</v>
@@ -10094,7 +10094,7 @@
         <v>33268</v>
       </c>
       <c r="B96" t="n">
-        <v>147402</v>
+        <v>178779</v>
       </c>
       <c r="C96" t="s">
         <v>898</v>
@@ -10236,7 +10236,7 @@
         <v>33268</v>
       </c>
       <c r="B98" t="n">
-        <v>147403</v>
+        <v>178780</v>
       </c>
       <c r="C98" t="s">
         <v>912</v>
@@ -10307,7 +10307,7 @@
         <v>33268</v>
       </c>
       <c r="B99" t="n">
-        <v>147404</v>
+        <v>178781</v>
       </c>
       <c r="C99" t="s">
         <v>919</v>
@@ -10378,7 +10378,7 @@
         <v>33268</v>
       </c>
       <c r="B100" t="n">
-        <v>147405</v>
+        <v>178782</v>
       </c>
       <c r="C100" t="s">
         <v>926</v>
@@ -10435,7 +10435,7 @@
         <v>33268</v>
       </c>
       <c r="B101" t="n">
-        <v>147406</v>
+        <v>178783</v>
       </c>
       <c r="C101" t="s">
         <v>933</v>
@@ -10492,7 +10492,7 @@
         <v>33268</v>
       </c>
       <c r="B102" t="n">
-        <v>147407</v>
+        <v>178784</v>
       </c>
       <c r="C102" t="s">
         <v>938</v>
@@ -10563,7 +10563,7 @@
         <v>33268</v>
       </c>
       <c r="B103" t="n">
-        <v>147408</v>
+        <v>178785</v>
       </c>
       <c r="C103" t="s">
         <v>945</v>
@@ -10634,7 +10634,7 @@
         <v>33268</v>
       </c>
       <c r="B104" t="n">
-        <v>147409</v>
+        <v>178786</v>
       </c>
       <c r="C104" t="s">
         <v>951</v>
@@ -10705,7 +10705,7 @@
         <v>33268</v>
       </c>
       <c r="B105" t="n">
-        <v>147410</v>
+        <v>178787</v>
       </c>
       <c r="C105" t="s">
         <v>958</v>
@@ -10772,7 +10772,7 @@
         <v>33268</v>
       </c>
       <c r="B106" t="n">
-        <v>147411</v>
+        <v>178788</v>
       </c>
       <c r="C106" t="s">
         <v>965</v>
@@ -10894,7 +10894,7 @@
         <v>33268</v>
       </c>
       <c r="B108" t="n">
-        <v>147412</v>
+        <v>178789</v>
       </c>
       <c r="C108" t="s">
         <v>977</v>
